--- a/outputs/ML_Results/dist_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_LR/Leipzig.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ26754233" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ26912260" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ27066778" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ27222802" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ27471022" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ27621536" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27778060" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ27935213" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ28116251" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ28261762" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ28418796" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ28577497" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ28737521" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ28892561" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ29045071" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ29210106" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ29360617" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ29518343" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ29672864" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ29823888" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ29980917" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ30136434" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ30290810" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ30434319" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ30594342" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ30754856" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ30912882" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ31065923" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ31224949" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ31381624" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ31526649" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ31671913" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ31825934" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ31980493" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ32136516" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ32295070" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ32446581" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ32599723" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ32754282" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ32910306" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ33067338" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ33224366" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ33384402" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ33534916" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ33689079" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ33842590" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ33989738" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ34144245" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ34299275" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ34455138" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ59379425" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ59527898" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ59712032" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ59912815" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ00180925" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ00539837" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ00776111" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ00976166" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01178229" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01365793" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ01607572" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ01875758" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ02087877" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ02287920" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ02475968" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ02668004" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ02856181" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ03123161" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ03298840" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ03494011" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ03696043" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ03886316" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ04078345" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ04260115" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ04479019" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ04690057" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ04901612" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ05097638" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ05297840" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ05506937" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ05696965" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ05894594" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ06090116" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ06292465" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ06487496" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ06754531" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ06956071" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ07195191" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ07392596" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ07593628" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ07779998" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ07968951" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ08211110" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ08399779" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ08580801" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ08766827" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ08946663" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ09145143" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ09331177" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ09525214" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_LR/Leipzig.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ59379425" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ59527898" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ59712032" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ59912815" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ00180925" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ00539837" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ00776111" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ00976166" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ01178229" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ01365793" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ01607572" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ01875758" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ02087877" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ02287920" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ02475968" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ02668004" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ02856181" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ03123161" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ03298840" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ03494011" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ03696043" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ03886316" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ04078345" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ04260115" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ04479019" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ04690057" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ04901612" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ05097638" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ05297840" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ05506937" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ05696965" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ05894594" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ06090116" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ06292465" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ06487496" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ06754531" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ06956071" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ07195191" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ07392596" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ07593628" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ07779998" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ07968951" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ08211110" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ08399779" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ08580801" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ08766827" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ08946663" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ09145143" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ09331177" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ09525214" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ32968862" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ33105161" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ33229225" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ33364494" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ33498058" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ33622481" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ33750954" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ33879494" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ34012404" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ34130928" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ34278165" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ34423290" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ34557579" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ34704932" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ34864133" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ34994308" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ35126288" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ35264304" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ35400618" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ35537218" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ35672484" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ35811835" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ35937569" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ36054974" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ36182275" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ36310993" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ36442261" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ36567985" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ36699291" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ36827801" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ36949914" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ37069057" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ37195996" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ37325515" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ37454248" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ37585318" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ37705936" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ37831646" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ37967403" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ38120496" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ38247455" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ38408829" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ38552469" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ38697263" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ38831494" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ38963594" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ39113256" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ39403205" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ39530684" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ39658474" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4650.698219326344</v>
+        <v>4632.619470344574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06252194079352046</v>
+        <v>0.04470163145767982</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.6427793109717</v>
+        <v>125.0345405159093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1513721030215903</v>
+        <v>0.1302792968405736</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.1860446651161</v>
+        <v>162.0583653839445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200745794988361</v>
+        <v>0.1660715460195199</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06629091035461851</v>
+        <v>0.06664266175603262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5379726618263344</v>
+        <v>0.5184570116648369</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.89216832799036e-05</v>
+        <v>5.905427334875968e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3061578800053761</v>
+        <v>0.2869326668659394</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.34514832813436</v>
+        <v>-27.45500448860908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2873324453391201</v>
+        <v>0.2622309579452531</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.862560834481499</v>
+        <v>-6.849992189761736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5240820634347501</v>
+        <v>0.5104281635913901</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5567.632607823257</v>
+        <v>-5568.20097991791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001300731880404863</v>
+        <v>0.0008841198132291678</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1514.316988709636</v>
+        <v>-1505.776253025182</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4450913983005274</v>
+        <v>0.4252794042985324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-43.91779409399032</v>
+        <v>6548.406302770811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9802740505999783</v>
+        <v>0.03597575939008181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6522.124076239328</v>
+        <v>-3.657555365093117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05493227857899589</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.710029917172122</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8344614004335842</v>
+        <v>0.8301228996251465</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-940.929903296952</v>
+        <v>-248.8157690228236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7334266988272984</v>
+        <v>0.9201876542486509</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0716834302157</v>
+        <v>105.7344448490807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2479012906396953</v>
+        <v>0.2854770140337828</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.249042174133</v>
+        <v>220.6464951525183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06228028893751943</v>
+        <v>0.06854889312922335</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1825077631969521</v>
+        <v>0.1819685163601903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1674233950587323</v>
+        <v>0.1604495972896512</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.334722394206948e-06</v>
+        <v>-7.389574045277804e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4867961012433117</v>
+        <v>0.4753264103950222</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.245986184013411</v>
+        <v>11.85871855059685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7354063631513523</v>
+        <v>0.6111825100283497</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.58401509652026</v>
+        <v>16.25661846839872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198804514159287</v>
+        <v>0.19832267365329</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3632.030252854119</v>
+        <v>-3523.934505737465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03912415378669348</v>
+        <v>0.03944508841222469</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2689.902331549458</v>
+        <v>-3068.845916823952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1948188511403437</v>
+        <v>0.1181229588799061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2122.862424549537</v>
+        <v>12328.28682190441</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5312172000858016</v>
+        <v>0.01310702678084482</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13082.26809642343</v>
+        <v>-12.67619520804247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01297629200521397</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-9.239318895443247</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.647781844548184</v>
+        <v>0.508522191578046</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3051.733806626162</v>
+        <v>2904.383024409091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2174531320691755</v>
+        <v>0.2043716322789785</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.5642024759893</v>
+        <v>148.5533547809816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1331968172821128</v>
+        <v>0.1146668003754639</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.5287751571298</v>
+        <v>374.3840181364328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01979429170229517</v>
+        <v>0.01389363145570799</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04397595390191369</v>
+        <v>0.0467770457880175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7169310430198498</v>
+        <v>0.6887556056695521</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.207680193397421e-06</v>
+        <v>-9.08538020187686e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4450398536715258</v>
+        <v>0.4359096993627576</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.46999485061324</v>
+        <v>34.21963510849811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2407274798641717</v>
+        <v>0.2321782875138461</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.988894880229232</v>
+        <v>8.983895632537099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4644854262294449</v>
+        <v>0.4503940262789534</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3469.492494047289</v>
+        <v>-3479.65163293483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02197288792179517</v>
+        <v>0.01766673976459923</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4836.928853762455</v>
+        <v>-4751.26014760265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04547908259725735</v>
+        <v>0.03899740308797831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-382.9588095539011</v>
+        <v>-1385.513664671458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8368616651978527</v>
+        <v>0.7618711114728511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1702.920767853642</v>
+        <v>-27.50273382388424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7317972673772024</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-28.38313997983216</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1971861100231644</v>
+        <v>0.1876787996517273</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1070.021890896444</v>
+        <v>1822.775666907849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6757498341604603</v>
+        <v>0.4158938476454426</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.6076108393602</v>
+        <v>120.0326783051294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197914536315671</v>
+        <v>0.2427191409265245</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.5511265498647</v>
+        <v>204.618310423147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08274199063087603</v>
+        <v>0.09398546312500224</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1243888250504395</v>
+        <v>0.1036392813830469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2678504118646966</v>
+        <v>0.3217181603014361</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.434960498355016e-07</v>
+        <v>2.293432376087092e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9441297694451065</v>
+        <v>0.8209676254484853</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.253785222708899</v>
+        <v>5.610119026621248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9922644824347413</v>
+        <v>0.8176486063808651</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.730733306943833</v>
+        <v>4.422577478137118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5980032072134591</v>
+        <v>0.7117272921767814</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6935.298660758508</v>
+        <v>-7073.481868540917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009028562772668463</v>
+        <v>0.0005297492724239026</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2356.118645310351</v>
+        <v>-2579.826970120218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20220116784611</v>
+        <v>0.148821642520837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2023.041662455122</v>
+        <v>8471.598966072796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5268734743292547</v>
+        <v>0.01458421694206149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9424.856837669951</v>
+        <v>4.29201956300521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01614019623331721</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.104099894917081</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8072991195678125</v>
+        <v>0.7947645238556069</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2448.463996074782</v>
+        <v>2228.555724942208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3328764276078749</v>
+        <v>0.3426734387703178</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-21.31085710005596</v>
+        <v>-15.07878821275324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8357133996519275</v>
+        <v>0.8774313184878404</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.997431982251</v>
+        <v>263.4292659626888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05461231340221843</v>
+        <v>0.03187343214369783</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001585165626704577</v>
+        <v>0.002369964210343717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9900210577035105</v>
+        <v>0.9845488236081851</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.341598676034259e-06</v>
+        <v>-6.31775419272822e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6188473951818669</v>
+        <v>0.6095312189957796</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.06643553792043</v>
+        <v>24.52596252365485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3246089116911994</v>
+        <v>0.329939472928018</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.657126302581515</v>
+        <v>1.84048475198256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8974439048812801</v>
+        <v>0.8826132535498121</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4230.456132682406</v>
+        <v>-4193.361808320261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02167043866922948</v>
+        <v>0.0185361959908252</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4613.970803727283</v>
+        <v>-4476.709272986322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07835461202974155</v>
+        <v>0.07321555559874278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-608.8553187775578</v>
+        <v>3960.665771539141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7564078013270201</v>
+        <v>0.2179717242229662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3671.051754520409</v>
+        <v>22.26150412815321</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2846843891081984</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.08099833728315</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3079869271474243</v>
+        <v>0.2894733712696431</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>664.4429031217114</v>
+        <v>362.7599571982137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7607917398325714</v>
+        <v>0.8672255813834265</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.10918869869056</v>
+        <v>49.97403842466406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6723819913290128</v>
+        <v>0.4875100393449511</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378.7264180694635</v>
+        <v>403.8464599987292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006165011188944023</v>
+        <v>0.003328566545284142</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06440326289496567</v>
+        <v>0.04820329930879952</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5396946810199954</v>
+        <v>0.6429386614375755</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.578181777672428e-05</v>
+        <v>8.082219921489213e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1189549641725967</v>
+        <v>0.09678157602054041</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.80938282348623</v>
+        <v>9.309909664477715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5289614274626453</v>
+        <v>0.642960629571933</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.556989804878626</v>
+        <v>7.625235705318573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3443967792629865</v>
+        <v>0.441960758897785</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2759.287375547276</v>
+        <v>-2916.653543518261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06514024151509465</v>
+        <v>0.0514698101739207</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-813.0508961994301</v>
+        <v>-549.0012596937413</v>
       </c>
       <c r="C10" t="n">
-        <v>0.657899066345804</v>
+        <v>0.7632561220911018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1770.459352384656</v>
+        <v>8050.855575799955</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2984915585151978</v>
+        <v>0.02591985475695312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7977.925170607648</v>
+        <v>-17.6911675943445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0273502890021729</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.90425830125127</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1706457668156499</v>
+        <v>0.2750630357475928</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2337.319635723158</v>
+        <v>2545.850128839813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4194484349074936</v>
+        <v>0.3239628245684634</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.19797701506383</v>
+        <v>66.65155696056303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4663292002975835</v>
+        <v>0.4661209262630911</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>266.4590873209713</v>
+        <v>257.6554489336797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06620312762563718</v>
+        <v>0.05094099574833508</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07044089980519963</v>
+        <v>0.06328105776295545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6003036165086933</v>
+        <v>0.6112951620770973</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.224947905295906e-07</v>
+        <v>-9.20295345453414e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9545240889631421</v>
+        <v>0.9401001243520373</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.23571061580803</v>
+        <v>10.99164447537373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6910488439405529</v>
+        <v>0.6558688579983367</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4288928115101243</v>
+        <v>0.3626927531146649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9728392668122845</v>
+        <v>0.9763165033064848</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4091.746306766385</v>
+        <v>-4120.05106795186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01849637116858339</v>
+        <v>0.01419595696996548</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3096.60083000904</v>
+        <v>-3098.540956041244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1807412580257662</v>
+        <v>0.1674674232417613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>433.13306566903</v>
+        <v>4537.702977175326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8568846247369646</v>
+        <v>0.2027011006142616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4842.2834992346</v>
+        <v>6.595910055449266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2320822841057078</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.500428906585007</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7012950850398344</v>
+        <v>0.7189381668088877</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1849.918610768935</v>
+        <v>2021.429944945176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5167828893025724</v>
+        <v>0.416949217868628</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.38597726669775</v>
+        <v>68.2922146630865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5000747869089284</v>
+        <v>0.4914606095815839</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.2554458979257</v>
+        <v>297.7686552037132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05846903190036658</v>
+        <v>0.04215195106244041</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06050784583780611</v>
+        <v>0.05497064741026536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6631714999828977</v>
+        <v>0.6691807012703215</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.754260119094044e-06</v>
+        <v>-1.750956717393949e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8881240267203381</v>
+        <v>0.8846520285350679</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.79275118848477</v>
+        <v>20.63902373885639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4940780728385099</v>
+        <v>0.4512594947181493</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.465375752062887</v>
+        <v>2.37564059775999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8431116043864776</v>
+        <v>0.8435772996316544</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3862.156583961749</v>
+        <v>-3897.214658109317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03491941196858035</v>
+        <v>0.02655223828084206</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2982.068609643404</v>
+        <v>-2988.169778651461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2011206212885057</v>
+        <v>0.1856280332985105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.5432064097804</v>
+        <v>3820.258385222871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.890262198887993</v>
+        <v>0.3513312166912497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4084.652450283796</v>
+        <v>2.438519039922085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.380311395975493</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.276996599212922</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8818300138388759</v>
+        <v>0.9053451165190073</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2902.441749026621</v>
+        <v>2905.199504528905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2723096907891386</v>
+        <v>0.2384357105770449</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.5013158615631</v>
+        <v>190.4180798056072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05894516529621681</v>
+        <v>0.04580344855739936</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.9197879604452</v>
+        <v>329.8169130183635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0379047551013851</v>
+        <v>0.0295593180285144</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002067795058175587</v>
+        <v>-0.002111052653223394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9860118771888627</v>
+        <v>0.9851699844425743</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.965317371350235e-05</v>
+        <v>7.961636541513832e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1951817658152967</v>
+        <v>0.1755006073255623</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.20267463485309</v>
+        <v>10.22324045322812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6927820950637968</v>
+        <v>0.6758843789911169</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.677989920040766</v>
+        <v>2.673398517718901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8306908423192133</v>
+        <v>0.8245788067789162</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4341.343620341846</v>
+        <v>-4340.976081670013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007702895008603747</v>
+        <v>0.005789320695604028</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2556.409449808732</v>
+        <v>-2557.821401360812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2543307126161409</v>
+        <v>0.2321711270728781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.251981560679269</v>
+        <v>2867.79850912894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9968873003612554</v>
+        <v>0.358590271771843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2871.908387014535</v>
+        <v>-18.08440552898186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3979010672102063</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.08131790157537</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3671203515003226</v>
+        <v>0.3506629098839321</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2957.31841645005</v>
+        <v>2686.820087719474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08217662383481102</v>
+        <v>0.0920136598184588</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.31316969135469</v>
+        <v>39.99407097251162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6182158993234341</v>
+        <v>0.5062732547366877</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.2032188302008</v>
+        <v>287.1966565723944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006347443625809</v>
+        <v>0.003251074676395462</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08681304654609634</v>
+        <v>0.09257554273552565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.340197834813067</v>
+        <v>0.2975739355018316</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.091897793032691e-07</v>
+        <v>1.164138164625978e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9078084539022446</v>
+        <v>0.879580972113315</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.435116831612135</v>
+        <v>-3.969293557981189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9375104893961668</v>
+        <v>0.8205266932402597</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.899088463524564</v>
+        <v>-2.90346931059759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7252811987808622</v>
+        <v>0.719471405871414</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4399.846183693538</v>
+        <v>-4432.236044758231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001153158038774478</v>
+        <v>0.0008108282010335193</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1884.257737211722</v>
+        <v>-1746.798695251156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2657309127125893</v>
+        <v>0.2865541780115834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-858.608809614665</v>
+        <v>5489.844935625506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5385219683665454</v>
+        <v>0.02576007983030041</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4992.506951701175</v>
+        <v>6.043088901119035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05597066487833977</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.791147294617929</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.71334239624896</v>
+        <v>0.632632444749903</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.830348709763</v>
+        <v>1062.455169535845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6795099036204288</v>
+        <v>0.6847494264899705</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-96.12751823168918</v>
+        <v>-92.1363664240279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4195191797290549</v>
+        <v>0.4148964735145274</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.5833785493609</v>
+        <v>255.7994683070659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0469797685538695</v>
+        <v>0.0338701422766539</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007219605713063793</v>
+        <v>-0.005101330517739977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9520926405518648</v>
+        <v>0.9648449792013329</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.987511759617091e-05</v>
+        <v>-1.965053949718802e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1839940748276349</v>
+        <v>0.1729668806970575</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.37768467436021</v>
+        <v>34.37049986854718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1765636619528708</v>
+        <v>0.1635058061651882</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.97225276224467</v>
+        <v>11.78187841965275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3977335108596458</v>
+        <v>0.3884226894120584</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5536.354423997707</v>
+        <v>-5548.008910654804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02242733795828428</v>
+        <v>0.01811067994564683</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5212.873283687517</v>
+        <v>-5180.092275231244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04366584282463806</v>
+        <v>0.03772231808527025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-335.953081379681</v>
+        <v>3072.804533053633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8626292573124932</v>
+        <v>0.5320062225033989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2996.767816546533</v>
+        <v>36.33253617176904</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5564650230195026</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.68301636958456</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2451120396795854</v>
+        <v>0.2184945811379957</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2182.824329358658</v>
+        <v>2238.634411067747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4488847767741229</v>
+        <v>0.4098176662404872</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.2325254349057</v>
+        <v>129.6473788984634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1733335691520455</v>
+        <v>0.1560388563559233</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.2097122168657</v>
+        <v>415.2323257120831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02699560555135816</v>
+        <v>0.02226998549466414</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002097461788099553</v>
+        <v>-0.004391078609137233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9877996691417055</v>
+        <v>0.9730725454698972</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.838083322170746e-06</v>
+        <v>-8.913607799611521e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4972737614643672</v>
+        <v>0.478216594371178</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.05151189805544</v>
+        <v>40.61443796487366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205134599958063</v>
+        <v>0.1746247752479703</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.136727031133816</v>
+        <v>8.140572121562673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5388511705651438</v>
+        <v>0.5250959439199884</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3943.387333998877</v>
+        <v>-3942.446446222298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01312601331648636</v>
+        <v>0.01036855687432638</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3599.799522847596</v>
+        <v>-3602.15350839654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1251986060980188</v>
+        <v>0.1127549560258631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.2701828544168</v>
+        <v>-584.5239369871051</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9326103560149998</v>
+        <v>0.8814486873623293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-471.5519020641368</v>
+        <v>-20.99077621289155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9119690186842879</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-20.52226632635615</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3787511780947026</v>
+        <v>0.3383700339205271</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.645383812723</v>
+        <v>2639.567619365735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5854878310067912</v>
+        <v>0.3309116454945297</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.17207627901337</v>
+        <v>64.79694316642264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4588642191802669</v>
+        <v>0.546253745631889</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.5200989441105</v>
+        <v>196.6355663550428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.109417545323345</v>
+        <v>0.1206360228168059</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1382757881060986</v>
+        <v>0.1329308020898512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2946883004161522</v>
+        <v>0.3016454859066304</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.38654303217797e-07</v>
+        <v>1.607718255994469e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9553014286960569</v>
+        <v>0.8841871622134356</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.356823988199295</v>
+        <v>6.651209211289824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9044733411284869</v>
+        <v>0.8041465098679723</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.134100796848095</v>
+        <v>2.601953372510968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7543747901216349</v>
+        <v>0.8371295009248687</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5054.8389701345</v>
+        <v>-5162.837681821296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006433950340148071</v>
+        <v>0.004366431401073173</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3330.264908575832</v>
+        <v>-3734.853467637985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1242200287049085</v>
+        <v>0.06483919435723969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2069.192834881219</v>
+        <v>7140.824067252189</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5705115292418304</v>
+        <v>0.05063917660693389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8154.008661955662</v>
+        <v>-0.4302615376997068</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05179552054808542</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.068731362995194</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9115209025743983</v>
+        <v>0.9806249848195274</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1672.080010291568</v>
+        <v>1537.771616323031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5506985685241683</v>
+        <v>0.5612558336548333</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.77340844762381</v>
+        <v>91.68500245135834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3985198404234315</v>
+        <v>0.3646594792068922</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.4577363807035</v>
+        <v>274.0649754196329</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07759367775128086</v>
+        <v>0.05217955656959462</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05971807428456505</v>
+        <v>0.06298110150507713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6739917412557196</v>
+        <v>0.6453016651768131</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.809957401079203e-06</v>
+        <v>-3.620680786047791e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7757202095466404</v>
+        <v>0.7794219269521131</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.1429907797787</v>
+        <v>10.6481219530836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6483276525369368</v>
+        <v>0.66912791992281</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.63149431856908</v>
+        <v>5.445409885016046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6889839464434839</v>
+        <v>0.6889707652387045</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3081.420117689612</v>
+        <v>-3098.943646564136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1366350724312935</v>
+        <v>0.1221742314993711</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2555.727337136615</v>
+        <v>-2480.708786154015</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3000401189693358</v>
+        <v>0.2939337312785268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-507.0354401999639</v>
+        <v>6996.17511563904</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8261802058897328</v>
+        <v>0.1395046201201689</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6827.959842054894</v>
+        <v>-4.278143851730647</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1668627737461545</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.313583842401037</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8332349926868396</v>
+        <v>0.8586006986206628</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2999.647873023819</v>
+        <v>2820.399084348502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4206044964157218</v>
+        <v>0.4136173887805564</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.6192703188932</v>
+        <v>62.94334982202946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7041050975652017</v>
+        <v>0.6524023178751333</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5675655615303</v>
+        <v>248.8529477054947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1317951449361843</v>
+        <v>0.1091931993268363</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04433575182484284</v>
+        <v>0.04727634231751615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7069485879418651</v>
+        <v>0.6755281943898446</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.174074229640017e-05</v>
+        <v>5.200952682820627e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5432559796552666</v>
+        <v>0.5279001356760435</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.874676898905491</v>
+        <v>4.356436033977786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8940512388051572</v>
+        <v>0.9018062118435121</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1324352145847101</v>
+        <v>0.5057473136127726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9940095344342694</v>
+        <v>0.9761852037905008</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4440.002318836252</v>
+        <v>-4449.292445724918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03581656029482019</v>
+        <v>0.02978909584473699</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3138.878987544841</v>
+        <v>-3085.177327082951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2746566217322438</v>
+        <v>0.2641061383373735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-352.5683973954656</v>
+        <v>5305.293650180892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8667293334694163</v>
+        <v>0.1351291249247406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5106.3805702614</v>
+        <v>1.670818130058677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1842268802204931</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.291522425752092</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9566928198373646</v>
+        <v>0.9418949639726177</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.8998389784035</v>
+        <v>1523.980099137241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.708184022560447</v>
+        <v>0.5015378727372853</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.58715947097477</v>
+        <v>-22.97145203700023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8918705988006939</v>
+        <v>0.7492329164057095</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.2537558367315</v>
+        <v>355.1677271032484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009582383770309644</v>
+        <v>0.008267401788609338</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07063015100840753</v>
+        <v>0.04303092977649514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5159781150776187</v>
+        <v>0.6321302775281962</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.721006802280343e-06</v>
+        <v>-1.580047835645945e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8567628498062104</v>
+        <v>0.8649789435532946</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.95998761225827</v>
+        <v>20.7066143123127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4991870663904274</v>
+        <v>0.3264075210215561</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.345226233426528</v>
+        <v>0.2884423583588323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8956519493302257</v>
+        <v>0.9764509378187149</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3678.40752244528</v>
+        <v>-3550.101758749617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009871816887738992</v>
+        <v>0.008744495239210613</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2283.606752038419</v>
+        <v>-2287.821908379452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1649487285076771</v>
+        <v>0.1535009710417243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1626.854537622155</v>
+        <v>5335.297215903411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6280004035862337</v>
+        <v>0.07284063821276594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6610.112119073456</v>
+        <v>6.761736607907949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1057175605676304</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.764893596671541</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.584320082438369</v>
+        <v>0.6209771244838137</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3272.735139028153</v>
+        <v>3088.356929823487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2055404421989357</v>
+        <v>0.1875014603308734</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.99161875359886</v>
+        <v>44.09697634679154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6785178647676391</v>
+        <v>0.6163810832795735</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.7054868145466</v>
+        <v>234.9276636993923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1504985677760459</v>
+        <v>0.08548385109021772</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1650634075258562</v>
+        <v>0.1510480896958898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4187370379400571</v>
+        <v>0.4172011250079061</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.866158667553553e-06</v>
+        <v>-4.414847523529226e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6922014772519112</v>
+        <v>0.706235041873529</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.704888846950738</v>
+        <v>7.480316644801178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7637920932957685</v>
+        <v>0.7630489310526104</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.058213623850187</v>
+        <v>3.443253542139452</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7622558013653956</v>
+        <v>0.7857468372895501</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4054.779033298184</v>
+        <v>-4006.559721782237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02045577332862579</v>
+        <v>0.0168009796464626</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5056.099881516455</v>
+        <v>-4804.959480540731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1119215944188962</v>
+        <v>0.09003870710952407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-504.7460620626871</v>
+        <v>4012.929011286338</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8359554591939009</v>
+        <v>0.2578745164460342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3880.359509240445</v>
+        <v>-1.642175991413374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2959205941638487</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.64667273186528</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8715577031556385</v>
+        <v>0.933660865399034</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3084.61529932857</v>
+        <v>3026.642750351437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1397634637329791</v>
+        <v>0.118527621325064</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.27149355706717</v>
+        <v>101.6358036007287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2562987791444883</v>
+        <v>0.2126711950953978</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.6005184943017</v>
+        <v>346.5744024873627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01121685793898235</v>
+        <v>0.007865211755390612</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03767533158996278</v>
+        <v>0.03910320326592703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7261254620292958</v>
+        <v>0.7051070757375812</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.214973761564029e-07</v>
+        <v>-4.710715939341801e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9707078136725702</v>
+        <v>0.9662040932951955</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.80765168480825</v>
+        <v>18.28861512321598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4862281525370599</v>
+        <v>0.476081510964638</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.267390429701408</v>
+        <v>2.3348440456768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8355037183166774</v>
+        <v>0.8251122375276948</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5880.676454010572</v>
+        <v>-5860.428901712716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002717179153819092</v>
+        <v>0.001921577938643073</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2957.364355424153</v>
+        <v>-2934.810976538654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1160956886237636</v>
+        <v>0.10488809735094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-164.8948930608512</v>
+        <v>3609.102863829314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9222451294421138</v>
+        <v>0.3502198724993424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3543.595830611021</v>
+        <v>-17.16942052999179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3803112467338872</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.41721913412338</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3823711045785008</v>
+        <v>0.3703853984992205</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2437.828963739797</v>
+        <v>2629.368823625322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2287866880747969</v>
+        <v>0.1627416388871546</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.1075530763728</v>
+        <v>153.0334858166879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08009731942510755</v>
+        <v>0.07475433967211362</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.0064587976241</v>
+        <v>353.6649925262692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009542856723803887</v>
+        <v>0.007659428240126298</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05073450826269688</v>
+        <v>0.04569947539027686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.64282392843448</v>
+        <v>0.6633111860669973</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.286186451455537e-06</v>
+        <v>-7.26987003145995e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4754282249568043</v>
+        <v>0.4631017434603044</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00924377252875</v>
+        <v>16.54125202806202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5826507781785895</v>
+        <v>0.5265170145153646</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.012441704347026</v>
+        <v>6.819939062810615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5032947742733549</v>
+        <v>0.5015043007093556</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4812.580384805702</v>
+        <v>-4806.449018089466</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004582103040326117</v>
+        <v>0.003494763220911816</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2854.725990325634</v>
+        <v>-2914.490831613388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1019591113058214</v>
+        <v>0.08401930759172263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>520.4105564915608</v>
+        <v>2441.261502911755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7522388453881617</v>
+        <v>0.5340678197612059</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2754.985728345775</v>
+        <v>-19.71422730844399</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5090088626434568</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-19.01871079291881</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3072756718787779</v>
+        <v>0.2727459459176442</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2458.220872157937</v>
+        <v>3571.316556447759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3811327711079336</v>
+        <v>0.1951535750440671</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.21190077293681</v>
+        <v>50.21582865320545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4509269965744254</v>
+        <v>0.58990845133854</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.0238839046494</v>
+        <v>191.0387141547749</v>
       </c>
       <c r="C4" t="n">
-        <v>0.159210344771931</v>
+        <v>0.2373108885692908</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05598868526480083</v>
+        <v>0.04040728709525077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7127114025956667</v>
+        <v>0.7936070764835738</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.699567616360997e-07</v>
+        <v>7.900361701475326e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9780131327459471</v>
+        <v>0.9538965110022262</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.43919875188637</v>
+        <v>3.531154708480265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7150329424942962</v>
+        <v>0.8955342425073196</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.092889877798505</v>
+        <v>0.1678164930051835</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8273593741078</v>
+        <v>0.9906155545731206</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5070.245430533279</v>
+        <v>-4816.65513907785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005339966389478015</v>
+        <v>0.007628607827538226</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2285.168655913851</v>
+        <v>-3051.933883599073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3431226699576415</v>
+        <v>0.2044074232172657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4678.858018519824</v>
+        <v>5822.541812136861</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2132367361219058</v>
+        <v>0.1194888734932427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8500.482485322425</v>
+        <v>-2.105284040062912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05222712558461998</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.221806623735247</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8549855823005563</v>
+        <v>0.9286076251696287</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.495560586216</v>
+        <v>332.6295513358054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8727405537730674</v>
+        <v>0.9049929978338584</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-40.87573760343415</v>
+        <v>-35.81990110230004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7456913840502232</v>
+        <v>0.7637046253265358</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.3902628249554</v>
+        <v>298.4759406222708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05889246165286524</v>
+        <v>0.03724953395563672</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07864890700116622</v>
+        <v>0.08398770093923588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5434426124897188</v>
+        <v>0.492494379278822</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.080292781629346e-06</v>
+        <v>-8.887619901817837e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5791738607164219</v>
+        <v>0.5742664580311767</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.56766227007478</v>
+        <v>36.38673995442744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2256471942183335</v>
+        <v>0.2150277445395699</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.36263885021397</v>
+        <v>10.3461541469066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.491578055096473</v>
+        <v>0.4782288218360019</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5786.782235271664</v>
+        <v>-5731.357076049895</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01131779934498505</v>
+        <v>0.008841593638454626</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5278.268304188232</v>
+        <v>-5223.834408471354</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05695455244806089</v>
+        <v>0.05012126833879565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-421.3768191253271</v>
+        <v>6496.682132230355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8518307508026957</v>
+        <v>0.08509242346588124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6270.575377529753</v>
+        <v>21.09023254903248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1233022501767204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.93943058452148</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3747541824316057</v>
+        <v>0.3557190569784174</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.6839273817877</v>
+        <v>-24.85405402336255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9558436959335319</v>
+        <v>0.992838420332233</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.2530681351263</v>
+        <v>185.361236428366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1556281646817528</v>
+        <v>0.1219710156300696</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.7375965178021</v>
+        <v>215.3319256678403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1239198778906089</v>
+        <v>0.09824032353079636</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09283664678848083</v>
+        <v>0.09763321970655531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4740564219474709</v>
+        <v>0.4315720639927457</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.901177100425714e-06</v>
+        <v>-4.818232421319641e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6728395933823876</v>
+        <v>0.6681832336471978</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.19526782074584</v>
+        <v>21.46448765731131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4026935394883723</v>
+        <v>0.3998418846001975</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.38802841009439</v>
+        <v>12.54587623089351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4068645885172116</v>
+        <v>0.3856369331883284</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3012.648218714101</v>
+        <v>-3083.126260158615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1577828289484653</v>
+        <v>0.1322380762768359</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3121.856474019059</v>
+        <v>-3117.617843295922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2270893332636838</v>
+        <v>0.2131130777655694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-495.3861511271589</v>
+        <v>8086.522283063041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8182992131665086</v>
+        <v>0.06922192211515256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7969.401297912311</v>
+        <v>-0.2183862819369864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08422298552967029</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.736807931488627</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9343796487871971</v>
+        <v>0.9910232085051043</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-67.65798469619767</v>
+        <v>-187.7597619486769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9805878465940476</v>
+        <v>0.9433600404389663</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.98596101535708</v>
+        <v>98.62182647165383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3240534498763961</v>
+        <v>0.2995483055988677</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.7616000102992</v>
+        <v>264.0617154158595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06603555835460743</v>
+        <v>0.04268566017630345</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.156150315435332</v>
+        <v>0.1588645554492075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2280453877718845</v>
+        <v>0.2039230517246905</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.348617350121092e-06</v>
+        <v>-7.283657365417188e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5509140969862332</v>
+        <v>0.5416273653052353</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8360608585482794</v>
+        <v>-0.2439448362098062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.972509719237219</v>
+        <v>0.9915477829325184</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.20651209661733</v>
+        <v>14.11048047243895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3158588147894811</v>
+        <v>0.3034849303604782</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2707.839033403546</v>
+        <v>-2733.745431197603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1549394745309242</v>
+        <v>0.1378008148021225</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1660.845467144097</v>
+        <v>-1637.803119246454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4279620218315382</v>
+        <v>0.4190622711904819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-462.8121791056692</v>
+        <v>14752.04285982231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8245508983216124</v>
+        <v>0.02540543796804854</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14627.75037694412</v>
+        <v>-19.90121514249705</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03217595776671922</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-20.83744738974291</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3900892600795856</v>
+        <v>0.3890510133454073</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3569.527484987209</v>
+        <v>2966.62989326881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07442309843058349</v>
+        <v>0.1083297164226937</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.00049997103861</v>
+        <v>44.50026654819033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6899520534786173</v>
+        <v>0.4733253734571377</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.1703406592198</v>
+        <v>334.385829825303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005028401737673461</v>
+        <v>0.001768810833654002</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03230850946140329</v>
+        <v>0.02657267744070702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7320004578160451</v>
+        <v>0.7766213520184367</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.241215293968931e-05</v>
+        <v>8.608468098002299e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08386901796002283</v>
+        <v>0.06917963171429048</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2840699819064696</v>
+        <v>-1.957039745284476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9873381114918836</v>
+        <v>0.9117582800203117</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.391878516856881</v>
+        <v>-3.244491502452348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6839824689259196</v>
+        <v>0.6955849984457229</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3775.980547497138</v>
+        <v>-3740.481474892554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002131060988006317</v>
+        <v>0.002038738156606592</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1437.481789863963</v>
+        <v>-1093.673168506161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3904833954820806</v>
+        <v>0.4984956487268284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1395.692782424669</v>
+        <v>4946.660031329317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.361921671690948</v>
+        <v>0.0514938704942725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4303.897261438455</v>
+        <v>-11.24311083075852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1002190714783972</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-14.43642361349922</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3078155815654116</v>
+        <v>0.4072066447161127</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3686.458285136849</v>
+        <v>3210.776107953277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06789222983867951</v>
+        <v>0.09064509163350877</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-46.11619636154694</v>
+        <v>-28.0881636335194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.508214609106409</v>
+        <v>0.66900838962457</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.8171498272717</v>
+        <v>346.618833833865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002764246424231046</v>
+        <v>0.001501838762605988</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009206249287565749</v>
+        <v>0.0005409175978514924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9132928075340975</v>
+        <v>0.9948090821421415</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.429286118407939e-06</v>
+        <v>3.647369012270878e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6517822682211198</v>
+        <v>0.7065034430130194</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.89772737917653</v>
+        <v>16.11066430419073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2911264615365277</v>
+        <v>0.3724644248683269</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.771402454318736</v>
+        <v>-6.938422554801498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398980531701393</v>
+        <v>0.4441112479712781</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3453.379451762812</v>
+        <v>-3287.054943517595</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01451646403319407</v>
+        <v>0.01651584459387878</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2562.56412399673</v>
+        <v>-2400.097013083324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09774738340485321</v>
+        <v>0.1126604909976076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1285.404920634979</v>
+        <v>3371.058797270428</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3891745119901792</v>
+        <v>0.179493447214778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2873.589864438907</v>
+        <v>2.928702331083542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2650266737272852</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.051758135282427</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9368251905053662</v>
+        <v>0.8217829239545652</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1016.168940459852</v>
+        <v>954.0874302177126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6846322100189794</v>
+        <v>0.6840806551463152</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.50142973695941</v>
+        <v>29.58874600279592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8011302391855736</v>
+        <v>0.7754429625512094</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.4168051538328</v>
+        <v>260.8734641261136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05257340732428294</v>
+        <v>0.03579957470187201</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1017137643286514</v>
+        <v>0.102631447516312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4298395449631093</v>
+        <v>0.409251286870659</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.86492235639193e-05</v>
+        <v>5.923585173080856e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3592782836325428</v>
+        <v>0.3367066148366059</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.8606947703114</v>
+        <v>15.11955682781062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5501327027234926</v>
+        <v>0.5396627587539027</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.56757254877058</v>
+        <v>10.50417664085336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4094642129905265</v>
+        <v>0.3961501132508003</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5721.515015696497</v>
+        <v>-5713.756523303809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003127434696036348</v>
+        <v>0.002262360514358231</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4545.285177301262</v>
+        <v>-4476.490121988762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1305933953663004</v>
+        <v>0.1135546903547957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-203.02341741855</v>
+        <v>7314.469565170944</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9201082131407963</v>
+        <v>0.05500514195873868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7182.43868760342</v>
+        <v>9.496533918933117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08330170373739444</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.376413011883088</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6477204401687493</v>
+        <v>0.6318913614826479</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3651.161505201464</v>
+        <v>4565.474050904866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1774029947642154</v>
+        <v>0.07625011473778701</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.5347111899582</v>
+        <v>82.3387479714296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.232223692879045</v>
+        <v>0.3173165095010806</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.8488272677949</v>
+        <v>176.306495264317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1520777792016478</v>
+        <v>0.2292662754915483</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1168012978514845</v>
+        <v>0.08416267350412165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3442930450555333</v>
+        <v>0.4746598454759688</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.806071090911201e-06</v>
+        <v>6.612183730631797e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5514736209403895</v>
+        <v>0.5619577755194995</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.01592226965869</v>
+        <v>-17.39868874847974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.380391264691292</v>
+        <v>0.5348994448520605</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.317414829888857</v>
+        <v>-7.770233544495479</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5331802247869175</v>
+        <v>0.5073506645225954</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5607.428773800964</v>
+        <v>-5668.263458242216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00246299397389462</v>
+        <v>0.002047119559939259</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1666.558940652965</v>
+        <v>-2059.915009488863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4059647051031733</v>
+        <v>0.2961919320882303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3072.261444609194</v>
+        <v>5706.511341269877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3365569445714561</v>
+        <v>0.1302382400779523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7195.369238393003</v>
+        <v>5.385226048322977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08347250403174893</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.395354535159257</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7042105596715946</v>
+        <v>0.7804195496304832</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2445.48065019156</v>
+        <v>-2034.628018922483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4849977477735611</v>
+        <v>0.5298417249434157</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177.5889903181654</v>
+        <v>165.2023026995556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1305846029554167</v>
+        <v>0.1307818773345635</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.7842740989295</v>
+        <v>259.9182160282022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05309497327872094</v>
+        <v>0.05016034734573135</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1331655269694536</v>
+        <v>0.1236259840581514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3279025188172917</v>
+        <v>0.3411643277225015</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.065824385538358e-05</v>
+        <v>-1.067632372998333e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4048261540071668</v>
+        <v>0.3907370457813308</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.05042967353705</v>
+        <v>35.62910866518884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2032370297492737</v>
+        <v>0.1830788146614466</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.97824835766364</v>
+        <v>22.41434341694192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1735899260291837</v>
+        <v>0.1698664790781311</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3543.084197773676</v>
+        <v>-3452.905577299825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06640142698996673</v>
+        <v>0.06297843712828993</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3337.051822357298</v>
+        <v>-3306.92556643476</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1521305550294366</v>
+        <v>0.1438238285821615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>840.1990700264844</v>
+        <v>10507.63025336791</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6968733881559988</v>
+        <v>0.04443419967977319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10859.30516016935</v>
+        <v>-5.586226266231243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04738801079761339</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.945328059910565</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8995435085571657</v>
+        <v>0.7971073710272237</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2932.737108069277</v>
+        <v>2559.750445098507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2061503826721355</v>
+        <v>0.2257793524826446</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.2315644007927</v>
+        <v>132.5857562273187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1748963126514179</v>
+        <v>0.1453692450858481</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.3957898501537</v>
+        <v>334.9151202248656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02707815277157948</v>
+        <v>0.01130626478677766</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0519052049189912</v>
+        <v>0.04525348499394549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6904483528875878</v>
+        <v>0.7203184026230749</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.631217929354929e-06</v>
+        <v>-5.491553325613124e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6019876736812174</v>
+        <v>0.6021074211718471</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.93918285703872</v>
+        <v>21.7891954539955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3374992906242462</v>
+        <v>0.3473620319932332</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.618469254154988</v>
+        <v>4.539883223985271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6861130307679155</v>
+        <v>0.6839654437238267</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3703.483747575681</v>
+        <v>-3642.600577382003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02181278509273619</v>
+        <v>0.0199818812325938</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3827.070111778516</v>
+        <v>-3624.098706322969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07605848172528763</v>
+        <v>0.07728800919880525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-979.9811528346327</v>
+        <v>2228.680404353305</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6390558542291451</v>
+        <v>0.4940678777982122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1857.460551113605</v>
+        <v>-11.46045088332282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5874641141783159</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-13.50382797773835</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4691747877329017</v>
+        <v>0.5165182372205854</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2208.861860328745</v>
+        <v>2036.149788533015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2459169074297733</v>
+        <v>0.2340256758699083</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-20.70169060434267</v>
+        <v>-16.90010214060533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7787092554491153</v>
+        <v>0.8087397801977496</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.7034180853972</v>
+        <v>375.5711334851446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004476900581990797</v>
+        <v>0.00139653853103027</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004975930967671904</v>
+        <v>0.000341254408180558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9657716487377896</v>
+        <v>0.9975454670893906</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.106916665688319e-06</v>
+        <v>-2.857882395758417e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7356186115517036</v>
+        <v>0.7471110292539713</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.06222636901842</v>
+        <v>19.48569631825509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3158082536297991</v>
+        <v>0.3110509459501274</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.539707433438998</v>
+        <v>-1.866418235379632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8687633281916893</v>
+        <v>0.8347021855330784</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2706.698271660274</v>
+        <v>-2638.43014225156</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05235724242000098</v>
+        <v>0.04583340246610461</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2220.278846677104</v>
+        <v>-2097.415420182277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2159570047642866</v>
+        <v>0.2082731850598628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-457.146316587663</v>
+        <v>3340.089428800555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8039117148999186</v>
+        <v>0.2063500181735372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3191.225591799659</v>
+        <v>6.538271529728632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2520940895529345</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.056684246856676</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.758081805824637</v>
+        <v>0.6596454544738466</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2836.155449240747</v>
+        <v>2818.704164832429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2553389140698493</v>
+        <v>0.2112940881800059</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.18906179306646</v>
+        <v>36.639529807597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7054068358468712</v>
+        <v>0.6837413391919207</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.6721403719645</v>
+        <v>262.2284697868241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05920658560996272</v>
+        <v>0.04595254057692883</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0810341030535412</v>
+        <v>0.08161821741207942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6012436569675189</v>
+        <v>0.5793690078744367</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.218901519674938e-06</v>
+        <v>4.213707936153548e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7153574847590281</v>
+        <v>0.706432786751397</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4819491532300333</v>
+        <v>0.3787449412368815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9866220560300708</v>
+        <v>0.9889470780896568</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.30279243091956</v>
+        <v>-2.286210071614057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8476771108848699</v>
+        <v>0.8433253913036122</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6345.461613040548</v>
+        <v>-6341.104586712681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002861787935047986</v>
+        <v>0.001944333191401874</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2247.218640181237</v>
+        <v>-2245.037713415336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3152087902703187</v>
+        <v>0.2989731805461308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-39.385871983166</v>
+        <v>7505.789803969216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9842178317194814</v>
+        <v>0.05651200648675433</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7483.407489282688</v>
+        <v>3.80636795626674</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07636470815899124</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.717087840768162</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8698700616674446</v>
+        <v>0.8595316340797936</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2430.291905572805</v>
+        <v>2467.74332129094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4455302021244482</v>
+        <v>0.4184978325415746</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.7928892533466</v>
+        <v>129.7091023531249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2240210203999873</v>
+        <v>0.2025083622863341</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.772348710471</v>
+        <v>315.5604540716424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05555523408727387</v>
+        <v>0.04613973862852786</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03563990851827274</v>
+        <v>0.03490299676950323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7290984663949815</v>
+        <v>0.7248517373650811</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.896200530758923e-05</v>
+        <v>8.823483344337193e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1466939536506433</v>
+        <v>0.1323250593500922</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.44111836646061</v>
+        <v>12.99004044901511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6871172241868364</v>
+        <v>0.6560023873072767</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.997419894033442</v>
+        <v>7.038409813695534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6351463258489446</v>
+        <v>0.6215899904149249</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5127.202409687739</v>
+        <v>-5129.683884454673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004833392692170441</v>
+        <v>0.003565623390705986</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3428.150983663345</v>
+        <v>-3462.676430862474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1461776968483944</v>
+        <v>0.1231868389463042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.675825402217</v>
+        <v>3793.746604601748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9354897264873222</v>
+        <v>0.2481698648399473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3867.810516562202</v>
+        <v>-15.91322563376119</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2717894954002266</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.86781461149455</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4473008322860165</v>
+        <v>0.4307127875680673</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-257.8420479195456</v>
+        <v>1105.993249021509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.930411623337863</v>
+        <v>0.6723592739559914</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.7631310392986</v>
+        <v>136.1530662755557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2032115166234567</v>
+        <v>0.2458834726640996</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.3871701231185</v>
+        <v>193.2862241526836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0952638454632668</v>
+        <v>0.1544876864069562</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1195918587397657</v>
+        <v>0.07304056382203994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.350046884358625</v>
+        <v>0.5344294149737341</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.518704472716303e-06</v>
+        <v>-3.270471406245661e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7141812193181175</v>
+        <v>0.7894759443473806</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.976846220442013</v>
+        <v>17.52546918206722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7356472748509824</v>
+        <v>0.4878439665426688</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.49028598676683</v>
+        <v>8.80573672904476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4129421719250084</v>
+        <v>0.519937669380151</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5074.806863029295</v>
+        <v>-4980.224601666892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004210343390200762</v>
+        <v>0.004401228379638346</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2776.631172824339</v>
+        <v>-3187.055056486572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1962345655848666</v>
+        <v>0.1328221368066515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3580.891721200765</v>
+        <v>6821.469801993362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3310073896024021</v>
+        <v>0.07489802332199247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9296.720457094343</v>
+        <v>7.241199553309656</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04925652703348445</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.270733157318944</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.692389750353402</v>
+        <v>0.6933026069275279</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>544.8210708877959</v>
+        <v>36.73210577543614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8591136323161985</v>
+        <v>0.9899756334765333</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.35860068465615</v>
+        <v>49.11348527401324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9380675541992696</v>
+        <v>0.679181893049305</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.5441147843876</v>
+        <v>191.5451680866248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2235292773071644</v>
+        <v>0.1269568703233329</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2620647787541329</v>
+        <v>0.2298798749724545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1926796703272765</v>
+        <v>0.2279373406573552</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.863738253680326e-05</v>
+        <v>-1.605188622148571e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2553356857892912</v>
+        <v>0.3022327042395347</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.00587443042545</v>
+        <v>31.13087093285662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2362145139851992</v>
+        <v>0.2623788918446543</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.27000114970282</v>
+        <v>21.4122089640929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2020508059830541</v>
+        <v>0.2246144806173914</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6000.133876693252</v>
+        <v>-5759.850629548445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006343727112997279</v>
+        <v>0.006233155417992188</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8094.982163275278</v>
+        <v>-7147.015538054446</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0422074893599141</v>
+        <v>0.04711595820968309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1548.136966957421</v>
+        <v>6217.116337611018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4995028806217481</v>
+        <v>0.0753498097273636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5698.735534890707</v>
+        <v>10.60368944796513</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1151082004123977</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.743507552658352</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7237735732725566</v>
+        <v>0.6163957469404096</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2675.076585456183</v>
+        <v>2474.928705487527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3347930316919802</v>
+        <v>0.3527799028686582</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.28699238511214</v>
+        <v>75.70359881143146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4473543677037102</v>
+        <v>0.3708367018187166</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.120432779948</v>
+        <v>267.5322682967214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05181187471038958</v>
+        <v>0.03578325683449807</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04595714140839996</v>
+        <v>0.05339207730079759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7284162490664776</v>
+        <v>0.6769564558638044</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.600881088193831e-06</v>
+        <v>-1.342448637630855e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8893039227229619</v>
+        <v>0.9046266473073226</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.93097529395979</v>
+        <v>4.777179745914765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.770706885725377</v>
+        <v>0.8332862445793354</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.051039028581471</v>
+        <v>0.8531213145824772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9359567541754562</v>
+        <v>0.9466573421831892</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2503.568715736488</v>
+        <v>-2667.724476333176</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2253633675641616</v>
+        <v>0.1795341021329426</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2391.292466632254</v>
+        <v>-2409.430077557279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3312310016570512</v>
+        <v>0.3154968393988512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-940.2126181151289</v>
+        <v>6772.264656646785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6568836243047569</v>
+        <v>0.1505931794184441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6708.613174795577</v>
+        <v>-5.407795191981677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1649493229906632</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.064690098835342</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7013173477247252</v>
+        <v>0.7830569115057682</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1732.451133972342</v>
+        <v>-553.1060109820492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6082816467946532</v>
+        <v>0.8455053738522182</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>209.6455224274695</v>
+        <v>182.3692660722788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09787605138079755</v>
+        <v>0.1175355263404878</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.5493751258285</v>
+        <v>198.8748020982518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09823556910574736</v>
+        <v>0.1156276471030545</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2136287652816955</v>
+        <v>0.1797002099217762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2136598654913095</v>
+        <v>0.2617992013478858</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.073226229588137e-06</v>
+        <v>-5.782752785107385e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6023900711685481</v>
+        <v>0.6132503193075562</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.01862409122216</v>
+        <v>34.08142522321691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2112086497019167</v>
+        <v>0.202096465108118</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.73346607728297</v>
+        <v>15.46431583691333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2333700044809189</v>
+        <v>0.2747254273263025</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4484.608046141385</v>
+        <v>-4547.390630381058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008211095653050312</v>
+        <v>0.00628200996747148</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5367.009851751408</v>
+        <v>-5252.71285352999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06215984198271224</v>
+        <v>0.06172109354674741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1567.964988861823</v>
+        <v>6042.662298532852</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4985173876021862</v>
+        <v>0.08094108571067507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7294.140360419868</v>
+        <v>12.85877413577537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07135607416529231</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.59078598021075</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3948849453125594</v>
+        <v>0.4988020433548708</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4672.711562500916</v>
+        <v>4574.40803400111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1297091449800675</v>
+        <v>0.1106859276749947</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.12184610640736</v>
+        <v>70.76525594472093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4782082177058575</v>
+        <v>0.4485871143605383</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.7443422682367</v>
+        <v>199.9263257545282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1953814067835529</v>
+        <v>0.1515096858031182</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03389214006098323</v>
+        <v>0.03625759749304941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7950408137359363</v>
+        <v>0.771366092971793</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.557748533503501e-06</v>
+        <v>5.526206930367331e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.691663450401135</v>
+        <v>0.6835696967879005</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.79959707126477</v>
+        <v>1.291268105087845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9463616845962535</v>
+        <v>0.9596857968046431</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.98342934675275</v>
+        <v>-4.905941537321368</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7122900300556909</v>
+        <v>0.7071863515554825</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4295.133373835996</v>
+        <v>-4281.320303926615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01972858508001446</v>
+        <v>0.0160463638991343</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3622.100338788629</v>
+        <v>-3601.593819547156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1252665364807698</v>
+        <v>0.1140484970718587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-253.3747656508895</v>
+        <v>4150.175284349515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9062353377264769</v>
+        <v>0.2336865760538458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4025.633318845185</v>
+        <v>-5.994676392188978</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2828822000377661</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.299673947780335</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7685050619843652</v>
+        <v>0.7705840760772877</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3092.324987009915</v>
+        <v>2981.650260202336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2705471864972791</v>
+        <v>0.2602919746311434</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.71029154240458</v>
+        <v>83.88541894707083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4445500016821593</v>
+        <v>0.3666156623957261</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.3268087813099</v>
+        <v>186.3463229446884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1928212441923965</v>
+        <v>0.1530900693943724</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1785051251739967</v>
+        <v>0.1770073135823388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1916371501150511</v>
+        <v>0.1801541648903309</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.562143488833709e-05</v>
+        <v>5.719906257505643e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3558986023553512</v>
+        <v>0.3221712801877064</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.07083092503098</v>
+        <v>-17.23130912745523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5621036998980473</v>
+        <v>0.5098242234491795</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.3048092938525</v>
+        <v>3.148071919278308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8133573210407986</v>
+        <v>0.8159804619250608</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6630.369776425352</v>
+        <v>-6618.174264678701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001935923014999575</v>
+        <v>0.001377401513228418</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3478.271064872741</v>
+        <v>-3337.829583588494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1837873267359874</v>
+        <v>0.1668047774086145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-353.272655892054</v>
+        <v>8507.232736111433</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8560705160065296</v>
+        <v>0.02253255024819984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8333.976672715402</v>
+        <v>0.3709990071431548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03523038387440296</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.01390739888525161</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9994226948745869</v>
+        <v>0.9840132031388369</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1174.854167193044</v>
+        <v>1730.333819375674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6456567889995266</v>
+        <v>0.4811599506931463</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.2519713516454</v>
+        <v>122.4295872931367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1562013579235113</v>
+        <v>0.2263667383687611</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.1663673372547</v>
+        <v>365.105669948405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008384206247096558</v>
+        <v>0.009722237961743613</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07343204294863043</v>
+        <v>0.05086716341757228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5115895114986051</v>
+        <v>0.635090147079107</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.000602138785918e-05</v>
+        <v>-8.531603894787882e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3952999640513308</v>
+        <v>0.4577417661742404</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.42118481398956</v>
+        <v>26.90407018386617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5134399456531514</v>
+        <v>0.2667013694871307</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.33862169166856</v>
+        <v>9.391949685166736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405110526240623</v>
+        <v>0.4422417826810042</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3458.069128310568</v>
+        <v>-3536.381280593875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09470413281512674</v>
+        <v>0.0841974316116476</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3478.423143133694</v>
+        <v>-3626.033294408418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09323857754995475</v>
+        <v>0.07680527687508254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3156.388511907262</v>
+        <v>3746.378376942605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.403728231594722</v>
+        <v>0.4224879441807275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3842.361826940431</v>
+        <v>-19.14507060285064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4156624357152077</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.24262300174927</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4120902560352353</v>
+        <v>0.3561747610567347</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2185.132597631605</v>
+        <v>1958.160510270451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1913456724120767</v>
+        <v>0.2081498783533945</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-23.69389270002478</v>
+        <v>-18.11407356362963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.714602028288112</v>
+        <v>0.7707401754474996</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6177532126819</v>
+        <v>388.5651643495557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009383742750955524</v>
+        <v>0.0004936236202805398</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0267454330725997</v>
+        <v>-0.02022213217523609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.752803655572803</v>
+        <v>0.8046701483989391</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.771661039294709e-06</v>
+        <v>-3.585546963769084e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6311788551319417</v>
+        <v>0.6396339923900416</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.22539869523618</v>
+        <v>26.07494360578458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1399980879785197</v>
+        <v>0.148415065628977</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4456048405721305</v>
+        <v>-0.4138577052006696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9546636707576966</v>
+        <v>0.9568686834134021</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2920.460696717434</v>
+        <v>-2940.577845249762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01424541763427956</v>
+        <v>0.01142457984153188</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1898.48035070871</v>
+        <v>-1825.366501022157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1916708676026418</v>
+        <v>0.1949432754607803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-690.5699163533245</v>
+        <v>2840.487606066831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6347965822365327</v>
+        <v>0.3145537107811744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2351.338023222563</v>
+        <v>2.131848416722278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4417899214193792</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8969166016583756</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9460184273550587</v>
+        <v>0.8665675168114872</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.0395566620668</v>
+        <v>-103.6942510792292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8726313523210012</v>
+        <v>0.9617248677504084</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.39367495514915</v>
+        <v>97.78142191791139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3946463284360263</v>
+        <v>0.2788541011854294</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>324.4703324387535</v>
+        <v>335.5989243774678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005764179661903962</v>
+        <v>0.003783832921714689</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03751891414747832</v>
+        <v>0.04843245985510625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7117544858856328</v>
+        <v>0.6277143888209719</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.734326623577283e-06</v>
+        <v>-7.58984399230192e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3819428909256647</v>
+        <v>0.3857261385197793</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.89281721677432</v>
+        <v>37.12854189864969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05463711583342568</v>
+        <v>0.06450706840197593</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.43461498127738</v>
+        <v>12.00491075131902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3167555079824848</v>
+        <v>0.2881211048311351</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2864.380687185308</v>
+        <v>-3029.163555626896</v>
       </c>
       <c r="C9" t="n">
-        <v>0.045803044612244</v>
+        <v>0.03203583263981945</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2557.393283187187</v>
+        <v>-2511.944865125608</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1509933968719216</v>
+        <v>0.1530868176892749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1289.034549358437</v>
+        <v>4437.535510390683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4074768410924912</v>
+        <v>0.2961406742998486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3832.471377650734</v>
+        <v>-3.798188377312876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3764598468863916</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.627376845373895</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.672318952608753</v>
+        <v>0.8016610810833069</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2810.360748830403</v>
+        <v>2724.988882788282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2292432501238399</v>
+        <v>0.2152326321599322</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.9277066289842</v>
+        <v>116.8938140980526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2717831933816017</v>
+        <v>0.2368634289990665</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277.393555833365</v>
+        <v>281.9116747387772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02557575701106404</v>
+        <v>0.01629136878869434</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05128092624079261</v>
+        <v>0.05367903888393152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6267531187966537</v>
+        <v>0.5953550595753634</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.5114107529367e-06</v>
+        <v>-4.407742852324694e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7129450966574109</v>
+        <v>0.7099910465562489</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.82326334761912</v>
+        <v>10.9254514194525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.679182375764554</v>
+        <v>0.6870217783688668</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.998496227177377</v>
+        <v>3.990794040313062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75105096408511</v>
+        <v>0.7436011161186293</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5139.124512340308</v>
+        <v>-5136.054359604736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004956600499826481</v>
+        <v>0.00371096238299833</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3477.853147986761</v>
+        <v>-3420.871444442747</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1643191080021811</v>
+        <v>0.152903038446771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-278.9878633549251</v>
+        <v>3975.600714413293</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8738111379470016</v>
+        <v>0.2089625978650249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3829.158319906703</v>
+        <v>-3.431553051155987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2587547562697394</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.61947282713335</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8501860027345944</v>
+        <v>0.8529593271635301</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1622.479646534161</v>
+        <v>2174.983042684231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5509764869438123</v>
+        <v>0.3589940594973037</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.391977177857</v>
+        <v>20.82835909060056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7391647394742216</v>
+        <v>0.8092689849500943</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.4361827849364</v>
+        <v>268.7815765677389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04154168166602545</v>
+        <v>0.03518553335860971</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09805485206419695</v>
+        <v>0.100414542442527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5084868216106704</v>
+        <v>0.4866903093681136</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.069613175348864e-06</v>
+        <v>-1.725327896290506e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9304403221070194</v>
+        <v>0.8842226324857781</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.939948278544065</v>
+        <v>11.05143474703895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6928179519035987</v>
+        <v>0.6505543480880277</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7945941677695316</v>
+        <v>1.189102363194969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9478243997894074</v>
+        <v>0.919690863786954</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3854.570821969902</v>
+        <v>-4002.448225704932</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02716980511512981</v>
+        <v>0.01693469379322231</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3229.598174010705</v>
+        <v>-3491.508897877782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1835963182240818</v>
+        <v>0.1298703119275577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1103.434040271701</v>
+        <v>6255.613864410905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6576029152515737</v>
+        <v>0.1033915888991962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6839.62439373555</v>
+        <v>7.082124657316246</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1025465195482957</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.06446316697297</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6008210929547673</v>
+        <v>0.7032641275079263</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5974.448393780896</v>
+        <v>6626.901339212363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08900670120241073</v>
+        <v>0.05179626014411524</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.284757518105</v>
+        <v>106.7942724641531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2110072827527019</v>
+        <v>0.2587631832841583</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.9901002428422</v>
+        <v>59.72230116943467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6176713243132959</v>
+        <v>0.7411571527753364</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08126811925876193</v>
+        <v>0.05050178247311798</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5010931329884967</v>
+        <v>0.65389722672675</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.208498728607099e-05</v>
+        <v>1.217020726166059e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3906647280392065</v>
+        <v>0.3816610803996253</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.50444395686827</v>
+        <v>-16.9243013208764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4093904934331819</v>
+        <v>0.5520859498286796</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.59514840966664</v>
+        <v>-13.13044155042987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3724531453155612</v>
+        <v>0.3466423899566996</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4635.220572690518</v>
+        <v>-4582.917554865448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008013456551355283</v>
+        <v>0.007549462514289374</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3762.388782544724</v>
+        <v>-3959.450481515533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08149253087198885</v>
+        <v>0.06271444040222598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2882.795093550358</v>
+        <v>2976.059034519883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4267623721738306</v>
+        <v>0.3788554580319651</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4230.348113810363</v>
+        <v>5.903043109181315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.265892457728119</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.180830300585093</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7115498179335296</v>
+        <v>0.7574748336332972</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2400.534057431581</v>
+        <v>2190.535041642612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2087105624357508</v>
+        <v>0.1812878250168602</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-42.8017855372301</v>
+        <v>-35.55786333458798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5717848819256788</v>
+        <v>0.5970714469182953</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.86023840888</v>
+        <v>381.6945796337662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001278988944370539</v>
+        <v>0.0003610728153052263</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02059989642194171</v>
+        <v>-0.0130837099855472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8166258896783848</v>
+        <v>0.8711464386959125</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.775161874326563e-07</v>
+        <v>-8.449942434024998e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9437239028115477</v>
+        <v>0.9145053374231862</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.8132011705288</v>
+        <v>22.62259746432669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2145741787375154</v>
+        <v>0.1877847905365088</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.229884702841744</v>
+        <v>-2.916919012107925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6969302399594678</v>
+        <v>0.7136466281753153</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3587.067821979677</v>
+        <v>-3503.857980892256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01260300513602488</v>
+        <v>0.009347299174246261</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2036.941120433708</v>
+        <v>-1964.29536170198</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1740562165282531</v>
+        <v>0.167149516867272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-687.8923563281787</v>
+        <v>3755.472844635362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8107502290261026</v>
+        <v>0.1279792651886472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3467.580886290547</v>
+        <v>5.872086511921538</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2154909002398942</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.457807530871513</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6702179141464419</v>
+        <v>0.6340960917256133</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2468.561290411646</v>
+        <v>2402.697822047738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.338736940560907</v>
+        <v>0.309195501791529</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.55461561500664</v>
+        <v>61.39532998910411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5982752574025406</v>
+        <v>0.5467636466420897</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.9656387786328</v>
+        <v>304.3235519782563</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03708131852154003</v>
+        <v>0.02683668985470913</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02024768111449701</v>
+        <v>0.02160722789379077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8798627662724199</v>
+        <v>0.8667537838584271</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.608307918277602e-05</v>
+        <v>5.692347351416338e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4149879951521067</v>
+        <v>0.3877266892586675</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.909475054363284</v>
+        <v>8.308971604428265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7471128806418021</v>
+        <v>0.7467208985533519</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8433031292201782</v>
+        <v>0.9462626915842272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9457188580470484</v>
+        <v>0.9368330871488899</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4936.525406485396</v>
+        <v>-4916.400821869927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01295705689673044</v>
+        <v>0.009976896010526716</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1948.130973975799</v>
+        <v>-1915.405280151476</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4326094098260224</v>
+        <v>0.4192774302742319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-170.2511066012157</v>
+        <v>5693.353767956203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9376181958886316</v>
+        <v>0.1213671861354263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5611.726962396401</v>
+        <v>-5.029108155403904</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1531738052004846</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.133903024637668</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7982195291985733</v>
+        <v>0.795701573817751</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3982.34192457351</v>
+        <v>3941.957234704571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435176926106959</v>
+        <v>0.1259230376712053</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.4281535333002</v>
+        <v>159.4287477195335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1124614288042853</v>
+        <v>0.09565966169393116</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.7377005481385</v>
+        <v>244.6526480806301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1193591427372517</v>
+        <v>0.09986395036787045</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0495723430615867</v>
+        <v>0.0507582510651905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6824127213559694</v>
+        <v>0.6620935521114106</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.075971714001614e-06</v>
+        <v>-2.056035772927127e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8622454483176926</v>
+        <v>0.858968448737165</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.11213421368096</v>
+        <v>11.75552689271562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6408237581686901</v>
+        <v>0.6334851262706189</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3933939917557616</v>
+        <v>0.4051136587408521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9752037342345703</v>
+        <v>0.9736033644573814</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3732.867015700245</v>
+        <v>-3736.405129187093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02077997795540155</v>
+        <v>0.01671914389390578</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4293.666453938655</v>
+        <v>-4290.392837281021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.071571845129265</v>
+        <v>0.06266192623691744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-142.031173279197</v>
+        <v>1207.346534056794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9422846726208044</v>
+        <v>0.7090420009060132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1144.18059142458</v>
+        <v>-7.250062748211288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7405743355654234</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.464849276031323</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6880963505772371</v>
+        <v>0.6830420640079649</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2379.69357815773</v>
+        <v>2463.107538087686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3308510124131195</v>
+        <v>0.2882515847714333</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.04573431735921</v>
+        <v>33.51620393010356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7286996287739389</v>
+        <v>0.7468771729722047</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.5908164734559</v>
+        <v>233.4810250974625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07577558265931256</v>
+        <v>0.06591585147158856</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1313592946494657</v>
+        <v>0.1267342811234775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3439600200227764</v>
+        <v>0.3347565216741212</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.994173897211236e-06</v>
+        <v>-4.13748067393687e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7467115350056195</v>
+        <v>0.7290294624642624</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.585158031590368</v>
+        <v>-4.795199151978849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8548955376982952</v>
+        <v>0.8851131553867342</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.445858962294352</v>
+        <v>2.4791484446922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8414095321718268</v>
+        <v>0.8340441049312296</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5751.038225749135</v>
+        <v>-5756.320968334626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004319319189623934</v>
+        <v>0.003169924218773602</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3286.011541066836</v>
+        <v>-3377.524101673163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2082611424149997</v>
+        <v>0.1719276620192817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>311.985683972983</v>
+        <v>7506.177638829673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.870713600941887</v>
+        <v>0.0973642355313793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7744.325556879838</v>
+        <v>11.01072724082169</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1149669628294423</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10.95754009965032</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6269914480173431</v>
+        <v>0.613952550577716</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2354.160836476377</v>
+        <v>2342.459423550696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3885466865750093</v>
+        <v>0.3497505221132471</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.97899155928928</v>
+        <v>89.3002452892415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3935413837781526</v>
+        <v>0.363367661686415</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.6125271542749</v>
+        <v>273.1812815172444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06208520400199375</v>
+        <v>0.04362205754793334</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006800383799278331</v>
+        <v>-0.006532853340007583</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9641922286751912</v>
+        <v>0.9641305548164572</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.363510556273101e-05</v>
+        <v>6.374735599650307e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3655110742254348</v>
+        <v>0.3453139690780082</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.991681348232518</v>
+        <v>2.92356768573643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9101695219501472</v>
+        <v>0.9075794906526287</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.367941201608211</v>
+        <v>3.374920038320852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8095997989190098</v>
+        <v>0.8027530095184529</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4556.481324952907</v>
+        <v>-4556.194267517509</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01143434131270533</v>
+        <v>0.008929818487893496</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1310.476538974111</v>
+        <v>-1306.686288081512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6442934523684229</v>
+        <v>0.632442317867197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.32710041057453</v>
+        <v>5205.506015338013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9891794324998958</v>
+        <v>0.1570743298123971</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5188.29023027222</v>
+        <v>-5.334775794519679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1956266084085127</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.361183474125049</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7942732596672654</v>
+        <v>0.7875585267281795</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.950375355599</v>
+        <v>1857.487554283402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2968133719141859</v>
+        <v>0.3425833758564186</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-24.9331897381322</v>
+        <v>-13.09367472127298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7407437880369072</v>
+        <v>0.8512053713071592</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0752309090797</v>
+        <v>361.4428603646472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003366516750661609</v>
+        <v>0.001478643648227496</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04000883790326593</v>
+        <v>0.05372916618554957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6652497955567086</v>
+        <v>0.5345329025386383</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.915511802817688e-06</v>
+        <v>2.811234247112031e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7337658602117946</v>
+        <v>0.7366786258760245</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.98828812348263</v>
+        <v>19.64676468081413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2858735612005425</v>
+        <v>0.3138593829753037</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.31920442753038</v>
+        <v>-3.016941431815994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7125870355132318</v>
+        <v>0.7308026842491704</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3623.477130600641</v>
+        <v>-3474.836906801279</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01688529045576114</v>
+        <v>0.01574714599495521</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2676.4565616241</v>
+        <v>-2581.123279183764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09072551924272837</v>
+        <v>0.09091128896888666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-848.059419973888</v>
+        <v>5042.144713116129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6138176534082839</v>
+        <v>0.0531300815905246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4570.629568972849</v>
+        <v>6.646334456384572</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1034230631164689</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.186054180104236</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7860983885326036</v>
+        <v>0.6424610753495953</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_LR/Leipzig.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ32968862" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ33105161" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ33229225" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ33364494" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ33498058" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ33622481" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ33750954" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ33879494" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ34012404" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ34130928" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ34278165" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ34423290" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ34557579" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ34704932" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ34864133" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ34994308" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ35126288" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ35264304" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ35400618" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ35537218" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ35672484" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ35811835" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ35937569" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ36054974" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ36182275" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ36310993" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ36442261" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ36567985" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ36699291" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ36827801" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ36949914" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ37069057" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ37195996" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ37325515" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ37454248" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ37585318" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ37705936" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ37831646" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ37967403" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ38120496" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ38247455" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ38408829" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ38552469" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ38697263" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ38831494" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ38963594" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ39113256" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ39403205" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ39530684" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ39658474" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ03898380" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ04055655" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ04194516" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ04323851" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ04454749" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ04581872" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ04713014" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04840836" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ04977419" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05118346" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ05276973" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ05443111" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ05604956" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ05876913" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ06015648" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ06148081" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ06277755" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ06404338" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ06534809" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ06668072" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ06806113" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ06937007" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ07065014" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ07180838" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ07311007" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ07441302" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ07570143" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ07694223" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ07818982" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ07944470" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ08062216" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ08179058" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ08305913" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ08433641" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ08561165" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ08688812" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ08812946" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ08937656" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ09065105" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ09196858" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ09331242" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ09473307" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ09605520" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ09735596" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ09863949" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ09991973" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ10110649" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ10241473" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ10368014" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ10496638" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_LR/Leipzig.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ03898380" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ04055655" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ04194516" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ04323851" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ04454749" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ04581872" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ04713014" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04840836" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ04977419" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ05118346" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ05276973" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ05443111" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ05604956" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ05876913" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ06015648" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ06148081" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ06277755" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ06404338" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ06534809" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ06668072" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ06806113" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ06937007" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ07065014" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ07180838" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ07311007" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ07441302" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ07570143" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ07694223" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ07818982" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ07944470" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ08062216" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ08179058" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ08305913" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ08433641" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ08561165" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ08688812" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ08812946" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ08937656" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ09065105" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ09196858" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ09331242" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ09473307" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ09605520" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ09735596" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ09863949" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ09991973" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ10110649" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ10241473" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ10368014" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ10496638" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ31474012" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31583829" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31690329" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31796139" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31903417" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32010775" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32117847" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32224709" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ32332371" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ32437490" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ32546491" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ32652820" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ32761475" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ32867830" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ32974921" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ33084116" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ33188060" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ33299898" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ33413948" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ33518872" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ33629082" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ33734306" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ33841425" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ33948103" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ34058102" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ34167593" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ34277944" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ34383748" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ34494422" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ34603922" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ34708426" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ34818846" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ34926270" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ35047970" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ35205230" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ35318135" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ35442242" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ35554781" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ35674849" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ35793998" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ35912109" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ36032944" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ36157765" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ36286321" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ36414637" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ36546041" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ36671781" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ36794132" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ36924789" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ37052306" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4632.619470344574</v>
+        <v>2036.651049103335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04470163145767982</v>
+        <v>0.1508967945021762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.0345405159093</v>
+        <v>327.0292643665756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1302792968405736</v>
+        <v>0.01069339613051192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.0583653839445</v>
+        <v>0.0971877534059582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1660715460195199</v>
+        <v>0.3673432050739042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06664266175603262</v>
+        <v>6525.743840852696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5184570116648369</v>
+        <v>0.1066953433048202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.905427334875968e-05</v>
+        <v>-2432.796865123122</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2869326668659394</v>
+        <v>0.3326847507328478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.45500448860908</v>
+        <v>61.54619751391702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2622309579452531</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.849992189761736</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5104281635913901</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5568.20097991791</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0008841198132291678</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1505.776253025182</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4252794042985324</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6548.406302770811</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03597575939008181</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.657555365093117</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8301228996251465</v>
+        <v>0.6133434504865092</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-248.8157690228236</v>
+        <v>1492.190493770009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9201876542486509</v>
+        <v>0.1946108546970188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.7344448490807</v>
+        <v>352.9699018502023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2854770140337828</v>
+        <v>0.001388817429011376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.6464951525183</v>
+        <v>0.04255116557605826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06854889312922335</v>
+        <v>0.6358659906827298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1819685163601903</v>
+        <v>6091.541729170564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1604495972896512</v>
+        <v>0.04749748520266932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.389574045277804e-06</v>
+        <v>-353.3848237221337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4753264103950222</v>
+        <v>0.8704011317172061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.85871855059685</v>
+        <v>74.38963737264461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6111825100283497</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.25661846839872</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.19832267365329</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3523.934505737465</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03944508841222469</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3068.845916823952</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1181229588799061</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12328.28682190441</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01310702678084482</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-12.67619520804247</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.508522191578046</v>
+        <v>0.3978748065736795</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2904.383024409091</v>
+        <v>3270.381508395108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2043716322789785</v>
+        <v>0.01489331618086864</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.5533547809816</v>
+        <v>198.4215512957242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1146668003754639</v>
+        <v>0.06901739533463019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>374.3840181364328</v>
+        <v>0.06691751743075069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01389363145570799</v>
+        <v>0.5119972763931149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0467770457880175</v>
+        <v>5060.234299095436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6887556056695521</v>
+        <v>0.1419345653465709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.08538020187686e-06</v>
+        <v>-3497.299886938787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4359096993627576</v>
+        <v>0.1409593809421815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.21963510849811</v>
+        <v>101.6036526150243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2321782875138461</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.983895632537099</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4503940262789534</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3479.65163293483</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01766673976459923</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-4751.26014760265</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03899740308797831</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1385.513664671458</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7618711114728511</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.50273382388424</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1876787996517273</v>
+        <v>0.3146490063909366</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.775666907849</v>
+        <v>2454.084782629515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4158938476454426</v>
+        <v>0.09661351656637056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0326783051294</v>
+        <v>291.2856158100899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2427191409265245</v>
+        <v>0.01655468722585739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.618310423147</v>
+        <v>0.1222118834460827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09398546312500224</v>
+        <v>0.2966686529385285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1036392813830469</v>
+        <v>4796.370468122241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3217181603014361</v>
+        <v>0.228464074495595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.293432376087092e-06</v>
+        <v>-3363.977575346133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8209676254484853</v>
+        <v>0.2488967276286442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.610119026621248</v>
+        <v>129.2019973662589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8176486063808651</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.422577478137118</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7117272921767814</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-7073.481868540917</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0005297492724239026</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2579.826970120218</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.148821642520837</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8471.598966072796</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01458421694206149</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.29201956300521</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7947645238556069</v>
+        <v>0.3045066906369309</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2228.555724942208</v>
+        <v>2292.154374018334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3426734387703178</v>
+        <v>0.0902264019668558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-15.07878821275324</v>
+        <v>266.4167940867572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8774313184878404</v>
+        <v>0.02062192363579145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.4292659626888</v>
+        <v>0.05052968635580263</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03187343214369783</v>
+        <v>0.652204295596616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002369964210343717</v>
+        <v>4791.427837652065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9845488236081851</v>
+        <v>0.2171088794449474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.31775419272822e-06</v>
+        <v>-1394.39320393091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6095312189957796</v>
+        <v>0.6039116940526231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.52596252365485</v>
+        <v>151.7466242480481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.329939472928018</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.84048475198256</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8826132535498121</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4193.361808320261</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0185361959908252</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-4476.709272986322</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07321555559874278</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3960.665771539141</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2179717242229662</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.26150412815321</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2894733712696431</v>
+        <v>0.1973062028726468</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.7599571982137</v>
+        <v>1190.446699183982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8672255813834265</v>
+        <v>0.319267931124608</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.97403842466406</v>
+        <v>292.9483280541313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4875100393449511</v>
+        <v>0.004330202569891661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.8464599987292</v>
+        <v>0.1319029525704548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003328566545284142</v>
+        <v>0.2122079470121093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04820329930879952</v>
+        <v>11333.40070111817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6429386614375755</v>
+        <v>0.0164216302471373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.082219921489213e-05</v>
+        <v>-2601.311382825967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09678157602054041</v>
+        <v>0.2712440405903071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.309909664477715</v>
+        <v>83.37847695358599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642960629571933</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.625235705318573</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.441960758897785</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2916.653543518261</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0514698101739207</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-549.0012596937413</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7632561220911018</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8050.855575799955</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02591985475695312</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.6911675943445</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2750630357475928</v>
+        <v>0.3858850964171074</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2545.850128839813</v>
+        <v>2321.611622945465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3239628245684634</v>
+        <v>0.02968979180632297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.65155696056303</v>
+        <v>239.1287304527598</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4661209262630911</v>
+        <v>0.02079343846647079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.6554489336797</v>
+        <v>0.03405619776424504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05094099574833508</v>
+        <v>0.6997913681000818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06328105776295545</v>
+        <v>4960.86410011191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6112951620770973</v>
+        <v>0.1230870459194715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.20295345453414e-07</v>
+        <v>-1382.427822320213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9401001243520373</v>
+        <v>0.4887870153287954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.99164447537373</v>
+        <v>156.8870407235994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6558688579983367</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3626927531146649</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9763165033064848</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4120.05106795186</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01419595696996548</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3098.540956041244</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1674674232417613</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4537.702977175326</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2027011006142616</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.595910055449266</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7189381668088877</v>
+        <v>0.1773262871262005</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2021.429944945176</v>
+        <v>2466.345818904021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416949217868628</v>
+        <v>0.08522635485839447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.2922146630865</v>
+        <v>286.2108167355303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4914606095815839</v>
+        <v>0.03237546614312708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.7686552037132</v>
+        <v>0.06646157672784597</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04215195106244041</v>
+        <v>0.5337194359042565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05497064741026536</v>
+        <v>5499.633425972208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6691807012703215</v>
+        <v>0.1470718248836013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.750956717393949e-06</v>
+        <v>-2728.581479799455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8846520285350679</v>
+        <v>0.278576442660552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.63902373885639</v>
+        <v>110.0406375277989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4512594947181493</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.37564059775999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8435772996316544</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3897.214658109317</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02655223828084206</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2988.169778651461</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1856280332985105</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3820.258385222871</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3513312166912497</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.438519039922085</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9053451165190073</v>
+        <v>0.3446862061969771</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2905.199504528905</v>
+        <v>1545.488229645749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2384357105770449</v>
+        <v>0.2384860233570845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.4180798056072</v>
+        <v>321.7754016507498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04580344855739936</v>
+        <v>0.007324988174105893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.8169130183635</v>
+        <v>0.06887792723234362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0295593180285144</v>
+        <v>0.5227174700035175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002111052653223394</v>
+        <v>6033.487546449771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9851699844425743</v>
+        <v>0.09603847202000695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.961636541513832e-05</v>
+        <v>-1137.776820409393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1755006073255623</v>
+        <v>0.6442802503010634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.22324045322812</v>
+        <v>151.9681832703833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6758843789911169</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.673398517718901</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8245788067789162</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4340.976081670013</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.005789320695604028</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2557.821401360812</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2321711270728781</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2867.79850912894</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.358590271771843</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-18.08440552898186</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3506629098839321</v>
+        <v>0.1684301623928704</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2686.820087719474</v>
+        <v>255.2351992331414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0920136598184588</v>
+        <v>0.8434756385339349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.99407097251162</v>
+        <v>284.4419589934232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5062732547366877</v>
+        <v>0.002142937488923526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.1966565723944</v>
+        <v>0.1678783477868626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003251074676395462</v>
+        <v>0.07668111884999081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09257554273552565</v>
+        <v>16289.36428983245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2975739355018316</v>
+        <v>0.00413105802879695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.164138164625978e-06</v>
+        <v>-2472.068503335229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.879580972113315</v>
+        <v>0.224817286370005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.969293557981189</v>
+        <v>54.60256928814181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8205266932402597</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.90346931059759</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.719471405871414</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4432.236044758231</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0008108282010335193</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1746.798695251156</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2865541780115834</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5489.844935625506</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02576007983030041</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.043088901119035</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.632632444749903</v>
+        <v>0.5926499008991122</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1062.455169535845</v>
+        <v>3018.299370262147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6847494264899705</v>
+        <v>0.003573747057291961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-92.1363664240279</v>
+        <v>278.2225666968501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4148964735145274</v>
+        <v>0.004127553621101491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.7994683070659</v>
+        <v>-0.08596089902168208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0338701422766539</v>
+        <v>0.4009876049136419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005101330517739977</v>
+        <v>2690.556709976556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9648449792013329</v>
+        <v>0.3523368497844377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.965053949718802e-05</v>
+        <v>813.7184166465072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1729668806970575</v>
+        <v>0.7083833764310219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.37049986854718</v>
+        <v>5.273360493970074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1635058061651882</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.78187841965275</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3884226894120584</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5548.008910654804</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01811067994564683</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-5180.092275231244</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03772231808527025</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3072.804533053633</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5320062225033989</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>36.33253617176904</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2184945811379957</v>
+        <v>0.9590032817764891</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2238.634411067747</v>
+        <v>865.8923246740233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4098176662404872</v>
+        <v>0.4868171506053439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.6473788984634</v>
+        <v>266.6248674589283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1560388563559233</v>
+        <v>0.006532560846642229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.2323257120831</v>
+        <v>0.1337849366385208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02226998549466414</v>
+        <v>0.2199345770430942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004391078609137233</v>
+        <v>13459.2929179217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9730725454698972</v>
+        <v>0.004998582567713973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.913607799611521e-06</v>
+        <v>-2533.555907006448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.478216594371178</v>
+        <v>0.2593772631078528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.61443796487366</v>
+        <v>95.3530669162264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1746247752479703</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.140572121562673</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5250959439199884</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3942.446446222298</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01036855687432638</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3602.15350839654</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1127549560258631</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-584.5239369871051</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8814486873623293</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-20.99077621289155</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3383700339205271</v>
+        <v>0.3395824982325919</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2639.567619365735</v>
+        <v>3157.610387510767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3309116454945297</v>
+        <v>0.0215765222451369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.79694316642264</v>
+        <v>217.8277015583074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.546253745631889</v>
+        <v>0.04093369180537382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.6355663550428</v>
+        <v>0.1114020292330486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1206360228168059</v>
+        <v>0.3031407136230297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1329308020898512</v>
+        <v>4296.798498301887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3016454859066304</v>
+        <v>0.2386825102870497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.607718255994469e-06</v>
+        <v>-4007.32061433103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8841871622134356</v>
+        <v>0.1707032035143881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.651209211289824</v>
+        <v>107.1755111558355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8041465098679723</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.601953372510968</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8371295009248687</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5162.837681821296</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.004366431401073173</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3734.853467637985</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06483919435723969</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7140.824067252189</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05063917660693389</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.4302615376997068</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9806249848195274</v>
+        <v>0.3606634350629545</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.771616323031</v>
+        <v>2206.477397541523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5612558336548333</v>
+        <v>0.04164107438434637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.68500245135834</v>
+        <v>306.4868016590299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3646594792068922</v>
+        <v>0.002970903917997962</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.0649754196329</v>
+        <v>0.05221204761664155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05217955656959462</v>
+        <v>0.5806076482553706</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06298110150507713</v>
+        <v>4989.560323819042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6453016651768131</v>
+        <v>0.1024811177509471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.620680786047791e-06</v>
+        <v>-1646.353027533415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7794219269521131</v>
+        <v>0.4287172745364153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.6481219530836</v>
+        <v>69.68766959620586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.66912791992281</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.445409885016046</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6889707652387045</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3098.943646564136</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1221742314993711</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2480.708786154015</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2939337312785268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6996.17511563904</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1395046201201689</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.278143851730647</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8586006986206628</v>
+        <v>0.4537093327346564</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2820.399084348502</v>
+        <v>888.3495506784288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4136173887805564</v>
+        <v>0.4092528518439094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.94334982202946</v>
+        <v>272.5601231894673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6524023178751333</v>
+        <v>0.001886520164160984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.8529477054947</v>
+        <v>0.1171209024158406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1091931993268363</v>
+        <v>0.1417484560268804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04727634231751615</v>
+        <v>15134.45637988175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6755281943898446</v>
+        <v>0.0008655083866689815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.200952682820627e-05</v>
+        <v>-2542.008627861084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5279001356760435</v>
+        <v>0.183577248900405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.356436033977786</v>
+        <v>48.88412387515689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9018062118435121</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5057473136127726</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9761852037905008</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4449.292445724918</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02978909584473699</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3085.177327082951</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2641061383373735</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5305.293650180892</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1351291249247406</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.670818130058677</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9418949639726177</v>
+        <v>0.5841802346955336</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1523.980099137241</v>
+        <v>2505.574774943751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5015378727372853</v>
+        <v>0.06117330656790766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-22.97145203700023</v>
+        <v>260.5915427425928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7492329164057095</v>
+        <v>0.0190658280816728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.1677271032484</v>
+        <v>0.1318374181367351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008267401788609338</v>
+        <v>0.3136545149664681</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04303092977649514</v>
+        <v>3522.402952458817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6321302775281962</v>
+        <v>0.3530571387707836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.580047835645945e-06</v>
+        <v>-2666.520188679346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8649789435532946</v>
+        <v>0.3860902668215724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.7066143123127</v>
+        <v>161.1632129276973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3264075210215561</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2884423583588323</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9764509378187149</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3550.101758749617</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008744495239210613</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2287.821908379452</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1535009710417243</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5335.297215903411</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07284063821276594</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.761736607907949</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6209771244838137</v>
+        <v>0.1507885991782492</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3088.356929823487</v>
+        <v>2330.244207084114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1875014603308734</v>
+        <v>0.09605831269448192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.09697634679154</v>
+        <v>236.70875537931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6163810832795735</v>
+        <v>0.05843070335191736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.9276636993923</v>
+        <v>0.08194089716622976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08548385109021772</v>
+        <v>0.4185274375335351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1510480896958898</v>
+        <v>5510.519975042764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4172011250079061</v>
+        <v>0.1572581963505162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.414847523529226e-06</v>
+        <v>-2320.643721650659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.706235041873529</v>
+        <v>0.3614765300274214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.480316644801178</v>
+        <v>168.7664033469343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7630489310526104</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.443253542139452</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7857468372895501</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4006.559721782237</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0168009796464626</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-4804.959480540731</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09003870710952407</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4012.929011286338</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2578745164460342</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.642175991413374</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.933660865399034</v>
+        <v>0.273611553996705</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3026.642750351437</v>
+        <v>2789.483815730299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.118527621325064</v>
+        <v>0.04408751477540112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.6358036007287</v>
+        <v>234.1009061690811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2126711950953978</v>
+        <v>0.04485233426988786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.5744024873627</v>
+        <v>0.0319441712904078</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007865211755390612</v>
+        <v>0.7903286408658963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03910320326592703</v>
+        <v>4747.966599559277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7051070757375812</v>
+        <v>0.2248332099961382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.710715939341801e-07</v>
+        <v>-2068.58034938235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9662040932951955</v>
+        <v>0.4310904542673764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.28861512321598</v>
+        <v>138.5243645578777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.476081510964638</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.3348440456768</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8251122375276948</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5860.428901712716</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001921577938643073</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2934.810976538654</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.10488809735094</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3609.102863829314</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3502198724993424</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.16942052999179</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3703853984992205</v>
+        <v>0.2046067480846031</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2629.368823625322</v>
+        <v>1974.897495850181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1627416388871546</v>
+        <v>0.167109621324553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.0334858166879</v>
+        <v>316.0660007396925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07475433967211362</v>
+        <v>0.01826906060576923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.6649925262692</v>
+        <v>0.09346845342954435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007659428240126298</v>
+        <v>0.3540229217752098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04569947539027686</v>
+        <v>6012.234427811149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6633111860669973</v>
+        <v>0.1267265658923786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.26987003145995e-06</v>
+        <v>-2419.005487361341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4631017434603044</v>
+        <v>0.3068677988533344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.54125202806202</v>
+        <v>139.3831959018455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5265170145153646</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.819939062810615</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5015043007093556</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4806.449018089466</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.003494763220911816</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2914.490831613388</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08401930759172263</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2441.261502911755</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5340678197612059</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.71422730844399</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2727459459176442</v>
+        <v>0.2271763602175438</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3571.316556447759</v>
+        <v>1383.87018490658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1951535750440671</v>
+        <v>0.2597960243936174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.21582865320545</v>
+        <v>270.7428889984295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.58990845133854</v>
+        <v>0.005104712797591454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.0387141547749</v>
+        <v>0.1215245343261913</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2373108885692908</v>
+        <v>0.1927242492447912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04040728709525077</v>
+        <v>12254.09910977879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7936070764835738</v>
+        <v>0.006201886857146436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.900361701475326e-07</v>
+        <v>-3237.200292471538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9538965110022262</v>
+        <v>0.1803259843086078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.531154708480265</v>
+        <v>80.64870407972137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8955342425073196</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1678164930051835</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9906155545731206</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4816.65513907785</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.007628607827538226</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3051.933883599073</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2044074232172657</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5822.541812136861</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1194888734932427</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.105284040062912</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9286076251696287</v>
+        <v>0.454878192218186</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.6295513358054</v>
+        <v>3229.226613858214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9049929978338584</v>
+        <v>0.001168524952452808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-35.81990110230004</v>
+        <v>255.582297415787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7637046253265358</v>
+        <v>0.001767204855039369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.4759406222708</v>
+        <v>-0.06599875063581337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03724953395563672</v>
+        <v>0.4726483328361454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08398770093923588</v>
+        <v>2303.344631704447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.492494379278822</v>
+        <v>0.3903245033744881</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.887619901817837e-06</v>
+        <v>262.7508625901496</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5742664580311767</v>
+        <v>0.8968576761758518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.38673995442744</v>
+        <v>22.90794599400294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2150277445395699</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.3461541469066</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4782288218360019</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5731.357076049895</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008841593638454626</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-5223.834408471354</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05012126833879565</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6496.682132230355</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08509242346588124</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.09023254903248</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3557190569784174</v>
+        <v>0.7795008044512068</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-24.85405402336255</v>
+        <v>2646.81006257914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.992838420332233</v>
+        <v>0.06300205624555635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185.361236428366</v>
+        <v>220.3380957306987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1219710156300696</v>
+        <v>0.0873899097949298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.3319256678403</v>
+        <v>0.09872894282103362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09824032353079636</v>
+        <v>0.4187854203254053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09763321970655531</v>
+        <v>4787.644631427103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4315720639927457</v>
+        <v>0.2262642658164312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.818232421319641e-06</v>
+        <v>-2952.670325085715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6681832336471978</v>
+        <v>0.307991079685913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.46448765731131</v>
+        <v>172.2422382128993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3998418846001975</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.54587623089351</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3856369331883284</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3083.126260158615</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1322380762768359</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3117.617843295922</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2131130777655694</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8086.522283063041</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06922192211515256</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.2183862819369864</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9910232085051043</v>
+        <v>0.1941517534102331</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-187.7597619486769</v>
+        <v>2693.139508238506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9433600404389663</v>
+        <v>0.02915372352823976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.62182647165383</v>
+        <v>239.6386649953628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2995483055988677</v>
+        <v>0.01765046443400714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.0617154158595</v>
+        <v>0.1476761339054339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04268566017630345</v>
+        <v>0.2370648142029956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1588645554492075</v>
+        <v>3615.832612332304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2039230517246905</v>
+        <v>0.3136410270226191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.283657365417188e-06</v>
+        <v>-3340.937419619448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5416273653052353</v>
+        <v>0.2320009581626394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2439448362098062</v>
+        <v>177.1710274108729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9915477829325184</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.11048047243895</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3034849303604782</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2733.745431197603</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1378008148021225</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1637.803119246454</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4190622711904819</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14752.04285982231</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02540543796804854</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.90121514249705</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3890510133454073</v>
+        <v>0.09628686818907892</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2966.62989326881</v>
+        <v>1994.109046906921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1083297164226937</v>
+        <v>0.1137203377310747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.50026654819033</v>
+        <v>294.9024936246415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4733253734571377</v>
+        <v>0.00771267716814456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.385829825303</v>
+        <v>0.1045586285198536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001768810833654002</v>
+        <v>0.3627400066404974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02657267744070702</v>
+        <v>5430.653659856822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7766213520184367</v>
+        <v>0.1472486093812628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.608468098002299e-05</v>
+        <v>-2014.308575945486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06917963171429048</v>
+        <v>0.4128621331146235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.957039745284476</v>
+        <v>125.6519193529425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9117582800203117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.244491502452348</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6955849984457229</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3740.481474892554</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002038738156606592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1093.673168506161</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4984956487268284</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4946.660031329317</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0514938704942725</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.24311083075852</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4072066447161127</v>
+        <v>0.2420841613172948</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3210.776107953277</v>
+        <v>2500.205611843627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09064509163350877</v>
+        <v>0.05819336209994747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.0881636335194</v>
+        <v>280.7059958174232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.66900838962457</v>
+        <v>0.008933423609556105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.618833833865</v>
+        <v>0.06936488094090851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001501838762605988</v>
+        <v>0.5009156040840848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005409175978514924</v>
+        <v>6332.045467675602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9948090821421415</v>
+        <v>0.09354142808301152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.647369012270878e-06</v>
+        <v>-2885.245583658048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7065034430130194</v>
+        <v>0.2592010841017458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.11066430419073</v>
+        <v>78.74106687751308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3724644248683269</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.938422554801498</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4441112479712781</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3287.054943517595</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01651584459387878</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2400.097013083324</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1126604909976076</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3371.058797270428</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.179493447214778</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.928702331083542</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8217829239545652</v>
+        <v>0.5142657644898943</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>954.0874302177126</v>
+        <v>2709.598813404067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6840806551463152</v>
+        <v>0.03515277898351733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.58874600279592</v>
+        <v>168.5470583528763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7754429625512094</v>
+        <v>0.1669907795887166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.8734641261136</v>
+        <v>0.05382463186026748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03579957470187201</v>
+        <v>0.6128978280580566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.102631447516312</v>
+        <v>4299.47170813716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.409251286870659</v>
+        <v>0.2471482672956462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.923585173080856e-05</v>
+        <v>-2123.56463525161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3367066148366059</v>
+        <v>0.3736237289671647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.11955682781062</v>
+        <v>250.4237459977381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5396627587539027</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.50417664085336</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3961501132508003</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5713.756523303809</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002262360514358231</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-4476.490121988762</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1135546903547957</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7314.469565170944</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05500514195873868</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.496533918933117</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6318913614826479</v>
+        <v>0.07724611551347491</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4565.474050904866</v>
+        <v>1246.766352214587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07625011473778701</v>
+        <v>0.3256755299634919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.3387479714296</v>
+        <v>264.0575694844123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3173165095010806</v>
+        <v>0.0123599110918291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.306495264317</v>
+        <v>0.1210397187848214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2292662754915483</v>
+        <v>0.22010215078514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08416267350412165</v>
+        <v>12509.49719519062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4746598454759688</v>
+        <v>0.002830599001979777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.612183730631797e-06</v>
+        <v>-2734.875743760639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5619577755194995</v>
+        <v>0.2742753341397879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.39868874847974</v>
+        <v>79.42441635161177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5348994448520605</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.770233544495479</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5073506645225954</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5668.263458242216</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002047119559939259</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2059.915009488863</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2961919320882303</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5706.511341269877</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1302382400779523</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.385226048322977</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7804195496304832</v>
+        <v>0.3563811341753714</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2034.628018922483</v>
+        <v>2267.555829653857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5298417249434157</v>
+        <v>0.08983651668532315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.2023026995556</v>
+        <v>290.4649721604148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1307818773345635</v>
+        <v>0.01546874674868134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.9182160282022</v>
+        <v>0.07558680093089443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05016034734573135</v>
+        <v>0.5099151724615841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1236259840581514</v>
+        <v>5497.372096161529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3411643277225015</v>
+        <v>0.1576226559062713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.067632372998333e-05</v>
+        <v>-2243.771621583414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3907370457813308</v>
+        <v>0.3933563876939485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.62910866518884</v>
+        <v>106.7644973806464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1830788146614466</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.41434341694192</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1698664790781311</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3452.905577299825</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06297843712828993</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3306.92556643476</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1438238285821615</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10507.63025336791</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04443419967977319</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.586226266231243</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7971073710272237</v>
+        <v>0.3569544781439672</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2559.750445098507</v>
+        <v>2577.373413501388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2257793524826446</v>
+        <v>0.01252304986753629</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.5857562273187</v>
+        <v>312.1736756641837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1453692450858481</v>
+        <v>0.001073586574548008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.9151202248656</v>
+        <v>0.06527707011413353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01130626478677766</v>
+        <v>0.4755183248387607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04525348499394549</v>
+        <v>2186.782701546699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7203184026230749</v>
+        <v>0.4738615340676724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.491553325613124e-06</v>
+        <v>-1043.400482333796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6021074211718471</v>
+        <v>0.6102285581493085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.7891954539955</v>
+        <v>82.39875322410782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3473620319932332</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.539883223985271</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6839654437238267</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3642.600577382003</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0199818812325938</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3624.098706322969</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728800919880525</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2228.680404353305</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4940678777982122</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.46045088332282</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5165182372205854</v>
+        <v>0.3553476579593604</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.149788533015</v>
+        <v>3378.366465309197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2340256758699083</v>
+        <v>0.005137219730690403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.90010214060533</v>
+        <v>220.2318050326405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8087397801977496</v>
+        <v>0.02236309138944876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.5711334851446</v>
+        <v>0.08015663388632534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00139653853103027</v>
+        <v>0.3106310837237986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000341254408180558</v>
+        <v>833.4772206778998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9975454670893906</v>
+        <v>0.7951665708082676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.857882395758417e-06</v>
+        <v>-2601.858214393715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7471110292539713</v>
+        <v>0.179013843999528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.48569631825509</v>
+        <v>209.7709689707241</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3110509459501274</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.866418235379632</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8347021855330784</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2638.43014225156</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04583340246610461</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2097.415420182277</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2082731850598628</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3340.089428800555</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2063500181735372</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.538271529728632</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6596454544738466</v>
+        <v>0.04371770356272484</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2818.704164832429</v>
+        <v>1134.079452834887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2112940881800059</v>
+        <v>0.3879407573139786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.639529807597</v>
+        <v>270.9402923478781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6837413391919207</v>
+        <v>0.005949220198311382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.2284697868241</v>
+        <v>0.1036019323937357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04595254057692883</v>
+        <v>0.3219250674815378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08161821741207942</v>
+        <v>12880.32122172772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5793690078744367</v>
+        <v>0.007312014039236418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.213707936153548e-06</v>
+        <v>-2364.979814611765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.706432786751397</v>
+        <v>0.3675575947289843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3787449412368815</v>
+        <v>84.35163460753097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9889470780896568</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.286210071614057</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8433253913036122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-6341.104586712681</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001944333191401874</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2245.037713415336</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2989731805461308</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7505.789803969216</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05651200648675433</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.80636795626674</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8595316340797936</v>
+        <v>0.420561761253439</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2467.74332129094</v>
+        <v>2318.276576295363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4184978325415746</v>
+        <v>0.07218237948425796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.7091023531249</v>
+        <v>309.1169838344045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2025083622863341</v>
+        <v>0.02565000508166856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.5604540716424</v>
+        <v>0.08252679577299629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04613973862852786</v>
+        <v>0.4668300542060958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03490299676950323</v>
+        <v>6246.022436991745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7248517373650811</v>
+        <v>0.08618602126830691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.823483344337193e-05</v>
+        <v>-2609.593305927351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1323250593500922</v>
+        <v>0.3109557632723268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.99004044901511</v>
+        <v>51.14397627993526</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6560023873072767</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.038409813695534</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6215899904149249</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5129.683884454673</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.003565623390705986</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3462.676430862474</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1231868389463042</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3793.746604601748</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2481698648399473</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-15.91322563376119</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4307127875680673</v>
+        <v>0.7064226625811239</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1105.993249021509</v>
+        <v>2424.756280947609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6723592739559914</v>
+        <v>0.07443196904570522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.1530662755557</v>
+        <v>268.6453151201226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2458834726640996</v>
+        <v>0.01619351926103275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.2862241526836</v>
+        <v>0.05175669318513643</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1544876864069562</v>
+        <v>0.7001250248964976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07304056382203994</v>
+        <v>5287.301129776646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5344294149737341</v>
+        <v>0.21039751042595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.270471406245661e-06</v>
+        <v>-1763.766841467715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7894759443473806</v>
+        <v>0.5309027930812993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.52546918206722</v>
+        <v>102.3545467373175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4878439665426688</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.80573672904476</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.519937669380151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4980.224601666892</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.004401228379638346</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3187.055056486572</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1328221368066515</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6821.469801993362</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07489802332199247</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.241199553309656</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6933026069275279</v>
+        <v>0.3527601420258281</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.73210577543614</v>
+        <v>2568.419706426897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9899756334765333</v>
+        <v>0.07130127868921556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.11348527401324</v>
+        <v>233.0547017611206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.679181893049305</v>
+        <v>0.1007023867978032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.5451680866248</v>
+        <v>0.0421988997441661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1269568703233329</v>
+        <v>0.69929840281913</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2298798749724545</v>
+        <v>4191.537260021223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2279373406573552</v>
+        <v>0.2697986870253823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.605188622148571e-05</v>
+        <v>-1719.232389006092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3022327042395347</v>
+        <v>0.536256657367145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.13087093285662</v>
+        <v>181.9417935943106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2623788918446543</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21.4122089640929</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2246144806173914</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5759.850629548445</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.006233155417992188</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-7147.015538054446</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04711595820968309</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6217.116337611018</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0753498097273636</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.60368944796513</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6163957469404096</v>
+        <v>0.182121067062141</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2474.928705487527</v>
+        <v>1996.900960001831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3527799028686582</v>
+        <v>0.1076647162564174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.70359881143146</v>
+        <v>277.4275906159417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3708367018187166</v>
+        <v>0.01112090796535299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>267.5322682967214</v>
+        <v>0.07360480702056002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03578325683449807</v>
+        <v>0.4364826555823934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05339207730079759</v>
+        <v>5773.814679514155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6769564558638044</v>
+        <v>0.09067050770591804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.342448637630855e-06</v>
+        <v>-1939.656759789591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9046266473073226</v>
+        <v>0.4032949423242259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.777179745914765</v>
+        <v>146.6534668501615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8332862445793354</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8531213145824772</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9466573421831892</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2667.724476333176</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1795341021329426</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2409.430077557279</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3154968393988512</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6772.264656646785</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1505931794184441</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.407795191981677</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7830569115057682</v>
+        <v>0.1616273780010898</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-553.1060109820492</v>
+        <v>2488.571915954923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8455053738522182</v>
+        <v>0.03142641207746688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182.3692660722788</v>
+        <v>317.849344631938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1175355263404878</v>
+        <v>0.0009853128649441373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.8748020982518</v>
+        <v>-0.01113519814165054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1156276471030545</v>
+        <v>0.9298778930946341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1797002099217762</v>
+        <v>3570.204461191161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2617992013478858</v>
+        <v>0.2746614757493532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.782752785107385e-06</v>
+        <v>-217.5353360766649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6132503193075562</v>
+        <v>0.9428322768347895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.08142522321691</v>
+        <v>35.70332770339655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202096465108118</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.46431583691333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2747254273263025</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4547.390630381058</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.00628200996747148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-5252.71285352999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06172109354674741</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6042.662298532852</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08094108571067507</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.85877413577537</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4988020433548708</v>
+        <v>0.7434031647203502</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4574.40803400111</v>
+        <v>3046.812315288414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1106859276749947</v>
+        <v>0.01417973137032944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.76525594472093</v>
+        <v>208.3806296188087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4485871143605383</v>
+        <v>0.03609657221906616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9263257545282</v>
+        <v>0.06005292130110411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1515096858031182</v>
+        <v>0.5109779047639718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03625759749304941</v>
+        <v>4764.613506081825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.771366092971793</v>
+        <v>0.1791255789816283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.526206930367331e-06</v>
+        <v>-2873.87931581563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6835696967879005</v>
+        <v>0.1902225670736915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.291268105087845</v>
+        <v>127.2830546551974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9596857968046431</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.905941537321368</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7071863515554825</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4281.320303926615</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0160463638991343</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3601.593819547156</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1140484970718587</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4150.175284349515</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2336865760538458</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.994676392188978</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7705840760772877</v>
+        <v>0.2312159149205487</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2981.650260202336</v>
+        <v>2267.948491677751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2602919746311434</v>
+        <v>0.1521601986662482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.88541894707083</v>
+        <v>261.100090535189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3666156623957261</v>
+        <v>0.1395353596737048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.3463229446884</v>
+        <v>0.0779496081881498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1530900693943724</v>
+        <v>0.4853752874680164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1770073135823388</v>
+        <v>5752.742964400652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1801541648903309</v>
+        <v>0.1334583929656524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.719906257505643e-05</v>
+        <v>-2264.590556186988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3221712801877064</v>
+        <v>0.3560367864345645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.23130912745523</v>
+        <v>148.8643270863649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5098242234491795</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.148071919278308</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8159804619250608</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-6618.174264678701</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001377401513228418</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3337.829583588494</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1668047774086145</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8507.232736111433</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02253255024819984</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.3709990071431548</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9840132031388369</v>
+        <v>0.2895408359195341</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1730.333819375674</v>
+        <v>774.9713939247195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4811599506931463</v>
+        <v>0.5278965201165509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4295872931367</v>
+        <v>269.9058366093792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2263667383687611</v>
+        <v>0.004779649360821597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.105669948405</v>
+        <v>0.1371502079659338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009722237961743613</v>
+        <v>0.1631472340539206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05086716341757228</v>
+        <v>13886.06627438653</v>
       </c>
       <c r="C5" t="n">
-        <v>0.635090147079107</v>
+        <v>0.003768647521797996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.531603894787882e-06</v>
+        <v>-2551.564659215424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4577417661742404</v>
+        <v>0.2236709059561584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.90407018386617</v>
+        <v>98.48814364789484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2667013694871307</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.391949685166736</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4422417826810042</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3536.381280593875</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0841974316116476</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3626.033294408418</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07680527687508254</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3746.378376942605</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4224879441807275</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.14507060285064</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3561747610567347</v>
+        <v>0.3052803369046088</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1958.160510270451</v>
+        <v>2143.918832674377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2081498783533945</v>
+        <v>0.09040179488073199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.11407356362963</v>
+        <v>298.0341621353036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7707401754474996</v>
+        <v>0.007158097207262763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.5651643495557</v>
+        <v>0.1049832481054206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004936236202805398</v>
+        <v>0.3524895826349826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02022213217523609</v>
+        <v>5042.874942807402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8046701483989391</v>
+        <v>0.1700994432875295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.585546963769084e-06</v>
+        <v>-2143.468353639876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6396339923900416</v>
+        <v>0.4156405284653958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.07494360578458</v>
+        <v>113.7267336217106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148415065628977</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.4138577052006696</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9568686834134021</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2940.577845249762</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01142457984153188</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1825.366501022157</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1949432754607803</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2840.487606066831</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3145537107811744</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.131848416722278</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8665675168114872</v>
+        <v>0.296425413765834</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-103.6942510792292</v>
+        <v>831.438564448365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9617248677504084</v>
+        <v>0.4582957819606895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.78142191791139</v>
+        <v>390.2184208798279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2788541011854294</v>
+        <v>0.0004923113749656299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.5989243774678</v>
+        <v>0.07640736398971537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003783832921714689</v>
+        <v>0.3472955858306306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04843245985510625</v>
+        <v>6847.398456503816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6277143888209719</v>
+        <v>0.02967451419275849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.58984399230192e-06</v>
+        <v>112.2027985064015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3857261385197793</v>
+        <v>0.9549151724857246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.12854189864969</v>
+        <v>78.21821666152186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06450706840197593</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.00491075131902</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2881211048311351</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3029.163555626896</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03203583263981945</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2511.944865125608</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1530868176892749</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4437.535510390683</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2961406742998486</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.798188377312876</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8016610810833069</v>
+        <v>0.3670151636205481</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2724.988882788282</v>
+        <v>3768.177466012387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2152326321599322</v>
+        <v>0.003076492808948308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8938140980526</v>
+        <v>246.3753193243057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2368634289990665</v>
+        <v>0.01001443720465751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.9116747387772</v>
+        <v>0.07521270672498925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01629136878869434</v>
+        <v>0.4195038816045187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05367903888393152</v>
+        <v>4535.788156747206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5953550595753634</v>
+        <v>0.1501167528138466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.407742852324694e-06</v>
+        <v>-4857.387633263723</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7099910465562489</v>
+        <v>0.05595468493827552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.9254514194525</v>
+        <v>6.356157060911528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6870217783688668</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.990794040313062</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7436011161186293</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5136.054359604736</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.00371096238299833</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3420.871444442747</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.152903038446771</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3975.600714413293</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2089625978650249</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.431553051155987</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8529593271635301</v>
+        <v>0.9526826735844673</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2174.983042684231</v>
+        <v>2462.391474135978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3589940594973037</v>
+        <v>0.07624893525265747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.82835909060056</v>
+        <v>259.870882494522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8092689849500943</v>
+        <v>0.06530875200262778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.7815765677389</v>
+        <v>0.02853010394587774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03518553335860971</v>
+        <v>0.8182413794881462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.100414542442527</v>
+        <v>4632.085065545976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4866903093681136</v>
+        <v>0.2564812562974699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.725327896290506e-06</v>
+        <v>-1397.138148476465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8842226324857781</v>
+        <v>0.596698404372642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.05143474703895</v>
+        <v>131.41061221713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6505543480880277</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.189102363194969</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.919690863786954</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4002.448225704932</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01693469379322231</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3491.508897877782</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1298703119275577</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6255.613864410905</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1033915888991962</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.082124657316246</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7032641275079263</v>
+        <v>0.3477418493703595</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6626.901339212363</v>
+        <v>1052.393218728386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05179626014411524</v>
+        <v>0.3862245877010629</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.7942724641531</v>
+        <v>270.4321948810012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2587631832841583</v>
+        <v>0.007610842905685789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72230116943467</v>
+        <v>0.103882412493033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7411571527753364</v>
+        <v>0.3500058481906996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05050178247311798</v>
+        <v>12602.78531841734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.65389722672675</v>
+        <v>0.005021091221250491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.217020726166059e-05</v>
+        <v>-2043.103746824054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3816610803996253</v>
+        <v>0.4269444964903556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.9243013208764</v>
+        <v>93.83450782015356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5520859498286796</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-13.13044155042987</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3466423899566996</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4582.917554865448</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.007549462514289374</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3959.450481515533</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06271444040222598</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2976.059034519883</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3788554580319651</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.903043109181315</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7574748336332972</v>
+        <v>0.3249698947150131</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.535041642612</v>
+        <v>2783.60830977989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1812878250168602</v>
+        <v>0.007573904212421674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-35.55786333458798</v>
+        <v>278.458175641802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5970714469182953</v>
+        <v>0.002008228966882579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.6945796337662</v>
+        <v>0.04431599622255153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003610728153052263</v>
+        <v>0.583262565402989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0130837099855472</v>
+        <v>4334.837972235283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8711464386959125</v>
+        <v>0.1298698510933388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.449942434024998e-07</v>
+        <v>-2244.759148231796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9145053374231862</v>
+        <v>0.2530843374284825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.62259746432669</v>
+        <v>55.6136886321235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1877847905365088</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.916919012107925</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7136466281753153</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3503.857980892256</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.009347299174246261</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1964.29536170198</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.167149516867272</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3755.472844635362</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1279792651886472</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.872086511921538</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6340960917256133</v>
+        <v>0.5292413215904826</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2402.697822047738</v>
+        <v>3154.284259117399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.309195501791529</v>
+        <v>0.01986819364534903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.39532998910411</v>
+        <v>231.6702572493161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5467636466420897</v>
+        <v>0.02591311552817026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.3235519782563</v>
+        <v>0.09753429152397741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02683668985470913</v>
+        <v>0.3430339096480857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02160722789379077</v>
+        <v>2252.744843516896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8667537838584271</v>
+        <v>0.5773110802902448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.692347351416338e-05</v>
+        <v>-3420.980478422747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3877266892586675</v>
+        <v>0.1534059095448612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.308971604428265</v>
+        <v>214.8158627143044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7467208985533519</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9462626915842272</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9368330871488899</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4916.400821869927</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.009976896010526716</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1915.405280151476</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4192774302742319</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5693.353767956203</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1213671861354263</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.029108155403904</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.795701573817751</v>
+        <v>0.07815619537404733</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3941.957234704571</v>
+        <v>2854.629271218897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1259230376712053</v>
+        <v>0.04723568689597708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.4287477195335</v>
+        <v>243.5367954677178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09565966169393116</v>
+        <v>0.0268722305900798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.6526480806301</v>
+        <v>0.09125428554362774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09986395036787045</v>
+        <v>0.4426153732022983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0507582510651905</v>
+        <v>4763.15451902837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6620935521114106</v>
+        <v>0.2563859605519617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.056035772927127e-06</v>
+        <v>-3820.713829674775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.858968448737165</v>
+        <v>0.2305885341973095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.75552689271562</v>
+        <v>132.5870623536793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6334851262706189</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.4051136587408521</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9736033644573814</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3736.405129187093</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01671914389390578</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-4290.392837281021</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06266192623691744</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1207.346534056794</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7090420009060132</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-7.250062748211288</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6830420640079649</v>
+        <v>0.2650959867559443</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2463.107538087686</v>
+        <v>2703.976105688312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2882515847714333</v>
+        <v>0.03899029084287927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.51620393010356</v>
+        <v>303.6748467063632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7468771729722047</v>
+        <v>0.005687089033391476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.4810250974625</v>
+        <v>0.1297565416011831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06591585147158856</v>
+        <v>0.2128337941228943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1267342811234775</v>
+        <v>3692.906725541378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3347565216741212</v>
+        <v>0.2929235039203619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.13748067393687e-06</v>
+        <v>-3303.258640446864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7290294624642624</v>
+        <v>0.1526281654397263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.795199151978849</v>
+        <v>112.345163161036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8851131553867342</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.4791484446922</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8340441049312296</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5756.320968334626</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.003169924218773602</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3377.524101673163</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1719276620192817</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7506.177638829673</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0973642355313793</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.01072724082169</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.613952550577716</v>
+        <v>0.3255621074629864</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2342.459423550696</v>
+        <v>1171.079913951258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3497505221132471</v>
+        <v>0.3360863345188282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.3002452892415</v>
+        <v>272.1320886104151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.363367661686415</v>
+        <v>0.008571933015767636</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>273.1812815172444</v>
+        <v>0.1083335291962316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04362205754793334</v>
+        <v>0.3827693029651488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006532853340007583</v>
+        <v>11465.20791549114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9641305548164572</v>
+        <v>0.01490916191897899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.374735599650307e-05</v>
+        <v>-2107.258545939483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3453139690780082</v>
+        <v>0.4154041086168535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.92356768573643</v>
+        <v>118.9938737884697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9075794906526287</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.374920038320852</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8027530095184529</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4556.194267517509</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008929818487893496</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1306.686288081512</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.632442317867197</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5205.506015338013</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1570743298123971</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.334775794519679</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7875585267281795</v>
+        <v>0.2478208319633773</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.487554283402</v>
+        <v>2835.424477931525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3425833758564186</v>
+        <v>0.0330373317986733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13.09367472127298</v>
+        <v>183.0101468163097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8512053713071592</v>
+        <v>0.1280468545359715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.4428603646472</v>
+        <v>0.07413687699821601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001478643648227496</v>
+        <v>0.4572223721468605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05372916618554957</v>
+        <v>4764.012324167747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5345329025386383</v>
+        <v>0.2104326287883662</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.811234247112031e-06</v>
+        <v>-2766.121910717952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7366786258760245</v>
+        <v>0.2434316605492587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.64676468081413</v>
+        <v>178.6804668220051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3138593829753037</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.016941431815994</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7308026842491704</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3474.836906801279</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01574714599495521</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2581.123279183764</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09091128896888666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5042.144713116129</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0531300815905246</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.646334456384572</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6424610753495953</v>
+        <v>0.1684780599705381</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_LR/Leipzig.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31474012" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31583829" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31690329" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31796139" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31903417" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32010775" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32117847" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32224709" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ32332371" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ32437490" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ32546491" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ32652820" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ32761475" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ32867830" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ32974921" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ33084116" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ33188060" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ33299898" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ33413948" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ33518872" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ33629082" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ33734306" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ33841425" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ33948103" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ34058102" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ34167593" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ34277944" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ34383748" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ34494422" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ34603922" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ34708426" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ34818846" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ34926270" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ35047970" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ35205230" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ35318135" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ35442242" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ35554781" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ35674849" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ35793998" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ35912109" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ36032944" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ36157765" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ36286321" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ36414637" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ36546041" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ36671781" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ36794132" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ36924789" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ37052306" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ31627255" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31721189" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31807098" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31891869" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31986236" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32068371" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32154618" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32234003" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ32315394" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ32390891" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ32486227" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ32569554" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ32647157" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ32730740" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ32805628" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ32896329" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ32982273" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ33056340" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ33148114" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ33237158" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ33350079" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ33488701" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ33588053" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ33720387" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ33916581" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ34189833" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ34346234" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ34474443" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ34626098" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ34774605" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ34906487" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ34987363" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ35087362" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ35178360" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ35270637" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ35355014" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ35437752" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ35537736" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ35621164" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ35719566" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ35810983" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ35903917" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ35988156" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ36072613" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ36156814" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ36253902" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ36337004" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ36425728" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ36506609" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ36589304" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_LR/Leipzig.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31627255" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31721189" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31807098" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31891869" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31986236" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32068371" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32154618" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32234003" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ32315394" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ32390891" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ32486227" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ32569554" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ32647157" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ32730740" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ32805628" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ32896329" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ32982273" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ33056340" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ33148114" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ33237158" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ33350079" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ33488701" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ33588053" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ33720387" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ33916581" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ34189833" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ34346234" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ34474443" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ34626098" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ34774605" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ34906487" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ34987363" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ35087362" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ35178360" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ35270637" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ35355014" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ35437752" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ35537736" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ35621164" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ35719566" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ35810983" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ35903917" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ35988156" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ36072613" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ36156814" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ36253902" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ36337004" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ36425728" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ36506609" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ36589304" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ04522093" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ04636346" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ04741862" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ04847373" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ04954736" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ05058899" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ05169673" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ05272335" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05378138" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05480302" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ05580063" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ05695796" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ05800310" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ05900822" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ06017662" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ06129173" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ06242689" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ06355724" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ06460235" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ06568750" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ06683016" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ06793541" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ06907060" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ07012574" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ07126365" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ07235829" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ07348793" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ07460265" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ07567781" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ07678654" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ07785987" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ07900162" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ08004673" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ08113183" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ08221704" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ08327037" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ08434215" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ08540913" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ08649161" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ08757185" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ08868059" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ08978870" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ09087595" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ09199641" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ09309851" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ09422410" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ09531335" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ09642844" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ09747357" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ09855717" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.651049103335</v>
+        <v>1223.116020066012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1508967945021762</v>
+        <v>0.5430123186423235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.0292643665756</v>
+        <v>77.49787851854907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01069339613051192</v>
+        <v>0.4604111272116701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0971877534059582</v>
+        <v>160.8797940699217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3673432050739042</v>
+        <v>0.1710531705068374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6525.743840852696</v>
+        <v>0.1318939960583695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1066953433048202</v>
+        <v>0.2523084246242996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2432.796865123122</v>
+        <v>0.0001817315572655154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3326847507328478</v>
+        <v>0.06292762478195797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.54619751391702</v>
+        <v>9.727152084984887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6133434504865092</v>
+        <v>0.3855861466400096</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-8215.029391253785</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0006464888755649555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5242.887664812522</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06383539919266891</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12658.09888842634</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.004443961903244281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.62110305632203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5137822265797364</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1492.190493770009</v>
+        <v>2554.490685690792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1946108546970188</v>
+        <v>0.1396730413365204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.9699018502023</v>
+        <v>81.65342044006974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001388817429011376</v>
+        <v>0.2690458427767538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04255116557605826</v>
+        <v>333.6659133461704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6358659906827298</v>
+        <v>0.002418450906143164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6091.541729170564</v>
+        <v>0.02922823597638807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04749748520266932</v>
+        <v>0.7580431948343308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353.3848237221337</v>
+        <v>9.302849262709888e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8704011317172061</v>
+        <v>0.08450426689982304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.38963737264461</v>
+        <v>-4.34407572412368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3978748065736795</v>
+        <v>0.6093047623772802</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4772.466130979772</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.004151715887628049</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-760.4130422528542</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7113866403298648</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6970.968605373722</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03471031121799028</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.739512208395503</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.915347141822406</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3270.381508395108</v>
+        <v>6386.850252582195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01489331618086864</v>
+        <v>0.0439860247662907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.4215512957242</v>
+        <v>73.32405569283418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06901739533463019</v>
+        <v>0.49773682092836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06691751743075069</v>
+        <v>149.8569862024362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5119972763931149</v>
+        <v>0.2525305927229543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5060.234299095436</v>
+        <v>-0.0005204909687508419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1419345653465709</v>
+        <v>0.9969057494006744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3497.299886938787</v>
+        <v>3.670398383519765e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1409593809421815</v>
+        <v>0.6433740764820224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.6036526150243</v>
+        <v>-15.77038918134707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3146490063909366</v>
+        <v>0.3115190239700588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3098.90388774317</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1646223462521288</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4066.504758977559</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1338570162991784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2756.146170909169</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5855989284636283</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.144421380329824</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8016452265678988</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2454.084782629515</v>
+        <v>2112.055895135691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09661351656637056</v>
+        <v>0.3117034947809983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.2856158100899</v>
+        <v>128.6013293530778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01655468722585739</v>
+        <v>0.2582890853128298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1222118834460827</v>
+        <v>242.5171564085551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2966686529385285</v>
+        <v>0.0720673937091999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4796.370468122241</v>
+        <v>0.1637415278236833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228464074495595</v>
+        <v>0.1895430524722745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3363.977575346133</v>
+        <v>0.0001422367825165885</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2488967276286442</v>
+        <v>0.03797834163827309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.2019973662589</v>
+        <v>9.466639993294521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3045066906369309</v>
+        <v>0.4196885649558757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6316.855058627591</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002758537811090395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5702.665118110304</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08065562229016897</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8458.331328407941</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03751080669863296</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.95199594836604</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8489783903880324</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2292.154374018334</v>
+        <v>2887.00289124041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0902264019668558</v>
+        <v>0.1183206912349059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.4167940867572</v>
+        <v>48.97313605067814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02062192363579145</v>
+        <v>0.6348947729946196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05052968635580263</v>
+        <v>278.983426666727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.652204295596616</v>
+        <v>0.0159111897866631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4791.427837652065</v>
+        <v>0.06141436539342311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2171088794449474</v>
+        <v>0.5568654903701442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1394.39320393091</v>
+        <v>5.995838487490207e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6039116940526231</v>
+        <v>0.3524247065466534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.7466242480481</v>
+        <v>-3.942599620676337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1973062028726468</v>
+        <v>0.6889106044484768</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7351.147334121402</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001087971970391872</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1602.839720486367</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5092057860126777</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9957.206788651509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01234172805249926</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.02324182512455764</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9991289433111799</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.446699183982</v>
+        <v>762.4333845067868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.319267931124608</v>
+        <v>0.7413764798601471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292.9483280541313</v>
+        <v>173.422288378598</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004330202569891661</v>
+        <v>0.1047178064081674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1319029525704548</v>
+        <v>319.3009873717456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2122079470121093</v>
+        <v>0.01034519538446309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11333.40070111817</v>
+        <v>0.08236343784046019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0164216302471373</v>
+        <v>0.489256567308912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2601.311382825967</v>
+        <v>0.0001501628743353735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2712440405903071</v>
+        <v>0.1307080024973644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.37847695358599</v>
+        <v>8.472218521417588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3858850964171074</v>
+        <v>0.4530411866755785</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3210.13989418079</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1456405053281165</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-684.6368793980464</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8035735620663924</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12709.67176798419</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02261352712052565</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-34.1391574253004</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1524473448206535</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2321.611622945465</v>
+        <v>2806.151411404457</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02968979180632297</v>
+        <v>0.09779823771460974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.1287304527598</v>
+        <v>140.1804455119427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02079343846647079</v>
+        <v>0.2155287181672389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03405619776424504</v>
+        <v>288.5071981420792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6997913681000818</v>
+        <v>0.05849020957798612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4960.86410011191</v>
+        <v>-0.005936552342678203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1230870459194715</v>
+        <v>0.9525072985012931</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1382.427822320213</v>
+        <v>0.0001238967087701593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4887870153287954</v>
+        <v>0.07049876928957964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.8870407235994</v>
+        <v>-3.297845643120066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1773262871262005</v>
+        <v>0.7027207812411809</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3985.974276610784</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01159282466216953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-962.1414942815127</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6702647562739019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6022.782635034151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07939464914198832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.31303862180927</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7915586712219029</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2466.345818904021</v>
+        <v>4027.440079801121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08522635485839447</v>
+        <v>0.09459129239155684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286.2108167355303</v>
+        <v>238.1360214652384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03237546614312708</v>
+        <v>0.07107417384115243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06646157672784597</v>
+        <v>137.8802314195687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5337194359042565</v>
+        <v>0.3462148366509575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5499.633425972208</v>
+        <v>-0.04873703007042873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1470718248836013</v>
+        <v>0.7062501135889354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2728.581479799455</v>
+        <v>0.000212306328631611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.278576442660552</v>
+        <v>0.08541883524728898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.0406375277989</v>
+        <v>-5.930814700153746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3446862061969771</v>
+        <v>0.6044968175094814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6467.097017127508</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01154546277138925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1715.942502807508</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5505943260922028</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6395.209602534768</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1375452511668644</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.474650899168154</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9133691101144836</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.488229645749</v>
+        <v>1922.505476958488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2384860233570845</v>
+        <v>0.3469756531656158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>321.7754016507498</v>
+        <v>158.6388681621309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007324988174105893</v>
+        <v>0.1156981006403335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06887792723234362</v>
+        <v>274.3742766110929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5227174700035175</v>
+        <v>0.02570094360191165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6033.487546449771</v>
+        <v>0.07926835957838274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09603847202000695</v>
+        <v>0.4680780568433711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1137.776820409393</v>
+        <v>8.926324279789693e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6442802503010634</v>
+        <v>0.1899901469422473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.9681832703833</v>
+        <v>-1.304798659256086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1684301623928704</v>
+        <v>0.8999803749889698</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5607.258852900308</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.004809539571582728</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2067.596704775137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3974213292873192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8677.497942867074</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02194910341722738</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.823528537716976</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7968615948134443</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.2351992331414</v>
+        <v>599.9462431326265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8434756385339349</v>
+        <v>0.828587669789054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.4419589934232</v>
+        <v>173.3951073067371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002142937488923526</v>
+        <v>0.1558879815919508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1678783477868626</v>
+        <v>336.6163664809918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07668111884999081</v>
+        <v>0.00506247531728901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16289.36428983245</v>
+        <v>0.1443974845256424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00413105802879695</v>
+        <v>0.2095349209087481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2472.068503335229</v>
+        <v>0.0001041275872264568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224817286370005</v>
+        <v>0.1264223078844576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.60256928814181</v>
+        <v>11.21917476508707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5926499008991122</v>
+        <v>0.3393481115344628</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2681.724818040138</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.207358054971874</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1997.071676345204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3681683800024406</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13331.75226898827</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06893740392150571</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-37.57227474245932</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1677539778189938</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3018.299370262147</v>
+        <v>3283.364169619083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003573747057291961</v>
+        <v>0.06190870082916933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.2225666968501</v>
+        <v>7.198646478491696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004127553621101491</v>
+        <v>0.9459405691742857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08596089902168208</v>
+        <v>383.5345289552258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4009876049136419</v>
+        <v>0.01063503366993355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2690.556709976556</v>
+        <v>-0.1054960322901804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3523368497844377</v>
+        <v>0.3663430908564946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813.7184166465072</v>
+        <v>0.0001236231230285848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7083833764310219</v>
+        <v>0.06064615584365456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.273360493970074</v>
+        <v>-3.078283332802116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9590032817764891</v>
+        <v>0.7552434303608101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2810.068814701923</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07235297919183828</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1404.207717037441</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6046806435502381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4000.311535660208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2191515209573424</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-17.02821146717847</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4109305278046875</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>865.8923246740233</v>
+        <v>-432.0958738089921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4868171506053439</v>
+        <v>0.8690957951536418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.6248674589283</v>
+        <v>135.0166968700132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006532560846642229</v>
+        <v>0.2065687761227192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1337849366385208</v>
+        <v>310.1667724947162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2199345770430942</v>
+        <v>0.01129118954486432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13459.2929179217</v>
+        <v>0.1541793726550963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004998582567713973</v>
+        <v>0.2441060728416852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2533.555907006448</v>
+        <v>0.0001083685440340747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2593772631078528</v>
+        <v>0.1031929657170751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.3530669162264</v>
+        <v>12.25140349904696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3395824982325919</v>
+        <v>0.3520640586078827</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2870.923525749984</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2166479844888297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1983.809493177945</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4345561242018531</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16116.81194256719</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.007887658926494174</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-25.58225699622446</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2810452614131195</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3157.610387510767</v>
+        <v>1820.011617212978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0215765222451369</v>
+        <v>0.3875013979391052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>217.8277015583074</v>
+        <v>68.88712852748904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04093369180537382</v>
+        <v>0.5002041784010327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1114020292330486</v>
+        <v>188.4425574614714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3031407136230297</v>
+        <v>0.09724572945198361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4296.798498301887</v>
+        <v>0.1911965772577194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2386825102870497</v>
+        <v>0.1268254275002891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4007.32061433103</v>
+        <v>0.0001193515083550957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1707032035143881</v>
+        <v>0.07073860180295452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.1755111558355</v>
+        <v>10.59471116798397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3606634350629545</v>
+        <v>0.3635144449045521</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6524.14747899083</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002390833237452355</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-6326.346735150606</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04888312623117712</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9848.953622998002</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02211083446638579</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.112055898841597</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7801658626258666</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2206.477397541523</v>
+        <v>3908.349597631712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04164107438434637</v>
+        <v>0.02251648803703528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.4868016590299</v>
+        <v>131.4779581603944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002970903917997962</v>
+        <v>0.1353846004729825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05221204761664155</v>
+        <v>305.9948826463532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5806076482553706</v>
+        <v>0.003170113139908789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4989.560323819042</v>
+        <v>-0.09329478877890263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1024811177509471</v>
+        <v>0.3728482300635266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1646.353027533415</v>
+        <v>0.0001980822919735202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4287172745364153</v>
+        <v>0.01697121331664604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.68766959620586</v>
+        <v>-9.47153930531433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4537093327346564</v>
+        <v>0.2721618456580525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4219.120595440627</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.008272875679939232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>300.6078165092808</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8877940111765723</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4562.836834887263</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1361788031684743</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.4728419029867</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4201431495470855</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>888.3495506784288</v>
+        <v>1097.203793450326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4092528518439094</v>
+        <v>0.6104034723060837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.5601231894673</v>
+        <v>135.2224494513857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001886520164160984</v>
+        <v>0.2208233716554419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1171209024158406</v>
+        <v>290.4424349144389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1417484560268804</v>
+        <v>0.01326237013200626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15134.45637988175</v>
+        <v>0.09870282143909853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008655083866689815</v>
+        <v>0.3123561200810858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2542.008627861084</v>
+        <v>6.521842085006782e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183577248900405</v>
+        <v>0.348788779448743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.88412387515689</v>
+        <v>8.809511620555064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5841802346955336</v>
+        <v>0.4080714319572847</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2264.481683237313</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2317311112629997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2207.773595932406</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3284108735170718</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14772.46696191253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.008443164291234557</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-31.92796723117839</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2014977041239597</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2505.574774943751</v>
+        <v>2613.239121028609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06117330656790766</v>
+        <v>0.1817801613015851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.5915427425928</v>
+        <v>155.6916902992014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0190658280816728</v>
+        <v>0.1216715679278257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1318374181367351</v>
+        <v>261.7127453991312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3136545149664681</v>
+        <v>0.02465955880066812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3522.402952458817</v>
+        <v>0.1245868163581205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3530571387707836</v>
+        <v>0.3111410460627004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2666.520188679346</v>
+        <v>6.756882173664158e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3860902668215724</v>
+        <v>0.2991729206846789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.1632129276973</v>
+        <v>3.726170892520933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1507885991782492</v>
+        <v>0.7187311974751277</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5721.391957098105</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003347745814867572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2704.24187362205</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3371640676516956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7179.917300606046</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07856879660335579</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-11.57028044123366</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6025097589793045</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2330.244207084114</v>
+        <v>1629.352005875893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09605831269448192</v>
+        <v>0.4157752746765089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.70875537931</v>
+        <v>33.25631127115255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05843070335191736</v>
+        <v>0.8047372185297621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08194089716622976</v>
+        <v>257.4997945239905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4185274375335351</v>
+        <v>0.1095381744410582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5510.519975042764</v>
+        <v>0.1305454067262892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1572581963505162</v>
+        <v>0.2405822307412883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2320.643721650659</v>
+        <v>0.0001366877323861416</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3614765300274214</v>
+        <v>0.08171288238050783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.7664033469343</v>
+        <v>3.508079026929657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.273611553996705</v>
+        <v>0.7419838991974558</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6680.896046447895</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002259855710999449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4159.993070743683</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.147190399863158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10785.35232110421</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.009805984973146364</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11.41376745638986</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6293322972645712</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2789.483815730299</v>
+        <v>3265.545242917335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04408751477540112</v>
+        <v>0.1816499504520681</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.1009061690811</v>
+        <v>154.3096233907896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04485233426988786</v>
+        <v>0.149787002279652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0319441712904078</v>
+        <v>211.404237844897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7903286408658963</v>
+        <v>0.1170784063401251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4747.966599559277</v>
+        <v>0.06016826709195963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2248332099961382</v>
+        <v>0.6333939418673523</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2068.58034938235</v>
+        <v>9.88003099573818e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4310904542673764</v>
+        <v>0.1711528699610724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.5243645578777</v>
+        <v>-2.539798974086342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2046067480846031</v>
+        <v>0.8333507587807245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4572.818316872273</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02383066234084883</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3136.366545245082</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2877537394468902</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6851.275349776193</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1176104587078767</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1312226270978165</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9954133549421944</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1974.897495850181</v>
+        <v>3703.92101430876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.167109621324553</v>
+        <v>0.1092495361435644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.0660007396925</v>
+        <v>254.4368975321851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01826906060576923</v>
+        <v>0.04874312842423222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09346845342954435</v>
+        <v>230.570274046032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3540229217752098</v>
+        <v>0.1058388969475293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6012.234427811149</v>
+        <v>-0.005362564006816117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1267265658923786</v>
+        <v>0.9636220865710301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2419.005487361341</v>
+        <v>0.0002101160463487016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3068677988533344</v>
+        <v>0.06433744124505675</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.3831959018455</v>
+        <v>-3.80289675779597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2271763602175438</v>
+        <v>0.7261741476587251</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5667.780345614166</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01110981276917385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1993.862529415403</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4386769256997026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5706.075373930916</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.183772334256573</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-14.12350173853611</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5672382218722795</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1383.87018490658</v>
+        <v>25.84007890190696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2597960243936174</v>
+        <v>0.9906860832621114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.7428889984295</v>
+        <v>89.87956709701831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005104712797591454</v>
+        <v>0.4035961754853208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1215245343261913</v>
+        <v>261.3208605594189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1927242492447912</v>
+        <v>0.02852042038421422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12254.09910977879</v>
+        <v>0.1557795956120901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006201886857146436</v>
+        <v>0.1565918211606044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3237.200292471538</v>
+        <v>0.0001166988239952917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1803259843086078</v>
+        <v>0.07090767145760185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.64870407972137</v>
+        <v>12.71543554589134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.454878192218186</v>
+        <v>0.2597231954142367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4231.358363927411</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06428055768575305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3873.798536897686</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.197175546241848</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14527.43208827174</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.006325653070753327</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.786871368900947</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8186365583102706</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3229.226613858214</v>
+        <v>4225.976701632039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001168524952452808</v>
+        <v>0.01793211593465016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255.582297415787</v>
+        <v>33.9966849413492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001767204855039369</v>
+        <v>0.6707103364536842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06599875063581337</v>
+        <v>312.1888649375057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4726483328361454</v>
+        <v>0.002358335035103467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.344631704447</v>
+        <v>-0.08026966390336221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3903245033744881</v>
+        <v>0.4003889367543418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262.7508625901496</v>
+        <v>9.452078421211285e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8968576761758518</v>
+        <v>0.0918911028625749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.90794599400294</v>
+        <v>-6.362684750831534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7795008044512068</v>
+        <v>0.4715013887862478</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2646.966316770543</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06454932593432389</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>226.2146299982924</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.920119109189776</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3184.359143707647</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2892416967287321</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-14.34399552487319</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4256563990130398</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2646.81006257914</v>
+        <v>3077.690174274841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06300205624555635</v>
+        <v>0.1619476348694448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.3380957306987</v>
+        <v>144.5228312327019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0873899097949298</v>
+        <v>0.2857372741678188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09872894282103362</v>
+        <v>169.4200068133898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4187854203254053</v>
+        <v>0.3623977207970805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4787.644631427103</v>
+        <v>0.1339336900019152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2262642658164312</v>
+        <v>0.3753007001959648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2952.670325085715</v>
+        <v>7.901882121283079e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.307991079685913</v>
+        <v>0.3340443550984674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.2422382128993</v>
+        <v>2.874577332030952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1941517534102331</v>
+        <v>0.8224019193140831</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5932.229715487591</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007053254375473524</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4298.662431325923</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2227157318143598</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8688.892330035913</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04012505509225801</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.037487648366877</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7534816677870715</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2693.139508238506</v>
+        <v>3055.647813672743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02915372352823976</v>
+        <v>0.1557169282818751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.6386649953628</v>
+        <v>165.6174038023591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01765046443400714</v>
+        <v>0.120974372497992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1476761339054339</v>
+        <v>271.6620670096819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2370648142029956</v>
+        <v>0.0334153569706901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3615.832612332304</v>
+        <v>0.1277743653442401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3136410270226191</v>
+        <v>0.347954534037442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3340.937419619448</v>
+        <v>0.0001032155156343843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2320009581626394</v>
+        <v>0.1602322803420779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.1710274108729</v>
+        <v>-0.3010051662985163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09628686818907892</v>
+        <v>0.9783972476711142</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4045.685454799668</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04007059714930744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3100.426516065781</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3127511487853135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5445.290795911593</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1947289041669179</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.12545339118444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6164347860179117</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1994.109046906921</v>
+        <v>2257.534741635306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1137203377310747</v>
+        <v>0.2402601996468147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>294.9024936246415</v>
+        <v>158.3197305295871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00771267716814456</v>
+        <v>0.09765893333726405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1045586285198536</v>
+        <v>271.246369899994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3627400066404974</v>
+        <v>0.01419051578497634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5430.653659856822</v>
+        <v>0.09761383083617529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1472486093812628</v>
+        <v>0.3510353847507873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2014.308575945486</v>
+        <v>8.01639046250878e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4128621331146235</v>
+        <v>0.1990130356093767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.6519193529425</v>
+        <v>3.294844928686885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2420841613172948</v>
+        <v>0.7341066900214509</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6134.041220880047</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001321629279746197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2326.032420317574</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2981416270667496</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8336.392126540421</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03739351635410511</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.120476411686624</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6974569399606674</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2500.205611843627</v>
+        <v>1414.466446871924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05819336209994747</v>
+        <v>0.4877341272620159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.7059958174232</v>
+        <v>40.31080275476793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008933423609556105</v>
+        <v>0.7129629377589938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06936488094090851</v>
+        <v>210.6653139306143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5009156040840848</v>
+        <v>0.07124169145777952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6332.045467675602</v>
+        <v>0.1472148725571016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09354142808301152</v>
+        <v>0.2041662447562345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2885.245583658048</v>
+        <v>0.000115015813032077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2592010841017458</v>
+        <v>0.1017410218427167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.74106687751308</v>
+        <v>6.189352485264159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5142657644898943</v>
+        <v>0.579391940123441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6404.998916202979</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003831017518144653</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5317.145510094429</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07317189579092669</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11035.63691081616</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01114959548883014</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.76976529791231</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3886739084834852</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2709.598813404067</v>
+        <v>2375.116248016956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03515277898351733</v>
+        <v>0.2670901756258743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.5470583528763</v>
+        <v>252.3172230989812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1669907795887166</v>
+        <v>0.1107644984630198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05382463186026748</v>
+        <v>96.22007014646076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6128978280580566</v>
+        <v>0.6311032694266727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4299.47170813716</v>
+        <v>0.1210665099791836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2471482672956462</v>
+        <v>0.3585038531510658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2123.56463525161</v>
+        <v>5.605639072864941e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3736237289671647</v>
+        <v>0.5230642181811633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>250.4237459977381</v>
+        <v>3.52879835764009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07724611551347491</v>
+        <v>0.7622914375641262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4798.174760646813</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01604082681861485</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3824.263172918602</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2032739837232929</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7518.318484671425</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07677175909189898</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.77562203872084</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7577318770844264</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.766352214587</v>
+        <v>1239.46265650106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3256755299634919</v>
+        <v>0.6583783886947937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.0575694844123</v>
+        <v>115.8450554325295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0123599110918291</v>
+        <v>0.2311182982350093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1210397187848214</v>
+        <v>262.7852519945247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22010215078514</v>
+        <v>0.04928620062727666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12509.49719519062</v>
+        <v>0.1251932521805273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002830599001979777</v>
+        <v>0.3295634896825873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2734.875743760639</v>
+        <v>5.993639726915113e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2742753341397879</v>
+        <v>0.3864234337682472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.42441635161177</v>
+        <v>5.244021014541556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3563811341753714</v>
+        <v>0.6712042575496366</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3476.494971062571</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1518543394559721</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2706.942231356933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3433014592244831</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12394.43975636033</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03767422323973741</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.03568592630906</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6780674645387337</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2267.555829653857</v>
+        <v>2710.213000436588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08983651668532315</v>
+        <v>0.2065855513631534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.4649721604148</v>
+        <v>133.3907246019925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01546874674868134</v>
+        <v>0.2689077385590778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07558680093089443</v>
+        <v>262.6491196633602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5099151724615841</v>
+        <v>0.03537617185383926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5497.372096161529</v>
+        <v>0.0198623638635701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1576226559062713</v>
+        <v>0.8744284040020993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2243.771621583414</v>
+        <v>0.0001758061305057607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3933563876939485</v>
+        <v>0.1015558512476721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.7644973806464</v>
+        <v>-2.464160687321936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3569544781439672</v>
+        <v>0.8409279808769249</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6338.405540352462</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.006535618505631468</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1271.386626113782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6537829237906665</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9316.336968263819</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03204158563008334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.283816132891403</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6954373900705403</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2577.373413501388</v>
+        <v>4828.841817612116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01252304986753629</v>
+        <v>0.002105014540519118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.1736756641837</v>
+        <v>157.0430887120661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001073586574548008</v>
+        <v>0.02461102924714467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06527707011413353</v>
+        <v>399.3373976299918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4755183248387607</v>
+        <v>4.332264066638436e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2186.782701546699</v>
+        <v>-0.003293670773091284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4738615340676724</v>
+        <v>0.9606573084355884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1043.400482333796</v>
+        <v>0.0001534878725159869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6102285581493085</v>
+        <v>0.001128362728409706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.39875322410782</v>
+        <v>-4.98805427122862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3553476579593604</v>
+        <v>0.4454948555852805</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3272.316112958077</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005388795484034333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-660.0403627514552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6872019434249488</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>971.5431713699363</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6920227423715539</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-43.85671197669267</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01078626064825865</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3378.366465309197</v>
+        <v>4759.661794289505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005137219730690403</v>
+        <v>0.004064148901920792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.2318050326405</v>
+        <v>191.1634381108263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02236309138944876</v>
+        <v>0.0357661635493052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08015663388632534</v>
+        <v>364.877036156732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3106310837237986</v>
+        <v>0.0007741658323679239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>833.4772206778998</v>
+        <v>0.01016108368399687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7951665708082676</v>
+        <v>0.888032851653284</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2601.858214393715</v>
+        <v>0.0001366238272956037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.179013843999528</v>
+        <v>0.009381964632423554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.7709689707241</v>
+        <v>-5.200170977493485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04371770356272484</v>
+        <v>0.4897721361569799</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3391.822527075808</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0238234558778882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-998.5682542161794</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5628963279642316</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>922.5336165149965</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7627160329779599</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-35.67740009404103</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04765317316800532</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1134.079452834887</v>
+        <v>175.9341336232173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3879407573139786</v>
+        <v>0.9367933235427133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.9402923478781</v>
+        <v>91.15802256666097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005949220198311382</v>
+        <v>0.369395351884044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1036019323937357</v>
+        <v>243.9374782702389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3219250674815378</v>
+        <v>0.04898454894200266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12880.32122172772</v>
+        <v>0.1642793713200712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007312014039236418</v>
+        <v>0.1954428749326189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2364.979814611765</v>
+        <v>0.0001182274188312451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3675575947289843</v>
+        <v>0.06747455277281489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.35163460753097</v>
+        <v>13.98483058851076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.420561761253439</v>
+        <v>0.2340428894113083</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4695.133309183004</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04867373228874596</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4242.844533942528</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2082939333573127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14153.93472332554</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.008286591722633907</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-6.374401217543394</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7983143129432543</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2318.276576295363</v>
+        <v>3084.88075593278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07218237948425796</v>
+        <v>0.1876185578749839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.1169838344045</v>
+        <v>157.2873191233649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02565000508166856</v>
+        <v>0.339731371698082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08252679577299629</v>
+        <v>138.2553598600289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4668300542060958</v>
+        <v>0.4540489654284736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6246.022436991745</v>
+        <v>0.05304633862603336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08618602126830691</v>
+        <v>0.7094747197514781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2609.593305927351</v>
+        <v>8.18274388630862e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3109557632723268</v>
+        <v>0.5206197633961805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.14397627993526</v>
+        <v>0.08724183929358276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7064226625811239</v>
+        <v>0.9943220264220114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5331.942507396914</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0339758872748771</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2757.30092731416</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3933983393622879</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8492.306649867645</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06190226043293735</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8498772419693239</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9766932272201434</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2424.756280947609</v>
+        <v>2358.149871125652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07443196904570522</v>
+        <v>0.2935315245135863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.6453151201226</v>
+        <v>122.395437779898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01619351926103275</v>
+        <v>0.2455978211268796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05175669318513643</v>
+        <v>265.2428338106996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7001250248964976</v>
+        <v>0.04301525392555364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5287.301129776646</v>
+        <v>0.09249948701128685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21039751042595</v>
+        <v>0.5028114280673599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1763.766841467715</v>
+        <v>0.000108516817325425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5309027930812993</v>
+        <v>0.1435291959390671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.3545467373175</v>
+        <v>1.944355007084269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3527601420258281</v>
+        <v>0.8717928168622728</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4878.131042535935</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01404515331954215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2714.378317684523</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3726788212542718</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8416.424938848642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06307400422496423</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-7.459457856517815</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7554190155643692</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2568.419706426897</v>
+        <v>3546.888830704652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07130127868921556</v>
+        <v>0.09837436635913487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.0547017611206</v>
+        <v>238.5426351382168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1007023867978032</v>
+        <v>0.03977262147174956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0421988997441661</v>
+        <v>138.0422484340352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.69929840281913</v>
+        <v>0.4044269081275892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4191.537260021223</v>
+        <v>0.0953935918563461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2697986870253823</v>
+        <v>0.3645093506637921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1719.232389006092</v>
+        <v>5.35745865787943e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.536256657367145</v>
+        <v>0.4670196120967142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.9417935943106</v>
+        <v>0.9200786473623612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182121067062141</v>
+        <v>0.9256111619097135</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6170.642570692097</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00112433691918747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3741.484144117894</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1593991870666047</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6505.917856902101</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0814629315804215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.25012755279036</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8956109661383209</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1996.900960001831</v>
+        <v>1926.655467283839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1076647162564174</v>
+        <v>0.3333429935891888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>277.4275906159417</v>
+        <v>165.0241011944457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01112090796535299</v>
+        <v>0.09216158234417642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07360480702056002</v>
+        <v>267.5599397747151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4364826555823934</v>
+        <v>0.01502006411898999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5773.814679514155</v>
+        <v>0.08298325391053943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09067050770591804</v>
+        <v>0.3847007154425222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1939.656759789591</v>
+        <v>9.285646043344184e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4032949423242259</v>
+        <v>0.1454948042281523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.6534668501615</v>
+        <v>1.055994520924145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1616273780010898</v>
+        <v>0.913860850483202</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5553.320272673966</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002878293031840741</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2212.586931889971</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.309648530690265</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8611.355523567072</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02302057159009432</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04456892324260764</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9982007153481532</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2488.571915954923</v>
+        <v>1301.690110055135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03142641207746688</v>
+        <v>0.3975280179472023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.849344631938</v>
+        <v>76.40081871369955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009853128649441373</v>
+        <v>0.3807886824743152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01113519814165054</v>
+        <v>337.6255011932116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9298778930946341</v>
+        <v>0.001453968509582076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3570.204461191161</v>
+        <v>0.03660656818150176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2746614757493532</v>
+        <v>0.7335716332202649</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217.5353360766649</v>
+        <v>0.0001678312830511897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9428322768347895</v>
+        <v>0.002433319173186846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.70332770339655</v>
+        <v>7.944550799971637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7434031647203502</v>
+        <v>0.3657249118211459</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4749.642063051415</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003004756539052429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1580.368433578401</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5677536551195798</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6734.268957940455</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02930782650276972</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.339981391773406</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8259790006099343</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3046.812315288414</v>
+        <v>3995.186463382305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01417973137032944</v>
+        <v>0.1017195743863057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>208.3806296188087</v>
+        <v>108.547017589324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03609657221906616</v>
+        <v>0.3483194923707015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06005292130110411</v>
+        <v>196.4365342352799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5109779047639718</v>
+        <v>0.1219719410673513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4764.613506081825</v>
+        <v>0.05455800340221642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1791255789816283</v>
+        <v>0.6162297689116812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2873.87931581563</v>
+        <v>5.690549745457303e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1902225670736915</v>
+        <v>0.4777143660685061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.2830546551974</v>
+        <v>-5.443003174964577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2312159149205487</v>
+        <v>0.6522810290830963</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3864.129467500945</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04948675403724256</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3375.446361442902</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1896836713367111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6001.279214983684</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1846964445777126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.612258418636358</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9148292159710382</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2267.948491677751</v>
+        <v>4746.964897847572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1521601986662482</v>
+        <v>0.06486738824159295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.100090535189</v>
+        <v>268.9468492513286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1395353596737048</v>
+        <v>0.06875035815121402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0779496081881498</v>
+        <v>-12.75108059031345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4853752874680164</v>
+        <v>0.952317807781859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5752.742964400652</v>
+        <v>-0.004060188390304642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1334583929656524</v>
+        <v>0.9753140074984785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2264.590556186988</v>
+        <v>0.0001511936739675376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3560367864345645</v>
+        <v>0.184363013078308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.8643270863649</v>
+        <v>-3.389213268641917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2895408359195341</v>
+        <v>0.7753135762639503</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6868.972658325967</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007726032894452018</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3594.429841866578</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2201564700317161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6373.180610520176</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1278736434938126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.65894349793038</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9466555863101173</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>774.9713939247195</v>
+        <v>265.8664329654221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5278965201165509</v>
+        <v>0.9104086663919984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.9058366093792</v>
+        <v>132.3302410287179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004779649360821597</v>
+        <v>0.1918062203837677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1371502079659338</v>
+        <v>310.6355750661755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1631472340539206</v>
+        <v>0.008801350345355442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13886.06627438653</v>
+        <v>0.1162442964915062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003768647521797996</v>
+        <v>0.2969173800200901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2551.564659215424</v>
+        <v>0.0001067071073310123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2236709059561584</v>
+        <v>0.09396289075343345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.48814364789484</v>
+        <v>7.565366076249035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3052803369046088</v>
+        <v>0.5327177619633418</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3159.835175173215</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1544641461045686</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1690.310570230664</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4772017470655274</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15180.26781377984</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005974290786446374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-21.80835782429158</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3301802071808434</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2143.918832674377</v>
+        <v>2949.254673156369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09040179488073199</v>
+        <v>0.1084179910555262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.0341621353036</v>
+        <v>126.1962380272149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007158097207262763</v>
+        <v>0.1746414698400505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1049832481054206</v>
+        <v>274.9359362214475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3524895826349826</v>
+        <v>0.01315075742337997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5042.874942807402</v>
+        <v>0.131347067435844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1700994432875295</v>
+        <v>0.2228606578817077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2143.468353639876</v>
+        <v>7.145463216330725e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4156405284653958</v>
+        <v>0.2524514293787797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.7267336217106</v>
+        <v>2.471740167534513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.296425413765834</v>
+        <v>0.7926971470924841</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6003.941645773286</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001557992497080752</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2529.842917747161</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2842082140246142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7091.704463469869</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05564222514439333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-15.42432194394521</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4737549151654005</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>831.438564448365</v>
+        <v>1277.536710161175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4582957819606895</v>
+        <v>0.3974712913890862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.2184208798279</v>
+        <v>88.78482206547847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004923113749656299</v>
+        <v>0.1982912574435286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07640736398971537</v>
+        <v>367.5556156201061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3472955858306306</v>
+        <v>0.000868225421347384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6847.398456503816</v>
+        <v>0.06118510447108028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02967451419275849</v>
+        <v>0.4236422195382678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.2027985064015</v>
+        <v>0.0001049065626964312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9549151724857246</v>
+        <v>0.04389462515705495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.21821666152186</v>
+        <v>-3.233954595348344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3670151636205481</v>
+        <v>0.6267522764420788</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4493.820010329743</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001696274852494686</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-312.2078812358632</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8613539061724538</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8481.918252642057</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.006417700970869818</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.690663456292011</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7524571399778623</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3768.177466012387</v>
+        <v>3454.715900896526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003076492808948308</v>
+        <v>0.1456544635000858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.3753193243057</v>
+        <v>-24.01091831980295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01001443720465751</v>
+        <v>0.823507421232497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07521270672498925</v>
+        <v>187.6616229972689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4195038816045187</v>
+        <v>0.08742221869154046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4535.788156747206</v>
+        <v>0.1393765415976822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1501167528138466</v>
+        <v>0.2723253293732201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4857.387633263723</v>
+        <v>6.984683302518682e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05595468493827552</v>
+        <v>0.3375116873390344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.356157060911528</v>
+        <v>0.5176058062781692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9526826735844673</v>
+        <v>0.967621060053258</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5149.652812559932</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03200656413879254</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-6502.730880120168</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03864550560464845</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7679.172566001129</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08615588588477117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17.54466547840944</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4486443792918223</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2462.391474135978</v>
+        <v>2230.083259364629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07624893525265747</v>
+        <v>0.3355310461842934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.870882494522</v>
+        <v>229.5642338400178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06530875200262778</v>
+        <v>0.1087450482322579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02853010394587774</v>
+        <v>188.5255761071901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8182413794881462</v>
+        <v>0.285384038493016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4632.085065545976</v>
+        <v>0.03178833521908286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2564812562974699</v>
+        <v>0.8182073054613651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1397.138148476465</v>
+        <v>0.0001495238741795399</v>
       </c>
       <c r="C6" t="n">
-        <v>0.596698404372642</v>
+        <v>0.1835256798596013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.41061221713</v>
+        <v>2.939026601100796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3477418493703595</v>
+        <v>0.8337055290337725</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5797.997775111407</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.008956705036746785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1988.550642031896</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5196128278897172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8446.807083504813</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05148531764767691</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.047499811217392</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8696763602287907</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1052.393218728386</v>
+        <v>548.7784435190897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3862245877010629</v>
+        <v>0.7977381646264609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.4321948810012</v>
+        <v>119.2890386625974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007610842905685789</v>
+        <v>0.2025597416903456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.103882412493033</v>
+        <v>292.1965632544682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3500058481906996</v>
+        <v>0.01630223884641651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12602.78531841734</v>
+        <v>0.04416065461733187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005021091221250491</v>
+        <v>0.7155982119996507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2043.103746824054</v>
+        <v>9.023484007104898e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4269444964903556</v>
+        <v>0.1491002251391534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.83450782015356</v>
+        <v>16.63297737582921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3249698947150131</v>
+        <v>0.1565042140196909</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2571.328769285938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1790873281470706</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-635.342466048703</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8246215690992078</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15605.26064108015</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.004035914940458908</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-50.27215831145516</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07491124876948449</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2783.60830977989</v>
+        <v>3589.491607587111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007573904212421674</v>
+        <v>0.04028627064567782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.458175641802</v>
+        <v>73.55437528262368</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002008228966882579</v>
+        <v>0.4099106079311118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04431599622255153</v>
+        <v>320.3571390558677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.583262565402989</v>
+        <v>0.003166601375066319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4334.837972235283</v>
+        <v>-0.007289066655700005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1298698510933388</v>
+        <v>0.9337622566259245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2244.759148231796</v>
+        <v>0.0001052192861023567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2530843374284825</v>
+        <v>0.08105689491071015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.6136886321235</v>
+        <v>-7.459524722540168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5292413215904826</v>
+        <v>0.3942153825945408</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3140.744085434738</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04450442466547253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1258.322159378486</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5537654648770063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4706.704090784765</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1440954053184026</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.357502294019213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8076430796354291</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3154.284259117399</v>
+        <v>3958.651987181132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01986819364534903</v>
+        <v>0.05215866516259052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>231.6702572493161</v>
+        <v>218.9327650834337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02591311552817026</v>
+        <v>0.06916675451822661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09753429152397741</v>
+        <v>325.8154636130804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3430339096480857</v>
+        <v>0.007787331776827093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2252.744843516896</v>
+        <v>0.06639418334093505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5773110802902448</v>
+        <v>0.5003311846348292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3420.980478422747</v>
+        <v>0.0001342754537438996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1534059095448612</v>
+        <v>0.04958226055318441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.8158627143044</v>
+        <v>0.7330144376018666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07815619537404733</v>
+        <v>0.941899784643411</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4727.237041815338</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01116414336257688</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2403.633511542792</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2917026718423741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3818.729883377906</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3448671098726096</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-34.53048459309895</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1575652794316862</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2854.629271218897</v>
+        <v>2729.838371381235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04723568689597708</v>
+        <v>0.1970564111759737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.5367954677178</v>
+        <v>155.3684389851596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0268722305900798</v>
+        <v>0.1851469820574901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09125428554362774</v>
+        <v>230.0923740738557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4426153732022983</v>
+        <v>0.07251319803721584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4763.15451902837</v>
+        <v>0.06545761353535662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2563859605519617</v>
+        <v>0.616057745762052</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3820.713829674775</v>
+        <v>0.0001033527142105515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2305885341973095</v>
+        <v>0.1626936773325244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.5870623536793</v>
+        <v>-0.1255012122283503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2650959867559443</v>
+        <v>0.9911923234251352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4949.459858056705</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01382020226963479</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2945.837097317217</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3672863089395004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7969.280512267494</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07599725123298953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.495054205043232</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.912638114016122</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2703.976105688312</v>
+        <v>3002.678601810593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03899029084287927</v>
+        <v>0.1610940403255613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.6748467063632</v>
+        <v>138.3578359437992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005687089033391476</v>
+        <v>0.2579249810972077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1297565416011831</v>
+        <v>298.2876889589932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2128337941228943</v>
+        <v>0.02715366807883614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3692.906725541378</v>
+        <v>0.1142589556372631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2929235039203619</v>
+        <v>0.2790917411356973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3303.258640446864</v>
+        <v>0.0001295275441823613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1526281654397263</v>
+        <v>0.06693592834125099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.345163161036</v>
+        <v>2.941404398994425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3255621074629864</v>
+        <v>0.7739381842374218</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5123.432710329428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01262957433787902</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3909.189847946749</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1575411783973991</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5909.383409559614</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1704336238998505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.0248452786502</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.685633975039573</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1171.079913951258</v>
+        <v>-917.0514651751337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3360863345188282</v>
+        <v>0.7140021494435466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.1320886104151</v>
+        <v>187.5688044617481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008571933015767636</v>
+        <v>0.09454269242281683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1083335291962316</v>
+        <v>316.4113695332576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3827693029651488</v>
+        <v>0.012513316390493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11465.20791549114</v>
+        <v>0.09409699600451094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01490916191897899</v>
+        <v>0.469355920912408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2107.258545939483</v>
+        <v>0.0001165627489853495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4154041086168535</v>
+        <v>0.223974282080471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.9938737884697</v>
+        <v>18.83572357725266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2478208319633773</v>
+        <v>0.1774936400935334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2484.397740047735</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2587384233731707</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-568.6037827630807</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8393558462165804</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15958.14391478089</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.007429474983586926</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-38.48722257214988</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1457269832491044</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2835.424477931525</v>
+        <v>3653.904754738208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0330373317986733</v>
+        <v>0.09660793719217199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183.0101468163097</v>
+        <v>109.3475599322592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1280468545359715</v>
+        <v>0.411688857644802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07413687699821601</v>
+        <v>229.6025983686177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4572223721468605</v>
+        <v>0.1828318999042664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4764.012324167747</v>
+        <v>0.06435861824274242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2104326287883662</v>
+        <v>0.5751525553912651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2766.121910717952</v>
+        <v>9.333325347549422e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2434316605492587</v>
+        <v>0.237326451843625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.6804668220051</v>
+        <v>-4.190705991658918</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1684780599705381</v>
+        <v>0.7084021219162648</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5292.303183170772</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00950093539395854</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2827.871370123828</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2939722464090494</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7697.268280880206</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06439599375346346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.057838805479783</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7461287067359283</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/dist_LR/Leipzig.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ04522093" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ04636346" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ04741862" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ04847373" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ04954736" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ05058899" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ05169673" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ05272335" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ05378138" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ05480302" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ05580063" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ05695796" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ05800310" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ05900822" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ06017662" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ06129173" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ06242689" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ06355724" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ06460235" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ06568750" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ06683016" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ06793541" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ06907060" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ07012574" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ07126365" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ07235829" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ07348793" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ07460265" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ07567781" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ07678654" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ07785987" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ07900162" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ08004673" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ08113183" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ08221704" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ08327037" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ08434215" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ08540913" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ08649161" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ08757185" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ08868059" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ08978870" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ09087595" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ09199641" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ09309851" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ09422410" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ09531335" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ09642844" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ09747357" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ09855717" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ26235793" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26350287" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26456314" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26552829" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26652345" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26747453" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ26843712" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ26939229" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27033743" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27123258" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ27227970" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ27318480" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ27414999" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ27503517" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ27593855" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ27684368" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ27772370" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ27863888" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ27953786" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ28044319" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ28133881" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ28229451" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ28319969" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ28410481" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ28499000" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ28588518" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ28698240" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ28804563" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ28922066" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ29032818" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ29163271" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ29253736" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ29341960" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ29428925" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ29522288" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ29626023" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ29713536" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ29800540" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ29887874" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ29978928" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ30067389" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ30155351" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ30245921" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ30338453" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ30428277" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ30516132" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ30605669" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ30700613" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ30790845" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ30879922" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1223.116020066012</v>
+        <v>1092.149689532879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5430123186423235</v>
+        <v>0.614963220290897</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.49787851854907</v>
+        <v>127.9734919151318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4604111272116701</v>
+        <v>0.2505654562202848</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.8797940699217</v>
+        <v>277.0840469591549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1710531705068374</v>
+        <v>0.0162709643540544</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1318939960583695</v>
+        <v>-3.686440401661113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2523084246242996</v>
+        <v>0.6414919738192499</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001817315572655154</v>
+        <v>249.2618738196267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06292762478195797</v>
+        <v>0.01435829418493365</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.727152084984887</v>
+        <v>4.938166498491739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3855861466400096</v>
+        <v>0.6737046424622894</v>
       </c>
     </row>
     <row r="8">
@@ -585,49 +585,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8215.029391253785</v>
+        <v>-69.81382585054115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006464888755649555</v>
+        <v>0.00278142420741511</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5242.887664812522</v>
+        <v>112.8711345908442</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06383539919266891</v>
+        <v>0.01318676872236917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12658.09888842634</v>
+        <v>-5.314654635517016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004443961903244281</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>15.62110305632203</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5137822265797364</v>
+        <v>0.8172426463411355</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2554.490685690792</v>
+        <v>2466.413432093088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1396730413365204</v>
+        <v>0.1388357156527953</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.65342044006974</v>
+        <v>80.1374566208529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2690458427767538</v>
+        <v>0.264815421902251</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.6659133461704</v>
+        <v>353.9904551285692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002418450906143164</v>
+        <v>0.0001662048156058087</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02922823597638807</v>
+        <v>0.3567209897400687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7580431948343308</v>
+        <v>0.9549116503284004</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.302849262709888e-05</v>
+        <v>99.52670596908141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08450426689982304</v>
+        <v>0.04666939372277641</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.34407572412368</v>
+        <v>-4.764355115814464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6093047623772802</v>
+        <v>0.5621993047915643</v>
       </c>
     </row>
     <row r="8">
@@ -751,49 +738,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4772.466130979772</v>
+        <v>-46.05171765230764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004151715887628049</v>
+        <v>0.002926468860951489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-760.4130422528542</v>
+        <v>68.58576290299661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7113866403298648</v>
+        <v>0.03193771230897065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6970.968605373722</v>
+        <v>-3.634973939345926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03471031121799028</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1.739512208395503</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.915347141822406</v>
+        <v>0.810598532148764</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6386.850252582195</v>
+        <v>5499.884903605387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0439860247662907</v>
+        <v>0.08337358668417431</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.32405569283418</v>
+        <v>82.31509416484349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49773682092836</v>
+        <v>0.4647545637068696</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.8569862024362</v>
+        <v>257.6316579509678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2525305927229543</v>
+        <v>0.03266020347480935</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0005204909687508419</v>
+        <v>-12.54952142596454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9969057494006744</v>
+        <v>0.2712731698532878</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.670398383519765e-05</v>
+        <v>80.5935868992006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6433740764820224</v>
+        <v>0.3023576426233729</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.77038918134707</v>
+        <v>-15.38553609986473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3115190239700588</v>
+        <v>0.3419516398557403</v>
       </c>
     </row>
     <row r="8">
@@ -917,49 +891,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3098.90388774317</v>
+        <v>-25.34293833333325</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1646223462521288</v>
+        <v>0.2627108588993798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4066.504758977559</v>
+        <v>29.68028584805464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1338570162991784</v>
+        <v>0.5729996281405523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2756.146170909169</v>
+        <v>-6.432226330617178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5855989284636283</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.144421380329824</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8016452265678988</v>
+        <v>0.7891323754201012</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2112.055895135691</v>
+        <v>1915.817729973023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3117034947809983</v>
+        <v>0.3877228752874515</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.6013293530778</v>
+        <v>176.0032746718704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2582890853128298</v>
+        <v>0.1418108173664837</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.5171564085551</v>
+        <v>384.5691755636819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0720673937091999</v>
+        <v>0.002290618535852681</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1637415278236833</v>
+        <v>-1.249602471004934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1895430524722745</v>
+        <v>0.8750612791086145</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001422367825165885</v>
+        <v>180.0843665917252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03797834163827309</v>
+        <v>0.01163152628154672</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.466639993294521</v>
+        <v>1.743304083043967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4196885649558757</v>
+        <v>0.8802827504944466</v>
       </c>
     </row>
     <row r="8">
@@ -1083,49 +1044,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6316.855058627591</v>
+        <v>-47.95630070967925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002758537811090395</v>
+        <v>0.01187499065045087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5702.665118110304</v>
+        <v>74.56753125813304</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08065562229016897</v>
+        <v>0.07623854914884598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8458.331328407941</v>
+        <v>-20.37997457501727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03751080669863296</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-4.95199594836604</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8489783903880324</v>
+        <v>0.4424937044238638</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2887.00289124041</v>
+        <v>2704.650018337788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1183206912349059</v>
+        <v>0.1300941515739428</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.97313605067814</v>
+        <v>41.0593589932048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6348947729946196</v>
+        <v>0.6831170341460714</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.983426666727</v>
+        <v>312.0607500434338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0159111897866631</v>
+        <v>0.002869985300131545</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06141436539342311</v>
+        <v>0.7619106269608338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5568654903701442</v>
+        <v>0.9054571674906418</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.995838487490207e-05</v>
+        <v>73.71169990596621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3524247065466534</v>
+        <v>0.2227062166473348</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1184,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.942599620676337</v>
+        <v>-3.785577046787342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6889106044484768</v>
+        <v>0.6955991134081903</v>
       </c>
     </row>
     <row r="8">
@@ -1249,49 +1197,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7351.147334121402</v>
+        <v>-71.98242622285045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001087971970391872</v>
+        <v>0.0009556731522645258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1602.839720486367</v>
+        <v>100.1205909959422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5092057860126777</v>
+        <v>0.01034958324401656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9957.206788651509</v>
+        <v>-5.889108856618165</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01234172805249926</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.02324182512455764</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9991289433111799</v>
+        <v>0.7574823467299013</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>762.4333845067868</v>
+        <v>596.6222113719177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7413764798601471</v>
+        <v>0.7814515655057112</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173.422288378598</v>
+        <v>178.9628029761599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1047178064081674</v>
+        <v>0.07919334263371153</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.3009873717456</v>
+        <v>328.6758964885123</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01034519538446309</v>
+        <v>0.004605477647552181</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08236343784046019</v>
+        <v>6.036675973947665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.489256567308912</v>
+        <v>0.4338314312425583</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001501628743353735</v>
+        <v>162.685622736386</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1307080024973644</v>
+        <v>0.05260809322014556</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1337,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.472218521417588</v>
+        <v>8.744495466798824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4530411866755785</v>
+        <v>0.4240446415799609</v>
       </c>
     </row>
     <row r="8">
@@ -1415,49 +1350,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3210.13989418079</v>
+        <v>-31.93281716370938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1456405053281165</v>
+        <v>0.1364382451808626</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-684.6368793980464</v>
+        <v>128.0032608142468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8035735620663924</v>
+        <v>0.01810272043606344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12709.67176798419</v>
+        <v>-35.81528431189781</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02261352712052565</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-34.1391574253004</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1524473448206535</v>
+        <v>0.108803890194661</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2806.151411404457</v>
+        <v>2790.648650420778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09779823771460974</v>
+        <v>0.09138857860391468</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.1804455119427</v>
+        <v>127.3248945984662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2155287181672389</v>
+        <v>0.2299144464159951</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.5071981420792</v>
+        <v>327.9073745427429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05849020957798612</v>
+        <v>0.006624801242101595</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005936552342678203</v>
+        <v>-3.987545800469366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9525072985012931</v>
+        <v>0.4997838541324917</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001238967087701593</v>
+        <v>138.6120896427142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07049876928957964</v>
+        <v>0.01796776834674818</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1490,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.297845643120066</v>
+        <v>-4.083096457193946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7027207812411809</v>
+        <v>0.6207970043263793</v>
       </c>
     </row>
     <row r="8">
@@ -1581,49 +1503,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3985.974276610784</v>
+        <v>-37.70393469493935</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01159282466216953</v>
+        <v>0.009018219869219123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-962.1414942815127</v>
+        <v>57.42785873878323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6702647562739019</v>
+        <v>0.07954173991207736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6022.782635034151</v>
+        <v>-9.634716574142175</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07939464914198832</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-5.31303862180927</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7915586712219029</v>
+        <v>0.5711646655170779</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4027.440079801121</v>
+        <v>3672.108509361756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09459129239155684</v>
+        <v>0.1057563040526817</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.1360214652384</v>
+        <v>253.5702816504735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07107417384115243</v>
+        <v>0.04681663837268716</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8802314195687</v>
+        <v>166.9859093689813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3462148366509575</v>
+        <v>0.2205994894672049</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04873703007042873</v>
+        <v>-10.2971302188839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7062501135889354</v>
+        <v>0.2632006641070294</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000212306328631611</v>
+        <v>248.1956233759387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08541883524728898</v>
+        <v>0.02131227060933616</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.930814700153746</v>
+        <v>-5.89326885705389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6044968175094814</v>
+        <v>0.5995731906362786</v>
       </c>
     </row>
     <row r="8">
@@ -1747,49 +1656,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6467.097017127508</v>
+        <v>-65.40298223378586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01154546277138925</v>
+        <v>0.009099654902887147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1715.942502807508</v>
+        <v>66.49744474627792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5505943260922028</v>
+        <v>0.1142138173452621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6395.209602534768</v>
+        <v>-7.51012266932738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1375452511668644</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-2.474650899168154</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9133691101144836</v>
+        <v>0.7176215364890675</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.505476958488</v>
+        <v>1522.967886728238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3469756531656158</v>
+        <v>0.437696914769019</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.6388681621309</v>
+        <v>163.9237296695648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1156981006403335</v>
+        <v>0.1008720418896201</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.3742766110929</v>
+        <v>325.6154646068102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02570094360191165</v>
+        <v>0.002981316611920493</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07926835957838274</v>
+        <v>1.391958070526705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4680780568433711</v>
+        <v>0.8551830241379783</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.926324279789693e-05</v>
+        <v>111.7532965555467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1899901469422473</v>
+        <v>0.07732345540008309</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1796,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.304798659256086</v>
+        <v>-2.552761483879372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8999803749889698</v>
+        <v>0.80241888350457</v>
       </c>
     </row>
     <row r="8">
@@ -1913,49 +1809,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5607.258852900308</v>
+        <v>-51.61373049685572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004809539571582728</v>
+        <v>0.005505702306460586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2067.596704775137</v>
+        <v>85.60583842177817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3974213292873192</v>
+        <v>0.02187083749258521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8677.497942867074</v>
+        <v>2.831600717854784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02194910341722738</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.823528537716976</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7968615948134443</v>
+        <v>0.8982862513294654</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>599.9462431326265</v>
+        <v>419.648737737748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828587669789054</v>
+        <v>0.878654679144748</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173.3951073067371</v>
+        <v>184.038924061031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1558879815919508</v>
+        <v>0.1291250075369606</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.6163664809918</v>
+        <v>385.0097406595855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00506247531728901</v>
+        <v>0.0004679986263530355</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1443974845256424</v>
+        <v>7.593911869310013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2095349209087481</v>
+        <v>0.3656957071369524</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001041275872264568</v>
+        <v>125.7679667684973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1264223078844576</v>
+        <v>0.05117082354906954</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +1949,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.21917476508707</v>
+        <v>11.42820333430104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3393481115344628</v>
+        <v>0.3277530617816652</v>
       </c>
     </row>
     <row r="8">
@@ -2079,49 +1962,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2681.724818040138</v>
+        <v>-22.42956301096977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207358054971874</v>
+        <v>0.2722527560845451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1997.071676345204</v>
+        <v>129.2933688174656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3681683800024406</v>
+        <v>0.07413775382444208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13331.75226898827</v>
+        <v>-46.78155536661516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06893740392150571</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-37.57227474245932</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1677539778189938</v>
+        <v>0.06717177962409361</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3283.364169619083</v>
+        <v>3438.278759665423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06190870082916933</v>
+        <v>0.04354079550266312</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.198646478491696</v>
+        <v>25.5636364301854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9459405691742857</v>
+        <v>0.7943979340506216</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.5345289552258</v>
+        <v>344.4280117600646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01063503366993355</v>
+        <v>0.005412193839741869</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1054960322901804</v>
+        <v>-5.409930594421347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3663430908564946</v>
+        <v>0.3579800126626942</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001236231230285848</v>
+        <v>108.5756130084113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06064615584365456</v>
+        <v>0.05706477294536538</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2102,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.078283332802116</v>
+        <v>-3.789568178780328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7552434303608101</v>
+        <v>0.6924393968786766</v>
       </c>
     </row>
     <row r="8">
@@ -2245,49 +2115,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2810.068814701923</v>
+        <v>-30.96182684720656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07235297919183828</v>
+        <v>0.032357456265912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1404.207717037441</v>
+        <v>43.53926042039059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6046806435502381</v>
+        <v>0.1640008941850063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4000.311535660208</v>
+        <v>-11.32414693110915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2191515209573424</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-17.02821146717847</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4109305278046875</v>
+        <v>0.5067241540617892</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-432.0958738089921</v>
+        <v>-660.3540345000365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8690957951536418</v>
+        <v>0.7977834726646962</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.0166968700132</v>
+        <v>138.6154918538091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2065687761227192</v>
+        <v>0.1893406049116466</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.1667724947162</v>
+        <v>350.8849043360777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01129118954486432</v>
+        <v>0.001759064820850118</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1541793726550963</v>
+        <v>8.413058365999269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2441060728416852</v>
+        <v>0.3724840178979034</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001083685440340747</v>
+        <v>126.4285070390659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1031929657170751</v>
+        <v>0.04329532174917448</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2255,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.25140349904696</v>
+        <v>11.68671404279091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3520640586078827</v>
+        <v>0.3676526479091526</v>
       </c>
     </row>
     <row r="8">
@@ -2411,49 +2268,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2870.923525749984</v>
+        <v>-24.61516423668418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2166479844888297</v>
+        <v>0.268066947452364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1983.809493177945</v>
+        <v>160.9727505780789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4345561242018531</v>
+        <v>0.007034817128276002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16116.81194256719</v>
+        <v>-31.48144449167216</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007887658926494174</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-25.58225699622446</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2810452614131195</v>
+        <v>0.1611413568999849</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1820.011617212978</v>
+        <v>1866.893693123014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3875013979391052</v>
+        <v>0.4160588947363476</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.88712852748904</v>
+        <v>101.7083767340068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5002041784010327</v>
+        <v>0.3586949381700727</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.4425574614714</v>
+        <v>312.0225836221591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09724572945198361</v>
+        <v>0.00535451514906689</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1911965772577194</v>
+        <v>-1.76415718466688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1268254275002891</v>
+        <v>0.8124341390567955</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001193515083550957</v>
+        <v>152.452370161392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07073860180295452</v>
+        <v>0.03174456930045285</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2408,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.59471116798397</v>
+        <v>2.977551500853162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3635144449045521</v>
+        <v>0.8030482084266721</v>
       </c>
     </row>
     <row r="8">
@@ -2577,49 +2421,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6524.14747899083</v>
+        <v>-50.30990795628291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002390833237452355</v>
+        <v>0.01393360827693142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6326.346735150606</v>
+        <v>88.05127105843633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04888312623117712</v>
+        <v>0.05246096656757622</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9848.953622998002</v>
+        <v>-12.04864504453609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02211083446638579</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.112055898841597</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7801658626258666</v>
+        <v>0.5841809671119378</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3908.349597631712</v>
+        <v>3930.953171947865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02251648803703528</v>
+        <v>0.01756752233877535</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.4779581603944</v>
+        <v>129.8160364182304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1353846004729825</v>
+        <v>0.1247078161252643</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.9948826463532</v>
+        <v>300.5553759614394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003170113139908789</v>
+        <v>0.001185229836553894</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09329478877890263</v>
+        <v>-8.16131192355779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3728482300635266</v>
+        <v>0.185686754866954</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001980822919735202</v>
+        <v>192.76982911397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01697121331664604</v>
+        <v>0.006779212232799263</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2561,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.47153930531433</v>
+        <v>-9.198849352349207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2721618456580525</v>
+        <v>0.2586512472450047</v>
       </c>
     </row>
     <row r="8">
@@ -2743,49 +2574,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4219.120595440627</v>
+        <v>-42.49374348886839</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008272875679939232</v>
+        <v>0.005708489289161392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.6078165092808</v>
+        <v>46.08678299648381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8877940111765723</v>
+        <v>0.1188340845467136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4562.836834887263</v>
+        <v>-12.94391959903315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1361788031684743</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-13.4728419029867</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4201431495470855</v>
+        <v>0.4121346434109173</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2831,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.203793450326</v>
+        <v>508.8696792110968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6104034723060837</v>
+        <v>0.8050725465137429</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.2224494513857</v>
+        <v>149.5105205788716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2208233716554419</v>
+        <v>0.17346308830035</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.4424349144389</v>
+        <v>340.9452362459924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01326237013200626</v>
+        <v>0.001685364851694602</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09870282143909853</v>
+        <v>3.823836654074995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3123561200810858</v>
+        <v>0.6081875201426821</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.521842085006782e-05</v>
+        <v>91.76477666231256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.348788779448743</v>
+        <v>0.1587495784237296</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.809511620555064</v>
+        <v>9.784206848163286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4080714319572847</v>
+        <v>0.3567598197874465</v>
       </c>
     </row>
     <row r="8">
@@ -2909,49 +2727,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2264.481683237313</v>
+        <v>-19.20494495957183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2317311112629997</v>
+        <v>0.2983666112071252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2207.773595932406</v>
+        <v>151.8210969400247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3284108735170718</v>
+        <v>0.006583046583900212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14772.46696191253</v>
+        <v>-40.11824194096498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008443164291234557</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-31.92796723117839</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2014977041239597</v>
+        <v>0.09324925037665248</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2613.239121028609</v>
+        <v>2287.61356741702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1817801613015851</v>
+        <v>0.2310398188987622</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.6916902992014</v>
+        <v>145.3274445006735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1216715679278257</v>
+        <v>0.1429517466897156</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.7127453991312</v>
+        <v>313.2412745856433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02465955880066812</v>
+        <v>0.003303443314332235</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1245868163581205</v>
+        <v>2.732726646534427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3111410460627004</v>
+        <v>0.6895099340364108</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.756882173664158e-05</v>
+        <v>86.12251293868482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2991729206846789</v>
+        <v>0.169834820195319</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +2867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.726170892520933</v>
+        <v>3.259748977238914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7187311974751277</v>
+        <v>0.7519431868393494</v>
       </c>
     </row>
     <row r="8">
@@ -3075,49 +2880,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5721.391957098105</v>
+        <v>-54.98851828096751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003347745814867572</v>
+        <v>0.003870304566541004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2704.24187362205</v>
+        <v>74.79765693800306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3371640676516956</v>
+        <v>0.06597275520066224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7179.917300606046</v>
+        <v>-18.30041498642633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07856879660335579</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-11.57028044123366</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6025097589793045</v>
+        <v>0.388428185997715</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3163,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.352005875893</v>
+        <v>1382.685818808051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4157752746765089</v>
+        <v>0.501545702470267</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.25631127115255</v>
+        <v>37.55319655406115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8047372185297621</v>
+        <v>0.7873133034980491</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.4997945239905</v>
+        <v>382.2823250894226</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1095381744410582</v>
+        <v>0.01010908429252895</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1305454067262892</v>
+        <v>0.5846550204639378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2405822307412883</v>
+        <v>0.9358477426116139</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001366877323861416</v>
+        <v>180.8106790497989</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08171288238050783</v>
+        <v>0.01925257970309762</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3020,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.508079026929657</v>
+        <v>-0.008693610613146774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7419838991974558</v>
+        <v>0.9993539386907548</v>
       </c>
     </row>
     <row r="8">
@@ -3241,49 +3033,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6680.896046447895</v>
+        <v>-56.67474223242324</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002259855710999449</v>
+        <v>0.005544465700546894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4159.993070743683</v>
+        <v>103.4877475034939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147190399863158</v>
+        <v>0.01459449891788047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10785.35232110421</v>
+        <v>-6.803891855847013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009805984973146364</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11.41376745638986</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6293322972645712</v>
+        <v>0.7448982774827961</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3329,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3265.545242917335</v>
+        <v>2580.1420030688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1816499504520681</v>
+        <v>0.27116980619355</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.3096233907896</v>
+        <v>148.0315426274851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.149787002279652</v>
+        <v>0.1666893962457594</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.404237844897</v>
+        <v>280.9894463723909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1170784063401251</v>
+        <v>0.02176883195758717</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06016826709195963</v>
+        <v>-3.965589599575813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6333939418673523</v>
+        <v>0.6447977331528811</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.88003099573818e-05</v>
+        <v>125.0479461419017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1711528699610724</v>
+        <v>0.07130134349102456</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3173,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.539798974086342</v>
+        <v>-0.5096342810718113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8333507587807245</v>
+        <v>0.9660506194570013</v>
       </c>
     </row>
     <row r="8">
@@ -3407,49 +3186,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4572.818316872273</v>
+        <v>-40.26783396486497</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02383066234084883</v>
+        <v>0.03669483420770241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3136.366545245082</v>
+        <v>65.36339169126154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2877537394468902</v>
+        <v>0.1343880526336417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6851.275349776193</v>
+        <v>-8.97921464634533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1176104587078767</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.1312226270978165</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9954133549421944</v>
+        <v>0.6757419223930606</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3495,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3703.92101430876</v>
+        <v>3281.318023053891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1092495361435644</v>
+        <v>0.1357042958004855</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.4368975321851</v>
+        <v>266.19745175572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04874312842423222</v>
+        <v>0.03621513668907237</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.570274046032</v>
+        <v>277.8790920248148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1058388969475293</v>
+        <v>0.03243581772946013</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005362564006816117</v>
+        <v>-6.827478796376177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9636220865710301</v>
+        <v>0.4247731272154963</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002101160463487016</v>
+        <v>247.3645099738675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06433744124505675</v>
+        <v>0.0172456628127437</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.80289675779597</v>
+        <v>-3.895054996829693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7261741476587251</v>
+        <v>0.7165949254782933</v>
       </c>
     </row>
     <row r="8">
@@ -3573,49 +3339,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5667.780345614166</v>
+        <v>-54.75942065781452</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01110981276917385</v>
+        <v>0.01168075519915915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1993.862529415403</v>
+        <v>57.10854240028046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4386769256997026</v>
+        <v>0.1777909676768014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5706.075373930916</v>
+        <v>-20.17788891426667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.183772334256573</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-14.12350173853611</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5672382218722795</v>
+        <v>0.3863117698207842</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.84007890190696</v>
+        <v>-519.2864037440158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9906860832621114</v>
+        <v>0.8155439027665531</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.87956709701831</v>
+        <v>130.92908304399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4035961754853208</v>
+        <v>0.2190104994991118</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.3208605594189</v>
+        <v>337.0186849868235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02852042038421422</v>
+        <v>0.002484381646279819</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1557795956120901</v>
+        <v>5.575977580092591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1565918211606044</v>
+        <v>0.4709469918129102</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001166988239952917</v>
+        <v>137.644074276594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07090767145760185</v>
+        <v>0.03387105516047868</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.71543554589134</v>
+        <v>11.94708871299854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2597231954142367</v>
+        <v>0.2977933042124479</v>
       </c>
     </row>
     <row r="8">
@@ -3739,49 +3492,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4231.358363927411</v>
+        <v>-29.90841279261259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06428055768575305</v>
+        <v>0.1462760507240088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3873.798536897686</v>
+        <v>152.6303775326414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197175546241848</v>
+        <v>0.004754294549052777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14527.43208827174</v>
+        <v>-24.98838974786635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006325653070753327</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-5.786871368900947</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8186365583102706</v>
+        <v>0.245934773703463</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4225.976701632039</v>
+        <v>4269.297146183493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01793211593465016</v>
+        <v>0.01113559651132266</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.9966849413492</v>
+        <v>34.96090438380523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6707103364536842</v>
+        <v>0.6497029039087185</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.1888649375057</v>
+        <v>307.9433784809131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002358335035103467</v>
+        <v>0.0006217600210235882</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08026966390336221</v>
+        <v>-7.26421317135269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4003889367543418</v>
+        <v>0.1914431316746543</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.452078421211285e-05</v>
+        <v>92.65197719234095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0918911028625749</v>
+        <v>0.07022557530185447</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3632,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.362684750831534</v>
+        <v>-6.545434375498367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4715013887862478</v>
+        <v>0.4351789885761685</v>
       </c>
     </row>
     <row r="8">
@@ -3905,49 +3645,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2646.966316770543</v>
+        <v>-26.81040011809395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06454932593432389</v>
+        <v>0.04712375378719113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.2146299982924</v>
+        <v>32.08655624614286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.920119109189776</v>
+        <v>0.2692911336326109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3184.359143707647</v>
+        <v>-13.63190249487369</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2892416967287321</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-14.34399552487319</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4256563990130398</v>
+        <v>0.3949368312485012</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3993,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3077.690174274841</v>
+        <v>2839.975548259396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1619476348694448</v>
+        <v>0.1993190412903843</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.5228312327019</v>
+        <v>100.3339482529168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2857372741678188</v>
+        <v>0.4450089141386786</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.4200068133898</v>
+        <v>317.9612040920645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3623977207970805</v>
+        <v>0.03575120175480764</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1339336900019152</v>
+        <v>-2.1120343836457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3753007001959648</v>
+        <v>0.8015012875156454</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.901882121283079e-05</v>
+        <v>131.0001313820662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3340443550984674</v>
+        <v>0.07442263700601832</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +3785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.874577332030952</v>
+        <v>-3.067150698899354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8224019193140831</v>
+        <v>0.799495167360732</v>
       </c>
     </row>
     <row r="8">
@@ -4071,49 +3798,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5932.229715487591</v>
+        <v>-52.42887739841271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007053254375473524</v>
+        <v>0.01251161808934771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4298.662431325923</v>
+        <v>85.61552358834729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2227157318143598</v>
+        <v>0.04497739562914718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8688.892330035913</v>
+        <v>-16.79387597790312</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04012505509225801</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-8.037487648366877</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7534816677870715</v>
+        <v>0.5037488729440049</v>
       </c>
     </row>
   </sheetData>
@@ -4127,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3055.647813672743</v>
+        <v>2702.766648176082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1557169282818751</v>
+        <v>0.2002117543989314</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.6174038023591</v>
+        <v>155.1027193140206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120974372497992</v>
+        <v>0.142546903492808</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271.6620670096819</v>
+        <v>332.1786378433306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0334153569706901</v>
+        <v>0.004497993904049718</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1277743653442401</v>
+        <v>1.550544932432624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.347954534037442</v>
+        <v>0.8422826474934936</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001032155156343843</v>
+        <v>126.960764666099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1602322803420779</v>
+        <v>0.07306423965012683</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +3938,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3010051662985163</v>
+        <v>-1.17018575193412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9783972476711142</v>
+        <v>0.9160668834373881</v>
       </c>
     </row>
     <row r="8">
@@ -4237,49 +3951,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4045.685454799668</v>
+        <v>-36.54187218352975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04007059714930744</v>
+        <v>0.05527226581578607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3100.426516065781</v>
+        <v>56.75709299904219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3127511487853135</v>
+        <v>0.1767874499977126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5445.290795911593</v>
+        <v>-19.77447877521323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1947289041669179</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-12.12545339118444</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6164347860179117</v>
+        <v>0.3944041906049082</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4325,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2257.534741635306</v>
+        <v>2045.783483816112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2402601996468147</v>
+        <v>0.2839593786122146</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3197305295871</v>
+        <v>161.6078412006351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09765893333726405</v>
+        <v>0.09151386133741</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271.246369899994</v>
+        <v>322.1829671250216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01419051578497634</v>
+        <v>0.001716756293106933</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09761383083617529</v>
+        <v>1.661169533396375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3510353847507873</v>
+        <v>0.8113934543600716</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.01639046250878e-05</v>
+        <v>102.8830335137199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1990130356093767</v>
+        <v>0.08456790780384256</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4091,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.294844928686885</v>
+        <v>2.852583075040577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7341066900214509</v>
+        <v>0.76913619143805</v>
       </c>
     </row>
     <row r="8">
@@ -4403,49 +4104,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6134.041220880047</v>
+        <v>-58.10844622890772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001321629279746197</v>
+        <v>0.001693798977187886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2326.032420317574</v>
+        <v>80.39248294716366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2981416270667496</v>
+        <v>0.04325585880864674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8336.392126540421</v>
+        <v>-15.78955212892585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03739351635410511</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-8.120476411686624</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6974569399606674</v>
+        <v>0.4248095185692395</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1414.466446871924</v>
+        <v>1334.594600906041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4877341272620159</v>
+        <v>0.5415058847533938</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.31080275476793</v>
+        <v>109.9130379698761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7129629377589938</v>
+        <v>0.3275453309717536</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.6653139306143</v>
+        <v>318.019786755516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07124169145777952</v>
+        <v>0.005727257228685268</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1472148725571016</v>
+        <v>-1.715601166669693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2041662447562345</v>
+        <v>0.8246177966549403</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000115015813032077</v>
+        <v>154.8085783720117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1017410218427167</v>
+        <v>0.03527897438048602</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4244,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.189352485264159</v>
+        <v>1.776226621720831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.579391940123441</v>
+        <v>0.8791350642031182</v>
       </c>
     </row>
     <row r="8">
@@ -4569,49 +4257,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6404.998916202979</v>
+        <v>-49.79256303001715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003831017518144653</v>
+        <v>0.01671275533004946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5317.145510094429</v>
+        <v>94.71665721181191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07317189579092669</v>
+        <v>0.03165123146465454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11035.63691081616</v>
+        <v>-1.958523089958568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01114959548883014</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>19.76976529791231</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3886739084834852</v>
+        <v>0.9256468277252394</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2375.116248016956</v>
+        <v>2127.560871521189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2670901756258743</v>
+        <v>0.3257743963411313</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.3172230989812</v>
+        <v>199.8808529337883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1107644984630198</v>
+        <v>0.1926050427152565</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.22007014646076</v>
+        <v>251.1758173618518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6311032694266727</v>
+        <v>0.1384634690943136</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1210665099791836</v>
+        <v>-1.361477313676943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3585038531510658</v>
+        <v>0.8664913665465859</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.605639072864941e-05</v>
+        <v>116.5810478924791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5230642181811633</v>
+        <v>0.1352170543372515</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.52879835764009</v>
+        <v>0.7386481361872868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7622914375641262</v>
+        <v>0.9496391772332965</v>
       </c>
     </row>
     <row r="8">
@@ -4735,49 +4410,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4798.174760646813</v>
+        <v>-41.37178634888933</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01604082681861485</v>
+        <v>0.03018411556679704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3824.263172918602</v>
+        <v>73.32311713420629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2032739837232929</v>
+        <v>0.08863265390012398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7518.318484671425</v>
+        <v>-8.203711668361017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07677175909189898</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8.77562203872084</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7577318770844264</v>
+        <v>0.7507897531825793</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1239.46265650106</v>
+        <v>612.3116874474085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6583783886947937</v>
+        <v>0.8214487695097582</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.8450554325295</v>
+        <v>113.9819247952441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2311182982350093</v>
+        <v>0.2366400276843625</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.7852519945247</v>
+        <v>331.4625578079808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04928620062727666</v>
+        <v>0.004528493942067865</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1251932521805273</v>
+        <v>4.440910817500261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3295634896825873</v>
+        <v>0.6387567026990837</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.993639726915113e-05</v>
+        <v>80.30631742054305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3864234337682472</v>
+        <v>0.2259128373394095</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4550,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.244021014541556</v>
+        <v>5.357557412228221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6712042575496366</v>
+        <v>0.663769825390238</v>
       </c>
     </row>
     <row r="8">
@@ -4901,49 +4563,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3476.494971062571</v>
+        <v>-29.93394101710564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1518543394559721</v>
+        <v>0.201643036250876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2706.942231356933</v>
+        <v>131.5242437708866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3433014592244831</v>
+        <v>0.02633349805412168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12394.43975636033</v>
+        <v>-18.19127768807893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03767422323973741</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-10.03568592630906</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6780674645387337</v>
+        <v>0.4236438941203752</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2710.213000436588</v>
+        <v>2578.126489902679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2065855513631534</v>
+        <v>0.2132802541983763</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.3907246019925</v>
+        <v>134.2361556162319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2689077385590778</v>
+        <v>0.2547275618862206</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.6491196633602</v>
+        <v>282.7202416956868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03537617185383926</v>
+        <v>0.01393321677326399</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0198623638635701</v>
+        <v>-2.526637301061157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8744284040020993</v>
+        <v>0.7328439076924111</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001758061305057607</v>
+        <v>196.3841976615141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1015558512476721</v>
+        <v>0.04055067489992183</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +4703,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.464160687321936</v>
+        <v>-2.726702384541206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8409279808769249</v>
+        <v>0.8199923222625383</v>
       </c>
     </row>
     <row r="8">
@@ -5067,49 +4716,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6338.405540352462</v>
+        <v>-63.04559052326782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006535618505631468</v>
+        <v>0.005497495587167373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1271.386626113782</v>
+        <v>93.47725720938837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6537829237906665</v>
+        <v>0.02760678556776115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9316.336968263819</v>
+        <v>-13.03907827334085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03204158563008334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-9.283816132891403</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6954373900705403</v>
+        <v>0.5486428749920222</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5155,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4828.841817612116</v>
+        <v>4651.758752669215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002105014540519118</v>
+        <v>0.001380203531813082</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.0430887120661</v>
+        <v>155.5145179564083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02461102924714467</v>
+        <v>0.02209888845690972</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>399.3373976299918</v>
+        <v>415.2566506717138</v>
       </c>
       <c r="C4" t="n">
-        <v>4.332264066638436e-05</v>
+        <v>2.100686994027321e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003293670773091284</v>
+        <v>-2.235438808290816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9606573084355884</v>
+        <v>0.6285828710663814</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001534878725159869</v>
+        <v>159.721403657409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001128362728409706</v>
+        <v>0.000265681954342394</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +4856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.98805427122862</v>
+        <v>-4.840289181276432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4454948555852805</v>
+        <v>0.4470550193961661</v>
       </c>
     </row>
     <row r="8">
@@ -5233,49 +4869,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3272.316112958077</v>
+        <v>-31.31885781035433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005388795484034333</v>
+        <v>0.003858344383178374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-660.0403627514552</v>
+        <v>8.933936720034296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6872019434249488</v>
+        <v>0.7079653049836412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>971.5431713699363</v>
+        <v>-44.65314319003969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6920227423715539</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-43.85671197669267</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01078626064825865</v>
+        <v>0.00754331774665151</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5321,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4759.661794289505</v>
+        <v>4556.731493424058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004064148901920792</v>
+        <v>0.003630374076021333</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.1634381108263</v>
+        <v>186.1942247150162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0357661635493052</v>
+        <v>0.03517552598607762</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.877036156732</v>
+        <v>395.0111520135113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007741658323679239</v>
+        <v>3.200881024025019e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01016108368399687</v>
+        <v>-1.893878662467845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.888032851653284</v>
+        <v>0.7105839408622645</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001366238272956037</v>
+        <v>147.2370073638967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009381964632423554</v>
+        <v>0.002631979676670364</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5009,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.200170977493485</v>
+        <v>-5.360018075416935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4897721361569799</v>
+        <v>0.4673083250855605</v>
       </c>
     </row>
     <row r="8">
@@ -5399,49 +5022,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3391.822527075808</v>
+        <v>-32.07670042657841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0238234558778882</v>
+        <v>0.02420688406877523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-998.5682542161794</v>
+        <v>9.616062100923102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5628963279642316</v>
+        <v>0.7480213675285234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.5336165149965</v>
+        <v>-38.74355860521064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7627160329779599</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-35.67740009404103</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04765317316800532</v>
+        <v>0.02294754071458108</v>
       </c>
     </row>
   </sheetData>
@@ -5455,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5487,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175.9341336232173</v>
+        <v>-305.7388467500859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9367933235427133</v>
+        <v>0.891003138117081</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.15802256666097</v>
+        <v>119.2427976171361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.369395351884044</v>
+        <v>0.2419705812176452</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.9374782702389</v>
+        <v>336.232855406938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04898454894200266</v>
+        <v>0.001993664392882146</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1642793713200712</v>
+        <v>4.0870842345483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1954428749326189</v>
+        <v>0.6096984482968535</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001182274188312451</v>
+        <v>136.1365577219996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06747455277281489</v>
+        <v>0.03641249952289394</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5162,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.98483058851076</v>
+        <v>10.97262791124738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2340428894113083</v>
+        <v>0.3453202590153985</v>
       </c>
     </row>
     <row r="8">
@@ -5565,49 +5175,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4695.133309183004</v>
+        <v>-32.34760843529229</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04867373228874596</v>
+        <v>0.1132728919403453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4242.844533942528</v>
+        <v>151.7694369703238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2082939333573127</v>
+        <v>0.00516987204591203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14153.93472332554</v>
+        <v>-23.3309811202533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008286591722633907</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-6.374401217543394</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7983143129432543</v>
+        <v>0.2883120009648535</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5653,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3084.88075593278</v>
+        <v>2739.815661591795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1876185578749839</v>
+        <v>0.228111214187884</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.2873191233649</v>
+        <v>169.7089799180137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.339731371698082</v>
+        <v>0.2981453711129579</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.2553598600289</v>
+        <v>197.8270946517646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4540489654284736</v>
+        <v>0.2490411165996767</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05304633862603336</v>
+        <v>-4.318533969623852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7094747197514781</v>
+        <v>0.6226351555130429</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.18274388630862e-05</v>
+        <v>142.6058311468212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5206197633961805</v>
+        <v>0.1833886742907472</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5315,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08724183929358276</v>
+        <v>0.1658602036952388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9943220264220114</v>
+        <v>0.9891213033680666</v>
       </c>
     </row>
     <row r="8">
@@ -5731,49 +5328,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5331.942507396914</v>
+        <v>-54.25023274255994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0339758872748771</v>
+        <v>0.02941540389726454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2757.30092731416</v>
+        <v>84.65336023513974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3933983393622879</v>
+        <v>0.06002117788400656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8492.306649867645</v>
+        <v>-10.54365032770917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06190226043293735</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8498772419693239</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9766932272201434</v>
+        <v>0.6826758389049532</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5819,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2358.149871125652</v>
+        <v>2006.519395174446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2935315245135863</v>
+        <v>0.3590383979625452</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.395437779898</v>
+        <v>123.8190310686639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2455978211268796</v>
+        <v>0.2373685005836853</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.2428338106996</v>
+        <v>314.0184621470347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04301525392555364</v>
+        <v>0.009649239996774866</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09249948701128685</v>
+        <v>-0.6448174690034492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5028114280673599</v>
+        <v>0.9372185602060478</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000108516817325425</v>
+        <v>132.572513373408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1435291959390671</v>
+        <v>0.0577453130097977</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5468,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.944355007084269</v>
+        <v>2.32901644013954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8717928168622728</v>
+        <v>0.8458355023820632</v>
       </c>
     </row>
     <row r="8">
@@ -5897,49 +5481,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4878.131042535935</v>
+        <v>-43.99283741742791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01404515331954215</v>
+        <v>0.01834166851648276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2714.378317684523</v>
+        <v>78.469503621478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3726788212542718</v>
+        <v>0.07596434043908112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8416.424938848642</v>
+        <v>-13.86780133238641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06307400422496423</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-7.459457856517815</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7554190155643692</v>
+        <v>0.5435750489094253</v>
       </c>
     </row>
   </sheetData>
@@ -5953,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5985,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3546.888830704652</v>
+        <v>2586.737473891635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09837436635913487</v>
+        <v>0.2082255840643047</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.5426351382168</v>
+        <v>199.4217191477078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03977262147174956</v>
+        <v>0.07896630697798777</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.0422484340352</v>
+        <v>287.2346659012032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4044269081275892</v>
+        <v>0.03986280521337052</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0953935918563461</v>
+        <v>-1.64822308702488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3645093506637921</v>
+        <v>0.8184395636049392</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.35745865787943e-05</v>
+        <v>102.5118756128602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4670196120967142</v>
+        <v>0.1372325923705727</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +5621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9200786473623612</v>
+        <v>2.723492906872503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9256111619097135</v>
+        <v>0.7871796910674567</v>
       </c>
     </row>
     <row r="8">
@@ -6063,49 +5634,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6170.642570692097</v>
+        <v>-54.26939800732626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00112433691918747</v>
+        <v>0.002451766325211177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3741.484144117894</v>
+        <v>63.36139707164347</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1593991870666047</v>
+        <v>0.09732798079929808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6505.917856902101</v>
+        <v>-17.08866127119879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0814629315804215</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-3.25012755279036</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8956109661383209</v>
+        <v>0.4715496447560046</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6151,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.655467283839</v>
+        <v>1517.465937250898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333429935891888</v>
+        <v>0.4349281994713691</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.0241011944457</v>
+        <v>166.7500704032263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09216158234417642</v>
+        <v>0.0888322826471289</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>267.5599397747151</v>
+        <v>321.5849294957854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01502006411898999</v>
+        <v>0.00131104718947379</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08298325391053943</v>
+        <v>1.480872947129578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3847007154425222</v>
+        <v>0.8265343120753219</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.285646043344184e-05</v>
+        <v>116.7137517098502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1454948042281523</v>
+        <v>0.0539100868894062</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +5774,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.055994520924145</v>
+        <v>0.7697094201493542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.913860850483202</v>
+        <v>0.9372421933067242</v>
       </c>
     </row>
     <row r="8">
@@ -6229,49 +5787,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5553.320272673966</v>
+        <v>-52.12341556585502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002878293031840741</v>
+        <v>0.003762840139247755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2212.586931889971</v>
+        <v>86.43862006311112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.309648530690265</v>
+        <v>0.02224898521580533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8611.355523567072</v>
+        <v>-6.090696077697601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02302057159009432</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.04456892324260764</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9982007153481532</v>
+        <v>0.7474049657274949</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6317,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1301.690110055135</v>
+        <v>1233.281577111648</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3975280179472023</v>
+        <v>0.4111081485005823</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.40081871369955</v>
+        <v>76.82538388107218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3807886824743152</v>
+        <v>0.3681791902196343</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.6255011932116</v>
+        <v>366.8906582768677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001453968509582076</v>
+        <v>7.580692649279253e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03660656818150176</v>
+        <v>-1.795948647944908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7335716332202649</v>
+        <v>0.7142811248157508</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001678312830511897</v>
+        <v>175.2607107998855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002433319173186846</v>
+        <v>0.0009722849016050125</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +5927,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.944550799971637</v>
+        <v>7.197139449136728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3657249118211459</v>
+        <v>0.3963859842714124</v>
       </c>
     </row>
     <row r="8">
@@ -6395,49 +5940,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4749.642063051415</v>
+        <v>-43.69685743118377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003004756539052429</v>
+        <v>0.00164920217183727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1580.368433578401</v>
+        <v>64.03153472293587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5677536551195798</v>
+        <v>0.02989462170100113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6734.268957940455</v>
+        <v>-9.020629966996246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02930782650276972</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-4.339981391773406</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8259790006099343</v>
+        <v>0.6095644573380781</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6483,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3995.186463382305</v>
+        <v>3219.44518119939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1017195743863057</v>
+        <v>0.1772238367907655</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.547017589324</v>
+        <v>117.5469831144661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3483194923707015</v>
+        <v>0.3210584756209847</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.4365342352799</v>
+        <v>287.3759678221454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1219719410673513</v>
+        <v>0.01246257551963109</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05455800340221642</v>
+        <v>-4.425584262366914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6162297689116812</v>
+        <v>0.5904054980467466</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.690549745457303e-05</v>
+        <v>105.2387483428052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4777143660685061</v>
+        <v>0.1601213960441424</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.443003174964577</v>
+        <v>-4.416334340523374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6522810290830963</v>
+        <v>0.7203073235815523</v>
       </c>
     </row>
     <row r="8">
@@ -6561,49 +6093,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3864.129467500945</v>
+        <v>-35.37138930423065</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04948675403724256</v>
+        <v>0.07264496054652235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3375.446361442902</v>
+        <v>63.97466997664189</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1896836713367111</v>
+        <v>0.1668365166807419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6001.279214983684</v>
+        <v>-11.08816651874031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1846964445777126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.612258418636358</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9148292159710382</v>
+        <v>0.6272275521156956</v>
       </c>
     </row>
   </sheetData>
@@ -6617,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6649,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4746.964897847572</v>
+        <v>4086.61373083173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06486738824159295</v>
+        <v>0.1042187408117352</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.9468492513286</v>
+        <v>234.1342191548018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06875035815121402</v>
+        <v>0.1069917193237078</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-12.75108059031345</v>
+        <v>136.5227761466033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.952317807781859</v>
+        <v>0.4523672117543373</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004060188390304642</v>
+        <v>-11.19398342544826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9753140074984785</v>
+        <v>0.2760007090298525</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001511936739675376</v>
+        <v>214.3871593654096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184363013078308</v>
+        <v>0.04458455904343063</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6233,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.389213268641917</v>
+        <v>-5.291539724218794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7753135762639503</v>
+        <v>0.6592654374613562</v>
       </c>
     </row>
     <row r="8">
@@ -6727,49 +6246,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6868.972658325967</v>
+        <v>-62.0547647666161</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007726032894452018</v>
+        <v>0.01294918104820269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3594.429841866578</v>
+        <v>63.1807456418651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2201564700317161</v>
+        <v>0.1363881660839987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6373.180610520176</v>
+        <v>-10.58786772142854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1278736434938126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.65894349793038</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9466555863101173</v>
+        <v>0.6490327834812812</v>
       </c>
     </row>
   </sheetData>
@@ -6783,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6815,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.8664329654221</v>
+        <v>-77.15312594427451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9104086663919984</v>
+        <v>0.9730165237723143</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.3302410287179</v>
+        <v>134.53096361905</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1918062203837677</v>
+        <v>0.1781982761229177</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.6355750661755</v>
+        <v>347.9075531852916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008801350345355442</v>
+        <v>0.001179340958507437</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1162442964915062</v>
+        <v>6.393949910994024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2969173800200901</v>
+        <v>0.431754806376406</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001067071073310123</v>
+        <v>122.9699135816003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09396289075343345</v>
+        <v>0.03856777881309691</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.565366076249035</v>
+        <v>8.072980693394364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5327177619633418</v>
+        <v>0.4990956750526706</v>
       </c>
     </row>
     <row r="8">
@@ -6893,49 +6399,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3159.835175173215</v>
+        <v>-27.68754232866686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1544641461045686</v>
+        <v>0.1881205963047442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1690.310570230664</v>
+        <v>154.2091799248699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4772017470655274</v>
+        <v>0.004547881427246193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15180.26781377984</v>
+        <v>-28.22791187718738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005974290786446374</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-21.80835782429158</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3301802071808434</v>
+        <v>0.1673747558736445</v>
       </c>
     </row>
   </sheetData>
@@ -6949,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6981,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2949.254673156369</v>
+        <v>2616.370992265057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1084179910555262</v>
+        <v>0.1466733738221954</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.1962380272149</v>
+        <v>134.794197159501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1746414698400505</v>
+        <v>0.1484793558646672</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.9359362214475</v>
+        <v>323.6258219519706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01315075742337997</v>
+        <v>0.00198799626076745</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.131347067435844</v>
+        <v>4.516143688568654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2228606578817077</v>
+        <v>0.5210636106613509</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.145463216330725e-05</v>
+        <v>95.57759971124898</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2524514293787797</v>
+        <v>0.1084230822189032</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +6539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.471740167534513</v>
+        <v>1.387216533499739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7926971470924841</v>
+        <v>0.88261894832371</v>
       </c>
     </row>
     <row r="8">
@@ -7059,49 +6552,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6003.941645773286</v>
+        <v>-56.81255218060071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001557992497080752</v>
+        <v>0.002058875055624413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2529.842917747161</v>
+        <v>70.1962045676113</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2842082140246142</v>
+        <v>0.05836311030460041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7091.704463469869</v>
+        <v>-20.74735330436301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05564222514439333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-15.42432194394521</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4737549151654005</v>
+        <v>0.327703307667248</v>
       </c>
     </row>
   </sheetData>
@@ -7115,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7147,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.536710161175</v>
+        <v>1214.161599709423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3974712913890862</v>
+        <v>0.3926170636860418</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.78482206547847</v>
+        <v>88.28075212482213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1982912574435286</v>
+        <v>0.1868337104350739</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.5556156201061</v>
+        <v>377.3546051186169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000868225421347384</v>
+        <v>4.204412505255369e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06118510447108028</v>
+        <v>5.199943963358031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4236422195382678</v>
+        <v>0.3318669346309527</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001049065626964312</v>
+        <v>108.4754552450358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04389462515705495</v>
+        <v>0.02005116464498665</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +6692,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.233954595348344</v>
+        <v>-3.273749065160558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6267522764420788</v>
+        <v>0.6116931692472165</v>
       </c>
     </row>
     <row r="8">
@@ -7225,49 +6705,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4493.820010329743</v>
+        <v>-44.27686360178814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001696274852494686</v>
+        <v>0.0008879461328010704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-312.2078812358632</v>
+        <v>84.57431498767949</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8613539061724538</v>
+        <v>0.005012350519027079</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8481.918252642057</v>
+        <v>3.692241252436794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006417700970869818</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.690663456292011</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7524571399778623</v>
+        <v>0.7815028041595774</v>
       </c>
     </row>
   </sheetData>
@@ -7281,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7313,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3454.715900896526</v>
+        <v>3387.538273461834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1456544635000858</v>
+        <v>0.1956253341339786</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-24.01091831980295</v>
+        <v>57.61992024755341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.823507421232497</v>
+        <v>0.6097484781059873</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.6616229972689</v>
+        <v>301.2936468547553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08742221869154046</v>
+        <v>0.007882433456220863</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1393765415976822</v>
+        <v>-6.641601215808215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2723253293732201</v>
+        <v>0.475642010852511</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.984683302518682e-05</v>
+        <v>114.6333403858504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3375116873390344</v>
+        <v>0.1472039489155355</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +6845,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5176058062781692</v>
+        <v>-5.618216957181303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.967621060053258</v>
+        <v>0.6856686608978479</v>
       </c>
     </row>
     <row r="8">
@@ -7391,49 +6858,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5149.652812559932</v>
+        <v>-37.01810067524796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03200656413879254</v>
+        <v>0.1311382386771536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6502.730880120168</v>
+        <v>63.50119192733598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03864550560464845</v>
+        <v>0.1879954502600923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7679.172566001129</v>
+        <v>-6.005451557314359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08615588588477117</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>17.54466547840944</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4486443792918223</v>
+        <v>0.7908934921306214</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7479,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2230.083259364629</v>
+        <v>1939.152809063696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3355310461842934</v>
+        <v>0.3829532627093131</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.5642338400178</v>
+        <v>221.6377955915545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1087450482322579</v>
+        <v>0.1122949115799308</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.5255761071901</v>
+        <v>236.8405844130013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.285384038493016</v>
+        <v>0.1361426340427171</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03178833521908286</v>
+        <v>-4.096077775518694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8182073054613651</v>
+        <v>0.6064538142877653</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001495238741795399</v>
+        <v>186.1008620456341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1835256798596013</v>
+        <v>0.05557458926697603</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +6998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.939026601100796</v>
+        <v>3.179333159112517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8337055290337725</v>
+        <v>0.8171055493590391</v>
       </c>
     </row>
     <row r="8">
@@ -7557,49 +7011,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5797.997775111407</v>
+        <v>-55.89258344806871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008956705036746785</v>
+        <v>0.008864935385796049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1988.550642031896</v>
+        <v>81.23162043849283</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5196128278897172</v>
+        <v>0.05356670831021921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8446.807083504813</v>
+        <v>-9.837310862594776</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05148531764767691</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-4.047499811217392</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8696763602287907</v>
+        <v>0.6639443321927783</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7645,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548.7784435190897</v>
+        <v>421.6720527809448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7977381646264609</v>
+        <v>0.833472275282662</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.2890386625974</v>
+        <v>117.498015341917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2025597416903456</v>
+        <v>0.1947968317852612</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.1965632544682</v>
+        <v>304.8823959040114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01630223884641651</v>
+        <v>0.003709238726037184</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04416065461733187</v>
+        <v>2.332712120623476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7155982119996507</v>
+        <v>0.7532584396354505</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.023484007104898e-05</v>
+        <v>94.15401244561957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1491002251391534</v>
+        <v>0.107539137672247</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.63297737582921</v>
+        <v>16.89680426219229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1565042140196909</v>
+        <v>0.1371379382910032</v>
       </c>
     </row>
     <row r="8">
@@ -7723,49 +7164,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2571.328769285938</v>
+        <v>-24.29924767150568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1790873281470706</v>
+        <v>0.1647395068573179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-635.342466048703</v>
+        <v>158.4012546659032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8246215690992078</v>
+        <v>0.002272088892819063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15605.26064108015</v>
+        <v>-52.85911706047477</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004035914940458908</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-50.27215831145516</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07491124876948449</v>
+        <v>0.03537678636178399</v>
       </c>
     </row>
   </sheetData>
@@ -7779,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7811,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3589.491607587111</v>
+        <v>3383.102872821409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04028627064567782</v>
+        <v>0.04280076463565972</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.55437528262368</v>
+        <v>76.88561361781302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4099106079311118</v>
+        <v>0.3795069612958027</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.3571390558677</v>
+        <v>347.9239088146588</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003166601375066319</v>
+        <v>0.0003830447582812657</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007289066655700005</v>
+        <v>-4.565797275253525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9337622566259245</v>
+        <v>0.4378858951700049</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001052192861023567</v>
+        <v>120.0530709044779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08105689491071015</v>
+        <v>0.02798743315822795</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7304,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.459524722540168</v>
+        <v>-7.443183922869803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3942153825945408</v>
+        <v>0.3862260138735246</v>
       </c>
     </row>
     <row r="8">
@@ -7889,49 +7317,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3140.744085434738</v>
+        <v>-30.02705427201077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04450442466547253</v>
+        <v>0.04642844702172981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1258.322159378486</v>
+        <v>46.86524719671512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5537654648770063</v>
+        <v>0.1379613896499028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4706.704090784765</v>
+        <v>-8.539719171077166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1440954053184026</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-4.357502294019213</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8076430796354291</v>
+        <v>0.5981325733773433</v>
       </c>
     </row>
   </sheetData>
@@ -7945,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7977,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3958.651987181132</v>
+        <v>3615.414686838227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05215866516259052</v>
+        <v>0.07030444669788836</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218.9327650834337</v>
+        <v>215.1633349996955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06916675451822661</v>
+        <v>0.07389076448418461</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.8154636130804</v>
+        <v>385.228383568496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007787331776827093</v>
+        <v>0.0006554830324786771</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06639418334093505</v>
+        <v>-0.9171027803077081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5003311846348292</v>
+        <v>0.8929958072959798</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001342754537438996</v>
+        <v>160.5002177253725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04958226055318441</v>
+        <v>0.01411840516566553</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +7457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7330144376018666</v>
+        <v>0.2797579656310916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.941899784643411</v>
+        <v>0.9778825778723115</v>
       </c>
     </row>
     <row r="8">
@@ -8055,49 +7470,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4727.237041815338</v>
+        <v>-43.79982749081724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01116414336257688</v>
+        <v>0.01549808087327981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2403.633511542792</v>
+        <v>38.5745607319827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2917026718423741</v>
+        <v>0.3417486641677944</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3818.729883377906</v>
+        <v>-42.63650312600332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3448671098726096</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-34.53048459309895</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1575652794316862</v>
+        <v>0.07133301243313722</v>
       </c>
     </row>
   </sheetData>
@@ -8111,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8143,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2729.838371381235</v>
+        <v>2341.359292969886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1970564111759737</v>
+        <v>0.2524137631473389</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.3684389851596</v>
+        <v>156.9367327147003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1851469820574901</v>
+        <v>0.1781450961552568</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.0923740738557</v>
+        <v>281.3452304078823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07251319803721584</v>
+        <v>0.01645936497475869</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06545761353535662</v>
+        <v>-2.798251710470971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.616057745762052</v>
+        <v>0.7264653777923626</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001033527142105515</v>
+        <v>128.6058744976351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1626936773325244</v>
+        <v>0.06391888806691366</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +7610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1255012122283503</v>
+        <v>-1.727898716483345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9911923234251352</v>
+        <v>0.877178408975908</v>
       </c>
     </row>
     <row r="8">
@@ -8221,49 +7623,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4949.459858056705</v>
+        <v>-48.33684692132377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01382020226963479</v>
+        <v>0.01463309450179962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2945.837097317217</v>
+        <v>84.50989698003588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3672863089395004</v>
+        <v>0.05766344201350326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7969.280512267494</v>
+        <v>-7.547707980600116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07599725123298953</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-2.495054205043232</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.912638114016122</v>
+        <v>0.7313395208842295</v>
       </c>
     </row>
   </sheetData>
@@ -8277,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8309,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3002.678601810593</v>
+        <v>2871.247076385217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1610940403255613</v>
+        <v>0.1917939501963732</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.3578359437992</v>
+        <v>198.5787289888015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2579249810972077</v>
+        <v>0.1011426591438769</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.2876889589932</v>
+        <v>408.3932477126322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02715366807883614</v>
+        <v>0.0008461296541281516</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1142589556372631</v>
+        <v>1.123212771242123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2790917411356973</v>
+        <v>0.8860936875616463</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001295275441823613</v>
+        <v>166.6921620632274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06693592834125099</v>
+        <v>0.01706451231872455</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +7763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.941404398994425</v>
+        <v>0.2355414298326579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7739381842374218</v>
+        <v>0.9819255364096746</v>
       </c>
     </row>
     <row r="8">
@@ -8387,49 +7776,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5123.432710329428</v>
+        <v>-39.28861029374995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01262957433787902</v>
+        <v>0.03306976690320846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3909.189847946749</v>
+        <v>43.7167360056086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1575411783973991</v>
+        <v>0.3037479117833994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5909.383409559614</v>
+        <v>-33.09911776899415</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1704336238998505</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-12.0248452786502</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.685633975039573</v>
+        <v>0.2261589693630279</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8475,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-917.0514651751337</v>
+        <v>-1033.694412911531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7140021494435466</v>
+        <v>0.6620529430955775</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.5688044617481</v>
+        <v>186.9924056084556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09454269242281683</v>
+        <v>0.08569980660085022</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316.4113695332576</v>
+        <v>325.0780597720473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.012513316390493</v>
+        <v>0.005167245539743514</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09409699600451094</v>
+        <v>7.43991044845329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469355920912408</v>
+        <v>0.3721408365598061</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001165627489853495</v>
+        <v>122.5877869485086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223974282080471</v>
+        <v>0.1668591125017064</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +7916,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.83572357725266</v>
+        <v>19.32075117781327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1774936400935334</v>
+        <v>0.1485883190313131</v>
       </c>
     </row>
     <row r="8">
@@ -8553,49 +7929,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2484.397740047735</v>
+        <v>-24.07421859030664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2587384233731707</v>
+        <v>0.2516855259844303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-568.6037827630807</v>
+        <v>159.8074561734597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8393558462165804</v>
+        <v>0.005736708157857187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15958.14391478089</v>
+        <v>-40.34977624913642</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007429474983586926</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-38.48722257214988</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1457269832491044</v>
+        <v>0.09492616265321777</v>
       </c>
     </row>
   </sheetData>
@@ -8609,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8641,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3653.904754738208</v>
+        <v>3371.815940193625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09660793719217199</v>
+        <v>0.1208847128149477</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3475599322592</v>
+        <v>78.18732046216786</v>
       </c>
       <c r="C3" t="n">
-        <v>0.411688857644802</v>
+        <v>0.5467901374524822</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.6025983686177</v>
+        <v>337.0075453830119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1828318999042664</v>
+        <v>0.02071080080049963</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06435861824274242</v>
+        <v>-2.886106348903757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5751525553912651</v>
+        <v>0.6970629314427608</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.333325347549422e-05</v>
+        <v>135.3514306333662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.237326451843625</v>
+        <v>0.05478298723237252</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8069,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.190705991658918</v>
+        <v>-5.531785243377897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7084021219162648</v>
+        <v>0.6211658229425517</v>
       </c>
     </row>
     <row r="8">
@@ -8719,49 +8082,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5292.303183170772</v>
+        <v>-48.42851228440241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00950093539395854</v>
+        <v>0.01362280829056814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2827.871370123828</v>
+        <v>76.4543441210969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2939722464090494</v>
+        <v>0.06625966575472027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7697.268280880206</v>
+        <v>-20.48224226166347</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06439599375346346</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-8.057838805479783</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7461287067359283</v>
+        <v>0.3585217204635527</v>
       </c>
     </row>
   </sheetData>
